--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -2,30 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6630" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Incidentes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Riesgos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Capacitaciones" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Riesgos'!$B$1:$N$37</definedName>
-  </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,282 +29,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="24"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.1499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -322,133 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -811,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,64 +438,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="44" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Área</t>
         </is>
       </c>
-      <c r="D1" s="44" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Puesto</t>
         </is>
       </c>
-      <c r="E1" s="44" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="F1" s="44" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Causa</t>
         </is>
       </c>
-      <c r="G1" s="44" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Días_Perdidos</t>
         </is>
       </c>
-      <c r="H1" s="44" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Severidad</t>
         </is>
       </c>
-      <c r="I1" s="44" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Probabilidad</t>
         </is>
       </c>
-      <c r="J1" s="44" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Descripción</t>
         </is>
       </c>
-      <c r="K1" s="44" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Riesgo</t>
         </is>
       </c>
-      <c r="L1" s="44" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Hora del Evento</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo_valor</t>
         </is>
       </c>
     </row>
@@ -887,7 +510,7 @@
           <t>INC1000</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n">
+      <c r="B2" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -928,6 +551,7 @@
         <v>20</v>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -935,7 +559,7 @@
           <t>INC1001</t>
         </is>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="2" t="n">
         <v>45595</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -976,6 +600,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -983,7 +608,7 @@
           <t>INC1002</t>
         </is>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -1024,6 +649,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1031,7 +657,7 @@
           <t>INC1003</t>
         </is>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="2" t="n">
         <v>45837</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -1072,6 +698,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1079,7 +706,7 @@
           <t>INC1004</t>
         </is>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="2" t="n">
         <v>45872</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -1120,6 +747,7 @@
         <v>12</v>
       </c>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1127,7 +755,7 @@
           <t>INC1005</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="2" t="n">
         <v>45755</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -1168,6 +796,7 @@
         <v>20</v>
       </c>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1175,7 +804,7 @@
           <t>INC1006</t>
         </is>
       </c>
-      <c r="B8" s="46" t="n">
+      <c r="B8" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -1216,6 +845,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1223,7 +853,7 @@
           <t>INC1007</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n">
+      <c r="B9" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -1264,6 +894,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1271,7 +902,7 @@
           <t>INC1008</t>
         </is>
       </c>
-      <c r="B10" s="46" t="n">
+      <c r="B10" s="2" t="n">
         <v>45822</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -1312,6 +943,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1319,7 +951,7 @@
           <t>INC1009</t>
         </is>
       </c>
-      <c r="B11" s="46" t="n">
+      <c r="B11" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -1360,6 +992,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1367,7 +1000,7 @@
           <t>INC1010</t>
         </is>
       </c>
-      <c r="B12" s="46" t="n">
+      <c r="B12" s="2" t="n">
         <v>45613</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -1408,6 +1041,7 @@
         <v>6</v>
       </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1415,7 +1049,7 @@
           <t>INC1011</t>
         </is>
       </c>
-      <c r="B13" s="46" t="n">
+      <c r="B13" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1456,6 +1090,7 @@
         <v>4</v>
       </c>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1463,7 +1098,7 @@
           <t>INC1012</t>
         </is>
       </c>
-      <c r="B14" s="46" t="n">
+      <c r="B14" s="2" t="n">
         <v>45844</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1504,6 +1139,7 @@
         <v>8</v>
       </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1511,7 +1147,7 @@
           <t>INC1013</t>
         </is>
       </c>
-      <c r="B15" s="46" t="n">
+      <c r="B15" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1552,6 +1188,7 @@
         <v>20</v>
       </c>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1559,7 +1196,7 @@
           <t>INC1014</t>
         </is>
       </c>
-      <c r="B16" s="46" t="n">
+      <c r="B16" s="2" t="n">
         <v>45792</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1600,6 +1237,7 @@
         <v>5</v>
       </c>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1607,7 +1245,7 @@
           <t>INC1015</t>
         </is>
       </c>
-      <c r="B17" s="46" t="n">
+      <c r="B17" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1648,6 +1286,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1655,7 +1294,7 @@
           <t>INC1016</t>
         </is>
       </c>
-      <c r="B18" s="46" t="n">
+      <c r="B18" s="2" t="n">
         <v>45794</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1696,6 +1335,7 @@
         <v>25</v>
       </c>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1703,7 +1343,7 @@
           <t>INC1017</t>
         </is>
       </c>
-      <c r="B19" s="46" t="n">
+      <c r="B19" s="2" t="n">
         <v>45635</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1744,6 +1384,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1751,7 +1392,7 @@
           <t>INC1018</t>
         </is>
       </c>
-      <c r="B20" s="46" t="n">
+      <c r="B20" s="2" t="n">
         <v>45686</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1792,6 +1433,7 @@
         <v>4</v>
       </c>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1799,7 +1441,7 @@
           <t>INC1019</t>
         </is>
       </c>
-      <c r="B21" s="46" t="n">
+      <c r="B21" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1840,6 +1482,7 @@
         <v>3</v>
       </c>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1847,7 +1490,7 @@
           <t>INC1020</t>
         </is>
       </c>
-      <c r="B22" s="46" t="n">
+      <c r="B22" s="2" t="n">
         <v>45650</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1888,6 +1531,7 @@
         <v>4</v>
       </c>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1895,7 +1539,7 @@
           <t>INC1021</t>
         </is>
       </c>
-      <c r="B23" s="46" t="n">
+      <c r="B23" s="2" t="n">
         <v>45752</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1936,6 +1580,7 @@
         <v>20</v>
       </c>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1943,7 +1588,7 @@
           <t>INC1022</t>
         </is>
       </c>
-      <c r="B24" s="46" t="n">
+      <c r="B24" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1984,6 +1629,7 @@
         <v>9</v>
       </c>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1991,7 +1637,7 @@
           <t>INC1023</t>
         </is>
       </c>
-      <c r="B25" s="46" t="n">
+      <c r="B25" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -2032,6 +1678,7 @@
         <v>6</v>
       </c>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2039,7 +1686,7 @@
           <t>INC1024</t>
         </is>
       </c>
-      <c r="B26" s="46" t="n">
+      <c r="B26" s="2" t="n">
         <v>45630</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -2080,6 +1727,7 @@
         <v>5</v>
       </c>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2087,7 +1735,7 @@
           <t>INC1025</t>
         </is>
       </c>
-      <c r="B27" s="46" t="n">
+      <c r="B27" s="2" t="n">
         <v>45922</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -2128,6 +1776,7 @@
         <v>10</v>
       </c>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2135,7 +1784,7 @@
           <t>INC1026</t>
         </is>
       </c>
-      <c r="B28" s="46" t="n">
+      <c r="B28" s="2" t="n">
         <v>45691</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -2176,6 +1825,7 @@
         <v>20</v>
       </c>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2183,7 +1833,7 @@
           <t>INC1027</t>
         </is>
       </c>
-      <c r="B29" s="46" t="n">
+      <c r="B29" s="2" t="n">
         <v>45708</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -2224,6 +1874,7 @@
         <v>6</v>
       </c>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2231,7 +1882,7 @@
           <t>INC1028</t>
         </is>
       </c>
-      <c r="B30" s="46" t="n">
+      <c r="B30" s="2" t="n">
         <v>45599</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -2272,6 +1923,7 @@
         <v>20</v>
       </c>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2279,7 +1931,7 @@
           <t>INC1029</t>
         </is>
       </c>
-      <c r="B31" s="46" t="n">
+      <c r="B31" s="2" t="n">
         <v>45895</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -2320,6 +1972,7 @@
         <v>9</v>
       </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2327,7 +1980,7 @@
           <t>INC1030</t>
         </is>
       </c>
-      <c r="B32" s="46" t="n">
+      <c r="B32" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -2368,6 +2021,7 @@
         <v>5</v>
       </c>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2375,7 +2029,7 @@
           <t>INC1031</t>
         </is>
       </c>
-      <c r="B33" s="46" t="n">
+      <c r="B33" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -2416,6 +2070,7 @@
         <v>2</v>
       </c>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2423,7 +2078,7 @@
           <t>INC1032</t>
         </is>
       </c>
-      <c r="B34" s="46" t="n">
+      <c r="B34" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -2464,6 +2119,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2471,7 +2127,7 @@
           <t>INC1033</t>
         </is>
       </c>
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -2512,6 +2168,7 @@
         <v>8</v>
       </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2519,7 +2176,7 @@
           <t>INC1034</t>
         </is>
       </c>
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -2560,6 +2217,7 @@
         <v>16</v>
       </c>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2567,7 +2225,7 @@
           <t>INC1035</t>
         </is>
       </c>
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="2" t="n">
         <v>45769</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -2608,6 +2266,7 @@
         <v>9</v>
       </c>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2615,7 +2274,7 @@
           <t>INC1036</t>
         </is>
       </c>
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="2" t="n">
         <v>45893</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -2656,6 +2315,7 @@
         <v>16</v>
       </c>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2663,7 +2323,7 @@
           <t>INC1037</t>
         </is>
       </c>
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="2" t="n">
         <v>45580</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2704,6 +2364,7 @@
         <v>5</v>
       </c>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2711,7 +2372,7 @@
           <t>INC1038</t>
         </is>
       </c>
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2752,6 +2413,7 @@
         <v>5</v>
       </c>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2759,7 +2421,7 @@
           <t>INC1039</t>
         </is>
       </c>
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="2" t="n">
         <v>45700</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2800,6 +2462,7 @@
         <v>15</v>
       </c>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2807,7 +2470,7 @@
           <t>INC1040</t>
         </is>
       </c>
-      <c r="B42" s="46" t="n">
+      <c r="B42" s="2" t="n">
         <v>45624</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2848,6 +2511,7 @@
         <v>25</v>
       </c>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2855,7 +2519,7 @@
           <t>INC1041</t>
         </is>
       </c>
-      <c r="B43" s="46" t="n">
+      <c r="B43" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2896,6 +2560,7 @@
         <v>6</v>
       </c>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2903,7 +2568,7 @@
           <t>INC1042</t>
         </is>
       </c>
-      <c r="B44" s="46" t="n">
+      <c r="B44" s="2" t="n">
         <v>45637</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2944,6 +2609,7 @@
         <v>6</v>
       </c>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2951,7 +2617,7 @@
           <t>INC1043</t>
         </is>
       </c>
-      <c r="B45" s="46" t="n">
+      <c r="B45" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2992,6 +2658,7 @@
         <v>8</v>
       </c>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2999,7 +2666,7 @@
           <t>INC1044</t>
         </is>
       </c>
-      <c r="B46" s="46" t="n">
+      <c r="B46" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -3040,6 +2707,7 @@
         <v>3</v>
       </c>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3047,7 +2715,7 @@
           <t>INC1045</t>
         </is>
       </c>
-      <c r="B47" s="46" t="n">
+      <c r="B47" s="2" t="n">
         <v>45615</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -3088,6 +2756,7 @@
         <v>10</v>
       </c>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3095,7 +2764,7 @@
           <t>INC1046</t>
         </is>
       </c>
-      <c r="B48" s="46" t="n">
+      <c r="B48" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -3136,6 +2805,7 @@
         <v>4</v>
       </c>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3143,7 +2813,7 @@
           <t>INC1047</t>
         </is>
       </c>
-      <c r="B49" s="46" t="n">
+      <c r="B49" s="2" t="n">
         <v>45670</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -3184,6 +2854,7 @@
         <v>5</v>
       </c>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3191,7 +2862,7 @@
           <t>INC1048</t>
         </is>
       </c>
-      <c r="B50" s="46" t="n">
+      <c r="B50" s="2" t="n">
         <v>45855</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -3232,6 +2903,7 @@
         <v>8</v>
       </c>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3239,7 +2911,7 @@
           <t>INC1049</t>
         </is>
       </c>
-      <c r="B51" s="46" t="n">
+      <c r="B51" s="2" t="n">
         <v>45628</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -3280,6 +2952,7 @@
         <v>6</v>
       </c>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3287,7 +2960,7 @@
           <t>INC1050</t>
         </is>
       </c>
-      <c r="B52" s="46" t="n">
+      <c r="B52" s="2" t="n">
         <v>45930</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -3328,6 +3001,7 @@
         <v>15</v>
       </c>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3335,7 +3009,7 @@
           <t>INC1051</t>
         </is>
       </c>
-      <c r="B53" s="46" t="n">
+      <c r="B53" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -3376,6 +3050,7 @@
         <v>20</v>
       </c>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3383,7 +3058,7 @@
           <t>INC1052</t>
         </is>
       </c>
-      <c r="B54" s="46" t="n">
+      <c r="B54" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -3424,6 +3099,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3431,7 +3107,7 @@
           <t>INC1053</t>
         </is>
       </c>
-      <c r="B55" s="46" t="n">
+      <c r="B55" s="2" t="n">
         <v>45598</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -3472,6 +3148,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3479,7 +3156,7 @@
           <t>INC1054</t>
         </is>
       </c>
-      <c r="B56" s="46" t="n">
+      <c r="B56" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -3520,6 +3197,7 @@
         <v>12</v>
       </c>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3527,7 +3205,7 @@
           <t>INC1055</t>
         </is>
       </c>
-      <c r="B57" s="46" t="n">
+      <c r="B57" s="2" t="n">
         <v>45604</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -3568,6 +3246,7 @@
         <v>16</v>
       </c>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3575,7 +3254,7 @@
           <t>INC1056</t>
         </is>
       </c>
-      <c r="B58" s="46" t="n">
+      <c r="B58" s="2" t="n">
         <v>45852</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -3616,6 +3295,7 @@
         <v>8</v>
       </c>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3623,7 +3303,7 @@
           <t>INC1057</t>
         </is>
       </c>
-      <c r="B59" s="46" t="n">
+      <c r="B59" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -3664,6 +3344,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3671,7 +3352,7 @@
           <t>INC1058</t>
         </is>
       </c>
-      <c r="B60" s="46" t="n">
+      <c r="B60" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -3712,6 +3393,7 @@
         <v>5</v>
       </c>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3719,7 +3401,7 @@
           <t>INC1059</t>
         </is>
       </c>
-      <c r="B61" s="46" t="n">
+      <c r="B61" s="2" t="n">
         <v>45738</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -3760,6 +3442,7 @@
         <v>12</v>
       </c>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3767,7 +3450,7 @@
           <t>INC1060</t>
         </is>
       </c>
-      <c r="B62" s="46" t="n">
+      <c r="B62" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -3808,6 +3491,7 @@
         <v>10</v>
       </c>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3815,7 +3499,7 @@
           <t>INC1061</t>
         </is>
       </c>
-      <c r="B63" s="46" t="n">
+      <c r="B63" s="2" t="n">
         <v>45894</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -3856,6 +3540,7 @@
         <v>15</v>
       </c>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3863,7 +3548,7 @@
           <t>INC1062</t>
         </is>
       </c>
-      <c r="B64" s="46" t="n">
+      <c r="B64" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3904,6 +3589,7 @@
         <v>4</v>
       </c>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3911,7 +3597,7 @@
           <t>INC1063</t>
         </is>
       </c>
-      <c r="B65" s="46" t="n">
+      <c r="B65" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3952,6 +3638,7 @@
         <v>6</v>
       </c>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3959,7 +3646,7 @@
           <t>INC1064</t>
         </is>
       </c>
-      <c r="B66" s="46" t="n">
+      <c r="B66" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -4000,6 +3687,7 @@
         <v>5</v>
       </c>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4007,7 +3695,7 @@
           <t>INC1065</t>
         </is>
       </c>
-      <c r="B67" s="46" t="n">
+      <c r="B67" s="2" t="n">
         <v>45838</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -4048,6 +3736,7 @@
         <v>3</v>
       </c>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4055,7 +3744,7 @@
           <t>INC1066</t>
         </is>
       </c>
-      <c r="B68" s="46" t="n">
+      <c r="B68" s="2" t="n">
         <v>45684</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -4096,6 +3785,7 @@
         <v>15</v>
       </c>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4103,7 +3793,7 @@
           <t>INC1067</t>
         </is>
       </c>
-      <c r="B69" s="46" t="n">
+      <c r="B69" s="2" t="n">
         <v>45634</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -4144,6 +3834,7 @@
         <v>10</v>
       </c>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4151,7 +3842,7 @@
           <t>INC1068</t>
         </is>
       </c>
-      <c r="B70" s="46" t="n">
+      <c r="B70" s="2" t="n">
         <v>45753</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -4192,6 +3883,7 @@
         <v>10</v>
       </c>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4199,7 +3891,7 @@
           <t>INC1069</t>
         </is>
       </c>
-      <c r="B71" s="46" t="n">
+      <c r="B71" s="2" t="n">
         <v>45726</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -4240,6 +3932,7 @@
         <v>3</v>
       </c>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4247,7 +3940,7 @@
           <t>INC1070</t>
         </is>
       </c>
-      <c r="B72" s="46" t="n">
+      <c r="B72" s="2" t="n">
         <v>45900</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -4288,6 +3981,7 @@
         <v>5</v>
       </c>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4295,7 +3989,7 @@
           <t>INC1071</t>
         </is>
       </c>
-      <c r="B73" s="46" t="n">
+      <c r="B73" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -4336,6 +4030,7 @@
         <v>4</v>
       </c>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4343,7 +4038,7 @@
           <t>INC1072</t>
         </is>
       </c>
-      <c r="B74" s="46" t="n">
+      <c r="B74" s="2" t="n">
         <v>45742</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -4384,6 +4079,7 @@
         <v>5</v>
       </c>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4391,7 +4087,7 @@
           <t>INC1073</t>
         </is>
       </c>
-      <c r="B75" s="46" t="n">
+      <c r="B75" s="2" t="n">
         <v>45674</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -4432,6 +4128,7 @@
         <v>8</v>
       </c>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4439,7 +4136,7 @@
           <t>INC1074</t>
         </is>
       </c>
-      <c r="B76" s="46" t="n">
+      <c r="B76" s="2" t="n">
         <v>45593</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -4480,6 +4177,7 @@
         <v>3</v>
       </c>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4487,7 +4185,7 @@
           <t>INC1075</t>
         </is>
       </c>
-      <c r="B77" s="46" t="n">
+      <c r="B77" s="2" t="n">
         <v>45640</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -4528,6 +4226,7 @@
         <v>3</v>
       </c>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4535,7 +4234,7 @@
           <t>INC1076</t>
         </is>
       </c>
-      <c r="B78" s="46" t="n">
+      <c r="B78" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -4576,6 +4275,7 @@
         <v>9</v>
       </c>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4583,7 +4283,7 @@
           <t>INC1077</t>
         </is>
       </c>
-      <c r="B79" s="46" t="n">
+      <c r="B79" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -4624,6 +4324,7 @@
         <v>3</v>
       </c>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4631,7 +4332,7 @@
           <t>INC1078</t>
         </is>
       </c>
-      <c r="B80" s="46" t="n">
+      <c r="B80" s="2" t="n">
         <v>45692</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -4672,6 +4373,7 @@
         <v>4</v>
       </c>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4679,7 +4381,7 @@
           <t>INC1079</t>
         </is>
       </c>
-      <c r="B81" s="46" t="n">
+      <c r="B81" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -4720,6 +4422,7 @@
         <v>20</v>
       </c>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4727,7 +4430,7 @@
           <t>INC1080</t>
         </is>
       </c>
-      <c r="B82" s="46" t="n">
+      <c r="B82" s="2" t="n">
         <v>45648</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -4768,6 +4471,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4775,7 +4479,7 @@
           <t>INC1081</t>
         </is>
       </c>
-      <c r="B83" s="46" t="n">
+      <c r="B83" s="2" t="n">
         <v>45731</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -4816,6 +4520,7 @@
         <v>12</v>
       </c>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4823,7 +4528,7 @@
           <t>INC1082</t>
         </is>
       </c>
-      <c r="B84" s="46" t="n">
+      <c r="B84" s="2" t="n">
         <v>45736</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -4864,6 +4569,7 @@
         <v>4</v>
       </c>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4871,7 +4577,7 @@
           <t>INC1083</t>
         </is>
       </c>
-      <c r="B85" s="46" t="n">
+      <c r="B85" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -4912,6 +4618,7 @@
         <v>2</v>
       </c>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4919,7 +4626,7 @@
           <t>INC1084</t>
         </is>
       </c>
-      <c r="B86" s="46" t="n">
+      <c r="B86" s="2" t="n">
         <v>45606</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -4960,6 +4667,7 @@
         <v>8</v>
       </c>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4967,7 +4675,7 @@
           <t>INC1085</t>
         </is>
       </c>
-      <c r="B87" s="46" t="n">
+      <c r="B87" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -5008,6 +4716,7 @@
         <v>4</v>
       </c>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5015,7 +4724,7 @@
           <t>INC1086</t>
         </is>
       </c>
-      <c r="B88" s="46" t="n">
+      <c r="B88" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -5056,6 +4765,7 @@
         <v>4</v>
       </c>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5063,7 +4773,7 @@
           <t>INC1087</t>
         </is>
       </c>
-      <c r="B89" s="46" t="n">
+      <c r="B89" s="2" t="n">
         <v>45727</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -5104,6 +4814,7 @@
         <v>1</v>
       </c>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5111,7 +4822,7 @@
           <t>INC1088</t>
         </is>
       </c>
-      <c r="B90" s="46" t="n">
+      <c r="B90" s="2" t="n">
         <v>45692</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -5152,6 +4863,7 @@
         <v>10</v>
       </c>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5159,7 +4871,7 @@
           <t>INC1089</t>
         </is>
       </c>
-      <c r="B91" s="46" t="n">
+      <c r="B91" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -5200,6 +4912,7 @@
         <v>3</v>
       </c>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5207,7 +4920,7 @@
           <t>INC1090</t>
         </is>
       </c>
-      <c r="B92" s="46" t="n">
+      <c r="B92" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -5248,6 +4961,7 @@
         <v>3</v>
       </c>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5255,7 +4969,7 @@
           <t>INC1091</t>
         </is>
       </c>
-      <c r="B93" s="46" t="n">
+      <c r="B93" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -5296,6 +5010,7 @@
         <v>2</v>
       </c>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5303,7 +5018,7 @@
           <t>INC1092</t>
         </is>
       </c>
-      <c r="B94" s="46" t="n">
+      <c r="B94" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -5344,6 +5059,7 @@
         <v>20</v>
       </c>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5351,7 +5067,7 @@
           <t>INC1093</t>
         </is>
       </c>
-      <c r="B95" s="46" t="n">
+      <c r="B95" s="2" t="n">
         <v>45643</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -5392,6 +5108,7 @@
         <v>3</v>
       </c>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5399,7 +5116,7 @@
           <t>INC1094</t>
         </is>
       </c>
-      <c r="B96" s="46" t="n">
+      <c r="B96" s="2" t="n">
         <v>45879</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -5440,6 +5157,7 @@
         <v>25</v>
       </c>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5447,7 +5165,7 @@
           <t>INC1095</t>
         </is>
       </c>
-      <c r="B97" s="46" t="n">
+      <c r="B97" s="2" t="n">
         <v>45599</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -5488,6 +5206,7 @@
         <v>8</v>
       </c>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5495,7 +5214,7 @@
           <t>INC1096</t>
         </is>
       </c>
-      <c r="B98" s="46" t="n">
+      <c r="B98" s="2" t="n">
         <v>45617</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -5536,6 +5255,7 @@
         <v>4</v>
       </c>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5543,7 +5263,7 @@
           <t>INC1097</t>
         </is>
       </c>
-      <c r="B99" s="46" t="n">
+      <c r="B99" s="2" t="n">
         <v>45935</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -5584,6 +5304,7 @@
         <v>10</v>
       </c>
       <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5591,7 +5312,7 @@
           <t>INC1098</t>
         </is>
       </c>
-      <c r="B100" s="46" t="n">
+      <c r="B100" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -5632,6 +5353,7 @@
         <v>8</v>
       </c>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5639,7 +5361,7 @@
           <t>INC1099</t>
         </is>
       </c>
-      <c r="B101" s="46" t="n">
+      <c r="B101" s="2" t="n">
         <v>45815</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -5680,6 +5402,7 @@
         <v>10</v>
       </c>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5687,7 +5410,7 @@
           <t>INC1100</t>
         </is>
       </c>
-      <c r="B102" s="46" t="n">
+      <c r="B102" s="2" t="n">
         <v>45808</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -5728,6 +5451,7 @@
         <v>8</v>
       </c>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5735,7 +5459,7 @@
           <t>INC1101</t>
         </is>
       </c>
-      <c r="B103" s="46" t="n">
+      <c r="B103" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -5776,6 +5500,7 @@
         <v>10</v>
       </c>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5783,7 +5508,7 @@
           <t>INC1102</t>
         </is>
       </c>
-      <c r="B104" s="46" t="n">
+      <c r="B104" s="2" t="n">
         <v>45805</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -5824,6 +5549,7 @@
         <v>10</v>
       </c>
       <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5831,7 +5557,7 @@
           <t>INC1103</t>
         </is>
       </c>
-      <c r="B105" s="46" t="n">
+      <c r="B105" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -5872,6 +5598,7 @@
         <v>4</v>
       </c>
       <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5879,7 +5606,7 @@
           <t>INC1104</t>
         </is>
       </c>
-      <c r="B106" s="46" t="n">
+      <c r="B106" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -5920,6 +5647,7 @@
         <v>2</v>
       </c>
       <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5927,7 +5655,7 @@
           <t>INC1105</t>
         </is>
       </c>
-      <c r="B107" s="46" t="n">
+      <c r="B107" s="2" t="n">
         <v>45655</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -5968,6 +5696,7 @@
         <v>15</v>
       </c>
       <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5975,7 +5704,7 @@
           <t>INC1106</t>
         </is>
       </c>
-      <c r="B108" s="46" t="n">
+      <c r="B108" s="2" t="n">
         <v>45683</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -6016,6 +5745,7 @@
         <v>25</v>
       </c>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6023,7 +5753,7 @@
           <t>INC1107</t>
         </is>
       </c>
-      <c r="B109" s="46" t="n">
+      <c r="B109" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -6064,6 +5794,7 @@
         <v>9</v>
       </c>
       <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6071,7 +5802,7 @@
           <t>INC1108</t>
         </is>
       </c>
-      <c r="B110" s="46" t="n">
+      <c r="B110" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -6112,6 +5843,7 @@
         <v>6</v>
       </c>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6119,7 +5851,7 @@
           <t>INC1109</t>
         </is>
       </c>
-      <c r="B111" s="46" t="n">
+      <c r="B111" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -6160,6 +5892,7 @@
         <v>3</v>
       </c>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6167,7 +5900,7 @@
           <t>INC1110</t>
         </is>
       </c>
-      <c r="B112" s="46" t="n">
+      <c r="B112" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -6208,6 +5941,7 @@
         <v>2</v>
       </c>
       <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6215,7 +5949,7 @@
           <t>INC1111</t>
         </is>
       </c>
-      <c r="B113" s="46" t="n">
+      <c r="B113" s="2" t="n">
         <v>45743</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -6256,6 +5990,7 @@
         <v>3</v>
       </c>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6263,7 +5998,7 @@
           <t>INC1112</t>
         </is>
       </c>
-      <c r="B114" s="46" t="n">
+      <c r="B114" s="2" t="n">
         <v>45616</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -6304,6 +6039,7 @@
         <v>10</v>
       </c>
       <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6311,7 +6047,7 @@
           <t>INC1113</t>
         </is>
       </c>
-      <c r="B115" s="46" t="n">
+      <c r="B115" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -6352,6 +6088,7 @@
         <v>20</v>
       </c>
       <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6359,7 +6096,7 @@
           <t>INC1114</t>
         </is>
       </c>
-      <c r="B116" s="46" t="n">
+      <c r="B116" s="2" t="n">
         <v>45911</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -6400,6 +6137,7 @@
         <v>2</v>
       </c>
       <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6407,7 +6145,7 @@
           <t>INC1115</t>
         </is>
       </c>
-      <c r="B117" s="46" t="n">
+      <c r="B117" s="2" t="n">
         <v>45896</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -6448,6 +6186,7 @@
         <v>12</v>
       </c>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6455,7 +6194,7 @@
           <t>INC1116</t>
         </is>
       </c>
-      <c r="B118" s="46" t="n">
+      <c r="B118" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -6496,6 +6235,7 @@
         <v>16</v>
       </c>
       <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6503,7 +6243,7 @@
           <t>INC1117</t>
         </is>
       </c>
-      <c r="B119" s="46" t="n">
+      <c r="B119" s="2" t="n">
         <v>45728</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -6544,6 +6284,7 @@
         <v>3</v>
       </c>
       <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6551,7 +6292,7 @@
           <t>INC1118</t>
         </is>
       </c>
-      <c r="B120" s="46" t="n">
+      <c r="B120" s="2" t="n">
         <v>45651</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -6592,6 +6333,7 @@
         <v>9</v>
       </c>
       <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6599,7 +6341,7 @@
           <t>INC1119</t>
         </is>
       </c>
-      <c r="B121" s="46" t="n">
+      <c r="B121" s="2" t="n">
         <v>45845</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -6640,6 +6382,7 @@
         <v>12</v>
       </c>
       <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6647,7 +6390,7 @@
           <t>INC1120</t>
         </is>
       </c>
-      <c r="B122" s="46" t="n">
+      <c r="B122" s="2" t="n">
         <v>45772</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -6688,6 +6431,7 @@
         <v>4</v>
       </c>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6695,7 +6439,7 @@
           <t>INC1121</t>
         </is>
       </c>
-      <c r="B123" s="46" t="n">
+      <c r="B123" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -6736,6 +6480,7 @@
         <v>10</v>
       </c>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6743,7 +6488,7 @@
           <t>INC1122</t>
         </is>
       </c>
-      <c r="B124" s="46" t="n">
+      <c r="B124" s="2" t="n">
         <v>45730</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -6784,6 +6529,7 @@
         <v>6</v>
       </c>
       <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6791,7 +6537,7 @@
           <t>INC1123</t>
         </is>
       </c>
-      <c r="B125" s="46" t="n">
+      <c r="B125" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -6832,6 +6578,7 @@
         <v>15</v>
       </c>
       <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6839,7 +6586,7 @@
           <t>INC1124</t>
         </is>
       </c>
-      <c r="B126" s="46" t="n">
+      <c r="B126" s="2" t="n">
         <v>45717</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -6880,6 +6627,7 @@
         <v>1</v>
       </c>
       <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6887,7 +6635,7 @@
           <t>INC1125</t>
         </is>
       </c>
-      <c r="B127" s="46" t="n">
+      <c r="B127" s="2" t="n">
         <v>45843</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -6928,6 +6676,7 @@
         <v>20</v>
       </c>
       <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6935,7 +6684,7 @@
           <t>INC1126</t>
         </is>
       </c>
-      <c r="B128" s="46" t="n">
+      <c r="B128" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -6976,6 +6725,7 @@
         <v>4</v>
       </c>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6983,7 +6733,7 @@
           <t>INC1127</t>
         </is>
       </c>
-      <c r="B129" s="46" t="n">
+      <c r="B129" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -7024,6 +6774,7 @@
         <v>12</v>
       </c>
       <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7031,7 +6782,7 @@
           <t>INC1128</t>
         </is>
       </c>
-      <c r="B130" s="46" t="n">
+      <c r="B130" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -7072,6 +6823,7 @@
         <v>6</v>
       </c>
       <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7079,7 +6831,7 @@
           <t>INC1129</t>
         </is>
       </c>
-      <c r="B131" s="46" t="n">
+      <c r="B131" s="2" t="n">
         <v>45726</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -7120,6 +6872,7 @@
         <v>16</v>
       </c>
       <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7127,7 +6880,7 @@
           <t>INC1130</t>
         </is>
       </c>
-      <c r="B132" s="46" t="n">
+      <c r="B132" s="2" t="n">
         <v>45689</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -7168,6 +6921,7 @@
         <v>20</v>
       </c>
       <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7175,7 +6929,7 @@
           <t>INC1131</t>
         </is>
       </c>
-      <c r="B133" s="46" t="n">
+      <c r="B133" s="2" t="n">
         <v>45585</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -7216,6 +6970,7 @@
         <v>15</v>
       </c>
       <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7223,7 +6978,7 @@
           <t>INC1132</t>
         </is>
       </c>
-      <c r="B134" s="46" t="n">
+      <c r="B134" s="2" t="n">
         <v>45661</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -7264,6 +7019,7 @@
         <v>5</v>
       </c>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7271,7 +7027,7 @@
           <t>INC1133</t>
         </is>
       </c>
-      <c r="B135" s="46" t="n">
+      <c r="B135" s="2" t="n">
         <v>45737</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -7312,6 +7068,7 @@
         <v>10</v>
       </c>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7319,7 +7076,7 @@
           <t>INC1134</t>
         </is>
       </c>
-      <c r="B136" s="46" t="n">
+      <c r="B136" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -7360,6 +7117,7 @@
         <v>3</v>
       </c>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7367,7 +7125,7 @@
           <t>INC1135</t>
         </is>
       </c>
-      <c r="B137" s="46" t="n">
+      <c r="B137" s="2" t="n">
         <v>45598</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -7408,6 +7166,7 @@
         <v>6</v>
       </c>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7415,7 +7174,7 @@
           <t>INC1136</t>
         </is>
       </c>
-      <c r="B138" s="46" t="n">
+      <c r="B138" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -7456,6 +7215,7 @@
         <v>6</v>
       </c>
       <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7463,7 +7223,7 @@
           <t>INC1137</t>
         </is>
       </c>
-      <c r="B139" s="46" t="n">
+      <c r="B139" s="2" t="n">
         <v>45765</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -7504,6 +7264,7 @@
         <v>8</v>
       </c>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7511,7 +7272,7 @@
           <t>INC1138</t>
         </is>
       </c>
-      <c r="B140" s="46" t="n">
+      <c r="B140" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -7552,6 +7313,7 @@
         <v>15</v>
       </c>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7559,7 +7321,7 @@
           <t>INC1139</t>
         </is>
       </c>
-      <c r="B141" s="46" t="n">
+      <c r="B141" s="2" t="n">
         <v>45592</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -7600,6 +7362,7 @@
         <v>25</v>
       </c>
       <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7607,7 +7370,7 @@
           <t>INC1140</t>
         </is>
       </c>
-      <c r="B142" s="46" t="n">
+      <c r="B142" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -7648,6 +7411,7 @@
         <v>10</v>
       </c>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7655,7 +7419,7 @@
           <t>INC1141</t>
         </is>
       </c>
-      <c r="B143" s="46" t="n">
+      <c r="B143" s="2" t="n">
         <v>45703</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -7696,6 +7460,7 @@
         <v>12</v>
       </c>
       <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7703,7 +7468,7 @@
           <t>INC1142</t>
         </is>
       </c>
-      <c r="B144" s="46" t="n">
+      <c r="B144" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -7744,6 +7509,7 @@
         <v>8</v>
       </c>
       <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7751,7 +7517,7 @@
           <t>INC1143</t>
         </is>
       </c>
-      <c r="B145" s="46" t="n">
+      <c r="B145" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -7792,6 +7558,7 @@
         <v>10</v>
       </c>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7799,7 +7566,7 @@
           <t>INC1144</t>
         </is>
       </c>
-      <c r="B146" s="46" t="n">
+      <c r="B146" s="2" t="n">
         <v>45722</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -7840,6 +7607,7 @@
         <v>10</v>
       </c>
       <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7847,7 +7615,7 @@
           <t>INC1145</t>
         </is>
       </c>
-      <c r="B147" s="46" t="n">
+      <c r="B147" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -7888,6 +7656,7 @@
         <v>12</v>
       </c>
       <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7895,7 +7664,7 @@
           <t>INC1146</t>
         </is>
       </c>
-      <c r="B148" s="46" t="n">
+      <c r="B148" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -7936,6 +7705,7 @@
         <v>10</v>
       </c>
       <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7943,7 +7713,7 @@
           <t>INC1147</t>
         </is>
       </c>
-      <c r="B149" s="46" t="n">
+      <c r="B149" s="2" t="n">
         <v>45801</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -7984,6 +7754,7 @@
         <v>5</v>
       </c>
       <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7991,7 +7762,7 @@
           <t>INC1148</t>
         </is>
       </c>
-      <c r="B150" s="46" t="n">
+      <c r="B150" s="2" t="n">
         <v>45773</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -8032,6 +7803,7 @@
         <v>9</v>
       </c>
       <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8039,7 +7811,7 @@
           <t>INC1149</t>
         </is>
       </c>
-      <c r="B151" s="46" t="n">
+      <c r="B151" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -8080,6 +7852,7 @@
         <v>3</v>
       </c>
       <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8087,7 +7860,7 @@
           <t>INC1150</t>
         </is>
       </c>
-      <c r="B152" s="46" t="n">
+      <c r="B152" s="2" t="n">
         <v>45908</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -8128,6 +7901,7 @@
         <v>4</v>
       </c>
       <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8135,7 +7909,7 @@
           <t>INC1151</t>
         </is>
       </c>
-      <c r="B153" s="46" t="n">
+      <c r="B153" s="2" t="n">
         <v>45931</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -8176,6 +7950,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8183,7 +7958,7 @@
           <t>INC1152</t>
         </is>
       </c>
-      <c r="B154" s="46" t="n">
+      <c r="B154" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -8224,6 +7999,7 @@
         <v>6</v>
       </c>
       <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8231,7 +8007,7 @@
           <t>INC1153</t>
         </is>
       </c>
-      <c r="B155" s="46" t="n">
+      <c r="B155" s="2" t="n">
         <v>45617</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -8272,6 +8048,7 @@
         <v>12</v>
       </c>
       <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8279,7 +8056,7 @@
           <t>INC1154</t>
         </is>
       </c>
-      <c r="B156" s="46" t="n">
+      <c r="B156" s="2" t="n">
         <v>45757</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -8320,6 +8097,7 @@
         <v>25</v>
       </c>
       <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8327,7 +8105,7 @@
           <t>INC1155</t>
         </is>
       </c>
-      <c r="B157" s="46" t="n">
+      <c r="B157" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -8368,6 +8146,7 @@
         <v>15</v>
       </c>
       <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8375,7 +8154,7 @@
           <t>INC1156</t>
         </is>
       </c>
-      <c r="B158" s="46" t="n">
+      <c r="B158" s="2" t="n">
         <v>45858</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -8416,6 +8195,7 @@
         <v>3</v>
       </c>
       <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8423,7 +8203,7 @@
           <t>INC1157</t>
         </is>
       </c>
-      <c r="B159" s="46" t="n">
+      <c r="B159" s="2" t="n">
         <v>45660</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -8464,6 +8244,7 @@
         <v>8</v>
       </c>
       <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8471,7 +8252,7 @@
           <t>INC1158</t>
         </is>
       </c>
-      <c r="B160" s="46" t="n">
+      <c r="B160" s="2" t="n">
         <v>45878</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -8512,6 +8293,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8519,7 +8301,7 @@
           <t>INC1159</t>
         </is>
       </c>
-      <c r="B161" s="46" t="n">
+      <c r="B161" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -8560,6 +8342,7 @@
         <v>10</v>
       </c>
       <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8567,7 +8350,7 @@
           <t>INC1160</t>
         </is>
       </c>
-      <c r="B162" s="46" t="n">
+      <c r="B162" s="2" t="n">
         <v>45899</v>
       </c>
       <c r="C162" t="inlineStr">
@@ -8608,6 +8391,7 @@
         <v>8</v>
       </c>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8615,7 +8399,7 @@
           <t>INC1161</t>
         </is>
       </c>
-      <c r="B163" s="46" t="n">
+      <c r="B163" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -8656,6 +8440,7 @@
         <v>20</v>
       </c>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8663,7 +8448,7 @@
           <t>INC1162</t>
         </is>
       </c>
-      <c r="B164" s="46" t="n">
+      <c r="B164" s="2" t="n">
         <v>45810</v>
       </c>
       <c r="C164" t="inlineStr">
@@ -8704,6 +8489,7 @@
         <v>20</v>
       </c>
       <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8711,7 +8497,7 @@
           <t>INC1163</t>
         </is>
       </c>
-      <c r="B165" s="46" t="n">
+      <c r="B165" s="2" t="n">
         <v>45660</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -8752,6 +8538,7 @@
         <v>25</v>
       </c>
       <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8759,7 +8546,7 @@
           <t>INC1164</t>
         </is>
       </c>
-      <c r="B166" s="46" t="n">
+      <c r="B166" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -8800,6 +8587,7 @@
         <v>16</v>
       </c>
       <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8807,7 +8595,7 @@
           <t>INC1165</t>
         </is>
       </c>
-      <c r="B167" s="46" t="n">
+      <c r="B167" s="2" t="n">
         <v>45836</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -8848,6 +8636,7 @@
         <v>16</v>
       </c>
       <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8855,7 +8644,7 @@
           <t>INC1166</t>
         </is>
       </c>
-      <c r="B168" s="46" t="n">
+      <c r="B168" s="2" t="n">
         <v>45900</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -8896,6 +8685,7 @@
         <v>16</v>
       </c>
       <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8903,7 +8693,7 @@
           <t>INC1167</t>
         </is>
       </c>
-      <c r="B169" s="46" t="n">
+      <c r="B169" s="2" t="n">
         <v>45604</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -8944,6 +8734,7 @@
         <v>8</v>
       </c>
       <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8951,7 +8742,7 @@
           <t>INC1168</t>
         </is>
       </c>
-      <c r="B170" s="46" t="n">
+      <c r="B170" s="2" t="n">
         <v>45658</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -8992,6 +8783,7 @@
         <v>16</v>
       </c>
       <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8999,7 +8791,7 @@
           <t>INC1169</t>
         </is>
       </c>
-      <c r="B171" s="46" t="n">
+      <c r="B171" s="2" t="n">
         <v>45613</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -9040,6 +8832,7 @@
         <v>6</v>
       </c>
       <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9047,7 +8840,7 @@
           <t>INC1170</t>
         </is>
       </c>
-      <c r="B172" s="46" t="n">
+      <c r="B172" s="2" t="n">
         <v>45816</v>
       </c>
       <c r="C172" t="inlineStr">
@@ -9088,6 +8881,7 @@
         <v>1</v>
       </c>
       <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9095,7 +8889,7 @@
           <t>INC1171</t>
         </is>
       </c>
-      <c r="B173" s="46" t="n">
+      <c r="B173" s="2" t="n">
         <v>45596</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -9136,6 +8930,7 @@
         <v>12</v>
       </c>
       <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9143,7 +8938,7 @@
           <t>INC1172</t>
         </is>
       </c>
-      <c r="B174" s="46" t="n">
+      <c r="B174" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -9184,6 +8979,7 @@
         <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9191,7 +8987,7 @@
           <t>INC1173</t>
         </is>
       </c>
-      <c r="B175" s="46" t="n">
+      <c r="B175" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C175" t="inlineStr">
@@ -9232,6 +9028,7 @@
         <v>8</v>
       </c>
       <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9239,7 +9036,7 @@
           <t>INC1174</t>
         </is>
       </c>
-      <c r="B176" s="46" t="n">
+      <c r="B176" s="2" t="n">
         <v>45719</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -9280,6 +9077,7 @@
         <v>2</v>
       </c>
       <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9287,7 +9085,7 @@
           <t>INC1175</t>
         </is>
       </c>
-      <c r="B177" s="46" t="n">
+      <c r="B177" s="2" t="n">
         <v>45661</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -9328,6 +9126,7 @@
         <v>10</v>
       </c>
       <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9335,7 +9134,7 @@
           <t>INC1176</t>
         </is>
       </c>
-      <c r="B178" s="46" t="n">
+      <c r="B178" s="2" t="n">
         <v>45823</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -9376,6 +9175,7 @@
         <v>6</v>
       </c>
       <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9383,7 +9183,7 @@
           <t>INC1177</t>
         </is>
       </c>
-      <c r="B179" s="46" t="n">
+      <c r="B179" s="2" t="n">
         <v>45828</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -9424,6 +9224,7 @@
         <v>8</v>
       </c>
       <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9431,7 +9232,7 @@
           <t>INC1178</t>
         </is>
       </c>
-      <c r="B180" s="46" t="n">
+      <c r="B180" s="2" t="n">
         <v>45711</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -9472,6 +9273,7 @@
         <v>4</v>
       </c>
       <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9479,7 +9281,7 @@
           <t>INC1179</t>
         </is>
       </c>
-      <c r="B181" s="46" t="n">
+      <c r="B181" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -9520,6 +9322,7 @@
         <v>10</v>
       </c>
       <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9527,7 +9330,7 @@
           <t>INC1180</t>
         </is>
       </c>
-      <c r="B182" s="46" t="n">
+      <c r="B182" s="2" t="n">
         <v>45585</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -9568,6 +9371,7 @@
         <v>16</v>
       </c>
       <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9575,7 +9379,7 @@
           <t>INC1181</t>
         </is>
       </c>
-      <c r="B183" s="46" t="n">
+      <c r="B183" s="2" t="n">
         <v>45746</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -9616,6 +9420,7 @@
         <v>8</v>
       </c>
       <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9623,7 +9428,7 @@
           <t>INC1182</t>
         </is>
       </c>
-      <c r="B184" s="46" t="n">
+      <c r="B184" s="2" t="n">
         <v>45807</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -9664,6 +9469,7 @@
         <v>9</v>
       </c>
       <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9671,7 +9477,7 @@
           <t>INC1183</t>
         </is>
       </c>
-      <c r="B185" s="46" t="n">
+      <c r="B185" s="2" t="n">
         <v>45626</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -9712,6 +9518,7 @@
         <v>9</v>
       </c>
       <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9719,7 +9526,7 @@
           <t>INC1184</t>
         </is>
       </c>
-      <c r="B186" s="46" t="n">
+      <c r="B186" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -9760,6 +9567,7 @@
         <v>8</v>
       </c>
       <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9767,7 +9575,7 @@
           <t>INC1185</t>
         </is>
       </c>
-      <c r="B187" s="46" t="n">
+      <c r="B187" s="2" t="n">
         <v>45719</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -9808,6 +9616,7 @@
         <v>25</v>
       </c>
       <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9815,7 +9624,7 @@
           <t>INC1186</t>
         </is>
       </c>
-      <c r="B188" s="46" t="n">
+      <c r="B188" s="2" t="n">
         <v>45637</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -9856,6 +9665,7 @@
         <v>16</v>
       </c>
       <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9863,7 +9673,7 @@
           <t>INC1187</t>
         </is>
       </c>
-      <c r="B189" s="46" t="n">
+      <c r="B189" s="2" t="n">
         <v>45710</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -9904,6 +9714,7 @@
         <v>15</v>
       </c>
       <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9911,7 +9722,7 @@
           <t>INC1188</t>
         </is>
       </c>
-      <c r="B190" s="46" t="n">
+      <c r="B190" s="2" t="n">
         <v>45772</v>
       </c>
       <c r="C190" t="inlineStr">
@@ -9952,6 +9763,7 @@
         <v>15</v>
       </c>
       <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9959,7 +9771,7 @@
           <t>INC1189</t>
         </is>
       </c>
-      <c r="B191" s="46" t="n">
+      <c r="B191" s="2" t="n">
         <v>45792</v>
       </c>
       <c r="C191" t="inlineStr">
@@ -10000,6 +9812,7 @@
         <v>2</v>
       </c>
       <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10007,7 +9820,7 @@
           <t>INC1190</t>
         </is>
       </c>
-      <c r="B192" s="46" t="n">
+      <c r="B192" s="2" t="n">
         <v>45629</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -10048,6 +9861,7 @@
         <v>15</v>
       </c>
       <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10055,7 +9869,7 @@
           <t>INC1191</t>
         </is>
       </c>
-      <c r="B193" s="46" t="n">
+      <c r="B193" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -10096,6 +9910,7 @@
         <v>3</v>
       </c>
       <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10103,7 +9918,7 @@
           <t>INC1192</t>
         </is>
       </c>
-      <c r="B194" s="46" t="n">
+      <c r="B194" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -10144,6 +9959,7 @@
         <v>6</v>
       </c>
       <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10151,7 +9967,7 @@
           <t>INC1193</t>
         </is>
       </c>
-      <c r="B195" s="46" t="n">
+      <c r="B195" s="2" t="n">
         <v>45711</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -10192,6 +10008,7 @@
         <v>4</v>
       </c>
       <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10199,7 +10016,7 @@
           <t>INC1194</t>
         </is>
       </c>
-      <c r="B196" s="46" t="n">
+      <c r="B196" s="2" t="n">
         <v>45764</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -10240,6 +10057,7 @@
         <v>8</v>
       </c>
       <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10247,7 +10065,7 @@
           <t>INC1195</t>
         </is>
       </c>
-      <c r="B197" s="46" t="n">
+      <c r="B197" s="2" t="n">
         <v>45831</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -10288,6 +10106,7 @@
         <v>4</v>
       </c>
       <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10295,7 +10114,7 @@
           <t>INC1196</t>
         </is>
       </c>
-      <c r="B198" s="46" t="n">
+      <c r="B198" s="2" t="n">
         <v>45626</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -10336,6 +10155,7 @@
         <v>20</v>
       </c>
       <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10343,7 +10163,7 @@
           <t>INC1197</t>
         </is>
       </c>
-      <c r="B199" s="46" t="n">
+      <c r="B199" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -10384,6 +10204,7 @@
         <v>8</v>
       </c>
       <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10391,7 +10212,7 @@
           <t>INC1198</t>
         </is>
       </c>
-      <c r="B200" s="46" t="n">
+      <c r="B200" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -10432,6 +10253,7 @@
         <v>5</v>
       </c>
       <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10439,7 +10261,7 @@
           <t>INC1199</t>
         </is>
       </c>
-      <c r="B201" s="46" t="n">
+      <c r="B201" s="2" t="n">
         <v>45649</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -10480,6 +10302,7 @@
         <v>15</v>
       </c>
       <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10487,7 +10310,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B202" s="46" t="n">
+      <c r="B202" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -10538,6 +10361,7 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10545,7 +10369,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B203" s="46" t="n">
+      <c r="B203" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -10596,2723 +10420,62 @@
           <t>14:30</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col width="9.140625" customWidth="1" min="1" max="1"/>
-    <col width="25.85546875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="33.140625" customWidth="1" style="4" min="3" max="3"/>
-    <col width="53.5703125" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="37.28515625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="26.5703125" customWidth="1" style="7" min="6" max="6"/>
-    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="7" max="7"/>
-    <col width="29.140625" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="9" max="9"/>
-    <col width="12.5703125" customWidth="1" style="6" min="10" max="10"/>
-    <col hidden="1" width="5.140625" customWidth="1" style="8" min="11" max="11"/>
-    <col width="19.28515625" customWidth="1" style="7" min="12" max="12"/>
-    <col width="30.85546875" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
-    <col width="50.42578125" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="9" min="15" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="38.25" customFormat="1" customHeight="1" s="10">
-      <c r="A1" s="26" t="inlineStr">
-        <is>
-          <t>ID_Riesgo</t>
-        </is>
-      </c>
-      <c r="B1" s="27" t="inlineStr">
-        <is>
-          <t>Clasificación de peligro</t>
-        </is>
-      </c>
-      <c r="C1" s="27" t="inlineStr">
-        <is>
-          <t>Peligro</t>
-        </is>
-      </c>
-      <c r="D1" s="27" t="inlineStr">
-        <is>
-          <t>Fuente o actividad</t>
-        </is>
-      </c>
-      <c r="E1" s="27" t="inlineStr">
-        <is>
-          <t>Tipo de puesto</t>
-        </is>
-      </c>
-      <c r="F1" s="27" t="inlineStr">
-        <is>
-          <t>Probabilidad</t>
-        </is>
-      </c>
-      <c r="G1" s="28" t="n"/>
-      <c r="H1" s="27" t="inlineStr">
-        <is>
-          <t>Severidad</t>
-        </is>
-      </c>
-      <c r="I1" s="29" t="n"/>
-      <c r="J1" s="30" t="inlineStr">
-        <is>
-          <t>Nivel de Riesgo</t>
-        </is>
-      </c>
-      <c r="K1" s="30" t="n"/>
-      <c r="L1" s="27" t="inlineStr">
-        <is>
-          <t>Jerarquía de riesgo</t>
-        </is>
-      </c>
-      <c r="M1" s="27" t="inlineStr">
-        <is>
-          <t>Medidas de control</t>
-        </is>
-      </c>
-      <c r="N1" s="31" t="inlineStr">
-        <is>
-          <t>Hallazgos/Oportunidades de mejora</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="60.75" customHeight="1">
-      <c r="A2" s="32" t="inlineStr">
-        <is>
-          <t>R105</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>Atropellamiento</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr">
-        <is>
-          <t>Uso de pasos peatonales dentro de bodega.</t>
-        </is>
-      </c>
-      <c r="E2" s="43" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F2" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I2" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K2" s="15">
-        <f>G2*I2</f>
-        <v/>
-      </c>
-      <c r="L2" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M2" s="11" t="inlineStr">
-        <is>
-          <t>Señalización y pasos peatonales</t>
-        </is>
-      </c>
-      <c r="N2" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre el manejo seguro a las áreas opeativas, capacitación sobre medidas de seguridad equipo administrativo, creación de pasos peatonales operativos</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="38.25" customHeight="1">
-      <c r="A3" s="32" t="inlineStr">
-        <is>
-          <t>R106</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Caidas a nivel</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Caminos dañados, desnivelados o pisos mojados.</t>
-        </is>
-      </c>
-      <c r="E3" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Casi Accidente</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Acoso</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Fatalidad (es)</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G3" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K3" s="15">
-        <f>G3*I3</f>
-        <v/>
-      </c>
-      <c r="L3" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M3" s="11" t="inlineStr">
-        <is>
-          <t>Señalización y colocación de cintas antideslizantes</t>
-        </is>
-      </c>
-      <c r="N3" s="33" t="inlineStr">
-        <is>
-          <t>Inspecciones de pisos y superficies en conjunto a capacitaciones sobre el trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="38.25" customHeight="1">
-      <c r="A4" s="32" t="inlineStr">
-        <is>
-          <t>R107</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>Caidas a diferente nivel</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>Uso continuo de gradas y superficies desniveladas (Rampas)</t>
-        </is>
-      </c>
-      <c r="E4" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K4" s="15">
-        <f>G4*I4</f>
-        <v/>
-      </c>
-      <c r="L4" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M4" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP anti caida, escaleras fijas, lineas de vida</t>
-        </is>
-      </c>
-      <c r="N4" s="33" t="inlineStr">
-        <is>
-          <t>Inspecciones de gradas, escaleras y rampas, en conjunto de capacitaciones sobre trabajo seguro</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="32" t="inlineStr">
-        <is>
-          <t>R108</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>Choque contra objetos mecánicos</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>Cargas, vehiculos, ayudas mécanicas u objeto que se encuentran en las instalaciones</t>
-        </is>
-      </c>
-      <c r="E5" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I5" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K5" s="15">
-        <f>G5*I5</f>
-        <v/>
-      </c>
-      <c r="L5" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t>Señalización e inspecciones de orden y limpieza</t>
-        </is>
-      </c>
-      <c r="N5" s="33" t="inlineStr">
-        <is>
-          <t>Inspecciones de las instalaciones en temas de orden y limpieza.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="38.25" customHeight="1">
-      <c r="A6" s="32" t="inlineStr">
-        <is>
-          <t>R109</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>Aplastamiento</t>
-        </is>
-      </c>
-      <c r="D6" s="12" t="inlineStr">
-        <is>
-          <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
-        </is>
-      </c>
-      <c r="E6" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K6" s="15">
-        <f>G6*I6</f>
-        <v/>
-      </c>
-      <c r="L6" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M6" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP, Señalización visual en montacrgas</t>
-        </is>
-      </c>
-      <c r="N6" s="33" t="inlineStr">
-        <is>
-          <t>Analisís de estructuras y equipo de almacenamiento en general</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="51.75" customHeight="1">
-      <c r="A7" s="32" t="inlineStr">
-        <is>
-          <t>R110</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C7" s="12" t="inlineStr">
-        <is>
-          <t>Atrapamiento</t>
-        </is>
-      </c>
-      <c r="D7" s="12" t="inlineStr">
-        <is>
-          <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
-        </is>
-      </c>
-      <c r="E7" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K7" s="15">
-        <f>G7*I7</f>
-        <v/>
-      </c>
-      <c r="L7" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M7" s="11" t="inlineStr">
-        <is>
-          <t>Señalización e inspecciones de orden y limpieza</t>
-        </is>
-      </c>
-      <c r="N7" s="33" t="inlineStr">
-        <is>
-          <t>Analisís de estructuras y equipo de almacenamiento en general</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="46.5" customHeight="1">
-      <c r="A8" s="32" t="inlineStr">
-        <is>
-          <t>R111</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>Cortes y hemorragías</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos de corte (flejadoras y cuchillas)</t>
-        </is>
-      </c>
-      <c r="E8" s="43" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="K8" s="15">
-        <f>G8*I8</f>
-        <v/>
-      </c>
-      <c r="L8" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M8" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N8" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="32" t="inlineStr">
-        <is>
-          <t>R112</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C9" s="12" t="inlineStr">
-        <is>
-          <t>Contusiones leves y severas (caida de objetos)</t>
-        </is>
-      </c>
-      <c r="D9" s="12" t="inlineStr">
-        <is>
-          <t>Cargas u objetos elevados (lámparas, cargas u objetos en general)</t>
-        </is>
-      </c>
-      <c r="E9" s="43" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K9" s="15">
-        <f>G9*I9</f>
-        <v/>
-      </c>
-      <c r="L9" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M9" s="11" t="inlineStr">
-        <is>
-          <t>Señalización, uso de EPP</t>
-        </is>
-      </c>
-      <c r="N9" s="33" t="inlineStr">
-        <is>
-          <t>Caminatas de seguridad e inspección sobre condiciones inseguras de trabajo en cuanto a objetos colgantes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1">
-      <c r="A10" s="32" t="inlineStr">
-        <is>
-          <t>R113</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="inlineStr">
-        <is>
-          <t>Lumbalgías y lesiones musculoesqueleticas</t>
-        </is>
-      </c>
-      <c r="D10" s="12" t="inlineStr">
-        <is>
-          <t>Malas posturas, posturas forzadas y repetitivas</t>
-        </is>
-      </c>
-      <c r="E10" s="43" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I10" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K10" s="15">
-        <f>G10*I10</f>
-        <v/>
-      </c>
-      <c r="L10" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M10" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N10" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="46.5" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>R114</t>
-        </is>
-      </c>
-      <c r="B11" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>Migrañas, lesiones oculares (agravamiento de miopia y astigmatismo)</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
-        <is>
-          <t>Ilumnación deficiente</t>
-        </is>
-      </c>
-      <c r="E11" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al mes</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K11" s="15">
-        <f>G11*I11</f>
-        <v/>
-      </c>
-      <c r="L11" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M11" s="11" t="inlineStr">
-        <is>
-          <t>Buena iluminación en las areas de trabajo</t>
-        </is>
-      </c>
-      <c r="N11" s="33" t="inlineStr">
-        <is>
-          <t>Estudio de iluminación y mantenimiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="59.25" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t>R115</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>Tendinitis</t>
-        </is>
-      </c>
-      <c r="D12" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos que causan vibración (Computadoras, herramientas, vehiculos, etc)</t>
-        </is>
-      </c>
-      <c r="E12" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G12" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I12" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" s="17" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="K12" s="15">
-        <f>G12*I12</f>
-        <v/>
-      </c>
-      <c r="L12" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M12" s="11" t="inlineStr">
-        <is>
-          <t>Hacer pausas activas</t>
-        </is>
-      </c>
-      <c r="N12" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre ergonomía y uso de ayudas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>R116</t>
-        </is>
-      </c>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C13" s="12" t="inlineStr">
-        <is>
-          <t>Desmayos o golpes/choques de calor</t>
-        </is>
-      </c>
-      <c r="D13" s="12" t="inlineStr">
-        <is>
-          <t>Estaciones de trabajo con alto nivel de estrés térmico.</t>
-        </is>
-      </c>
-      <c r="E13" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades administrativas</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K13" s="15">
-        <f>G13*I13</f>
-        <v/>
-      </c>
-      <c r="L13" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M13" s="11" t="inlineStr">
-        <is>
-          <t>Hidratación,  techos aislantes</t>
-        </is>
-      </c>
-      <c r="N13" s="33" t="inlineStr">
-        <is>
-          <t>Monitorear la temperatura</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="45" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>R117</t>
-        </is>
-      </c>
-      <c r="B14" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>Golpe o choque de calor y quemaduras de 1er y 2do grado.</t>
-        </is>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Exposición prolongada a los rayos UV</t>
-        </is>
-      </c>
-      <c r="E14" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G14" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K14" s="15">
-        <f>G14*I14</f>
-        <v/>
-      </c>
-      <c r="L14" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M14" s="11" t="inlineStr">
-        <is>
-          <t>Bloqueador Solar y Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N14" s="33" t="inlineStr">
-        <is>
-          <t>Señalización, pausas activas y uso de bloqueador solar</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="55.5" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
-        <is>
-          <t>R118</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C15" s="12" t="inlineStr">
-        <is>
-          <t>Deshidratación</t>
-        </is>
-      </c>
-      <c r="D15" s="12" t="inlineStr">
-        <is>
-          <t>Exposición prolongada a los rayos UV</t>
-        </is>
-      </c>
-      <c r="E15" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F15" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K15" s="15">
-        <f>G15*I15</f>
-        <v/>
-      </c>
-      <c r="L15" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M15" s="11" t="inlineStr">
-        <is>
-          <t>Oasis o dispensadores de agua</t>
-        </is>
-      </c>
-      <c r="N15" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre trabajo seguro, pausas activas y evaluación médica periódica.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="55.5" customHeight="1">
-      <c r="A16" s="32" t="inlineStr">
-        <is>
-          <t>R119</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C16" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones a mediano o largo plazo hacia sentido auditivo</t>
-        </is>
-      </c>
-      <c r="D16" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruidos estridentes (Altos decibeles) por aterrizajes y despegues de aviones) </t>
-        </is>
-      </c>
-      <c r="E16" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F16" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K16" s="15">
-        <f>G16*I16</f>
-        <v/>
-      </c>
-      <c r="L16" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M16" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N16" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="45" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
-        <is>
-          <t>R120</t>
-        </is>
-      </c>
-      <c r="B17" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="inlineStr">
-        <is>
-          <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
-        </is>
-      </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>Uso de montacargas</t>
-        </is>
-      </c>
-      <c r="E17" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F17" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I17" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K17" s="15">
-        <f>G17*I17</f>
-        <v/>
-      </c>
-      <c r="L17" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M17" s="11" t="inlineStr">
-        <is>
-          <t>Uso de equipos de combustion a GLP y electricos</t>
-        </is>
-      </c>
-      <c r="N17" s="33" t="inlineStr">
-        <is>
-          <t>Renovación a medio plazo</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="46.5" customHeight="1">
-      <c r="A18" s="32" t="inlineStr">
-        <is>
-          <t>R121</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C18" s="12" t="inlineStr">
-        <is>
-          <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
-        </is>
-      </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sobrepoblación de personas en áreas de trabajo reducidas o poco ventiladas </t>
-        </is>
-      </c>
-      <c r="E18" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades administrativas</t>
-        </is>
-      </c>
-      <c r="F18" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G18" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H18" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I18" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K18" s="15">
-        <f>G18*I18</f>
-        <v/>
-      </c>
-      <c r="L18" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M18" s="11" t="inlineStr">
-        <is>
-          <t>Aires acondicionados</t>
-        </is>
-      </c>
-      <c r="N18" s="33" t="inlineStr">
-        <is>
-          <t>Creación de áreas mejor ventiladas, pausas activas o reeorganización de personal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="39" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
-        <is>
-          <t>R122</t>
-        </is>
-      </c>
-      <c r="B19" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C19" s="12" t="inlineStr">
-        <is>
-          <t>Lumbalgía ocupacional</t>
-        </is>
-      </c>
-      <c r="D19" s="12" t="inlineStr">
-        <is>
-          <t>Posturas repetitivas, mala manipulación de cargas, etc)</t>
-        </is>
-      </c>
-      <c r="E19" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G19" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H19" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I19" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K19" s="15">
-        <f>G19*I19</f>
-        <v/>
-      </c>
-      <c r="L19" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M19" s="11" t="inlineStr">
-        <is>
-          <t>Sillas ejecutivas</t>
-        </is>
-      </c>
-      <c r="N19" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1">
-      <c r="A20" s="32" t="inlineStr">
-        <is>
-          <t>R123</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones por condiciones ergonomicas (Sindrome tubo carpiano, Tendinitis, etc)</t>
-        </is>
-      </c>
-      <c r="D20" s="12" t="inlineStr">
-        <is>
-          <t>Uso constante de equipo de computo</t>
-        </is>
-      </c>
-      <c r="E20" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F20" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G20" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I20" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K20" s="15">
-        <f>G20*I20</f>
-        <v/>
-      </c>
-      <c r="L20" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M20" s="11" t="inlineStr">
-        <is>
-          <t>Capacitación</t>
-        </is>
-      </c>
-      <c r="N20" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas y uso de mause pad.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="30.75" customHeight="1">
-      <c r="A21" s="32" t="inlineStr">
-        <is>
-          <t>R124</t>
-        </is>
-      </c>
-      <c r="B21" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C21" s="12" t="inlineStr">
-        <is>
-          <t>Sindrome de texto (lesiones en columna)</t>
-        </is>
-      </c>
-      <c r="D21" s="12" t="inlineStr">
-        <is>
-          <t>Uso constante de dispositivos móviles (HandHeld, teléfonos, tablets, entre otros)</t>
-        </is>
-      </c>
-      <c r="E21" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F21" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I21" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K21" s="15">
-        <f>G21*I21</f>
-        <v/>
-      </c>
-      <c r="L21" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M21" s="11" t="inlineStr">
-        <is>
-          <t>Capacitacion</t>
-        </is>
-      </c>
-      <c r="N21" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="51.75" customHeight="1">
-      <c r="A22" s="32" t="inlineStr">
-        <is>
-          <t>R125</t>
-        </is>
-      </c>
-      <c r="B22" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C22" s="12" t="inlineStr">
-        <is>
-          <t>Polirradiculoneuropatías</t>
-        </is>
-      </c>
-      <c r="D22" s="12" t="inlineStr">
-        <is>
-          <t>Malas posturas, posturas forzadas y repetitivas</t>
-        </is>
-      </c>
-      <c r="E22" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F22" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K22" s="15">
-        <f>G22*I22</f>
-        <v/>
-      </c>
-      <c r="L22" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M22" s="11" t="inlineStr">
-        <is>
-          <t>Capacitacion</t>
-        </is>
-      </c>
-      <c r="N22" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="39.75" customHeight="1">
-      <c r="A23" s="32" t="inlineStr">
-        <is>
-          <t>R126</t>
-        </is>
-      </c>
-      <c r="B23" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C23" s="12" t="inlineStr">
-        <is>
-          <t>Enfermedades estacionales</t>
-        </is>
-      </c>
-      <c r="D23" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contacto con agentes patologicos </t>
-        </is>
-      </c>
-      <c r="E23" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F23" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H23" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I23" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K23" s="15">
-        <f>G23*I23</f>
-        <v/>
-      </c>
-      <c r="L23" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M23" s="11" t="inlineStr">
-        <is>
-          <t>Concientización de cuidados y vacunación</t>
-        </is>
-      </c>
-      <c r="N23" s="33" t="inlineStr">
-        <is>
-          <t>Vigilancia epidemiológica</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="36.75" customHeight="1">
-      <c r="A24" s="32" t="inlineStr">
-        <is>
-          <t>R127</t>
-        </is>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="inlineStr">
-        <is>
-          <t>Intoxicación</t>
-        </is>
-      </c>
-      <c r="D24" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contacto con agentes patologicos </t>
-        </is>
-      </c>
-      <c r="E24" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F24" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K24" s="15">
-        <f>G24*I24</f>
-        <v/>
-      </c>
-      <c r="L24" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M24" s="11" t="inlineStr">
-        <is>
-          <t>Identificación y aislamiento de mercancías peligrosas</t>
-        </is>
-      </c>
-      <c r="N24" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="32" t="inlineStr">
-        <is>
-          <t>R128</t>
-        </is>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C25" s="12" t="inlineStr">
-        <is>
-          <t>Enfermedades virales</t>
-        </is>
-      </c>
-      <c r="D25" s="12" t="inlineStr">
-        <is>
-          <t>Contacto con agentes patologicos por manipulación de carga contaminada</t>
-        </is>
-      </c>
-      <c r="E25" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F25" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I25" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K25" s="15">
-        <f>G25*I25</f>
-        <v/>
-      </c>
-      <c r="L25" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M25" s="11" t="inlineStr">
-        <is>
-          <t>Identificación y aislamiento de mercancías peligrosas</t>
-        </is>
-      </c>
-      <c r="N25" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="39" customHeight="1">
-      <c r="A26" s="32" t="inlineStr">
-        <is>
-          <t>R129</t>
-        </is>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C26" s="12" t="inlineStr">
-        <is>
-          <t>Alergias</t>
-        </is>
-      </c>
-      <c r="D26" s="12" t="inlineStr">
-        <is>
-          <t>Picaduras de mosquitos, abejas, zacudos, entre otros</t>
-        </is>
-      </c>
-      <c r="E26" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F26" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G26" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I26" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K26" s="15">
-        <f>G26*I26</f>
-        <v/>
-      </c>
-      <c r="L26" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M26" s="11" t="inlineStr">
-        <is>
-          <t>Concientización de cuidados</t>
-        </is>
-      </c>
-      <c r="N26" s="33" t="inlineStr">
-        <is>
-          <t>Vigilancia epidemiológica</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="33" customHeight="1">
-      <c r="A27" s="32" t="inlineStr">
-        <is>
-          <t>R130</t>
-        </is>
-      </c>
-      <c r="B27" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C27" s="12" t="inlineStr">
-        <is>
-          <t>Acoso</t>
-        </is>
-      </c>
-      <c r="D27" s="12" t="inlineStr">
-        <is>
-          <t>Por parte de compañeros, jefes y/o supervisores</t>
-        </is>
-      </c>
-      <c r="E27" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F27" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I27" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="22" t="inlineStr">
-        <is>
-          <t>Apropiado</t>
-        </is>
-      </c>
-      <c r="K27" s="15">
-        <f>G27*I27</f>
-        <v/>
-      </c>
-      <c r="L27" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M27" s="11" t="inlineStr">
-        <is>
-          <t>Reglamento de Etica y RIT</t>
-        </is>
-      </c>
-      <c r="N27" s="33" t="inlineStr">
-        <is>
-          <t>Canal de denuncias</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="34.5" customHeight="1">
-      <c r="A28" s="32" t="inlineStr">
-        <is>
-          <t>R131</t>
-        </is>
-      </c>
-      <c r="B28" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C28" s="12" t="inlineStr">
-        <is>
-          <t>Hostigamiento</t>
-        </is>
-      </c>
-      <c r="D28" s="12" t="inlineStr">
-        <is>
-          <t>Por parte de compañeros, jefes y/o supervisores</t>
-        </is>
-      </c>
-      <c r="E28" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F28" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H28" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I28" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" s="22" t="inlineStr">
-        <is>
-          <t>Apropiado</t>
-        </is>
-      </c>
-      <c r="K28" s="15">
-        <f>G28*I28</f>
-        <v/>
-      </c>
-      <c r="L28" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M28" s="11" t="inlineStr">
-        <is>
-          <t>Reglamento de Etica y RIT</t>
-        </is>
-      </c>
-      <c r="N28" s="33" t="inlineStr">
-        <is>
-          <t>Canal de denuncias</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="41.25" customHeight="1">
-      <c r="A29" s="32" t="inlineStr">
-        <is>
-          <t>R132</t>
-        </is>
-      </c>
-      <c r="B29" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C29" s="12" t="inlineStr">
-        <is>
-          <t>Estrés laboral</t>
-        </is>
-      </c>
-      <c r="D29" s="12" t="inlineStr">
-        <is>
-          <t>Carga laboral elevada</t>
-        </is>
-      </c>
-      <c r="E29" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F29" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I29" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K29" s="15">
-        <f>G29*I29</f>
-        <v/>
-      </c>
-      <c r="L29" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M29" s="11" t="inlineStr">
-        <is>
-          <t>Citas con psicológa</t>
-        </is>
-      </c>
-      <c r="N29" s="33" t="inlineStr">
-        <is>
-          <t>Por medio de Bienestar Laboral</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="34.5" customHeight="1">
-      <c r="A30" s="32" t="inlineStr">
-        <is>
-          <t>R133</t>
-        </is>
-      </c>
-      <c r="B30" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C30" s="12" t="inlineStr">
-        <is>
-          <t>Depresión</t>
-        </is>
-      </c>
-      <c r="D30" s="12" t="inlineStr">
-        <is>
-          <t>Carga laboral elevada</t>
-        </is>
-      </c>
-      <c r="E30" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F30" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G30" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I30" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K30" s="15">
-        <f>G30*I30</f>
-        <v/>
-      </c>
-      <c r="L30" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M30" s="11" t="inlineStr">
-        <is>
-          <t>Citas con psicológa</t>
-        </is>
-      </c>
-      <c r="N30" s="33" t="inlineStr">
-        <is>
-          <t>Por medio de Bienestar Laboral</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="56.25" customHeight="1">
-      <c r="A31" s="32" t="inlineStr">
-        <is>
-          <t>R134</t>
-        </is>
-      </c>
-      <c r="B31" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C31" s="12" t="inlineStr">
-        <is>
-          <t>Enfermedades fisicas varias</t>
-        </is>
-      </c>
-      <c r="D31" s="12" t="inlineStr">
-        <is>
-          <t>Turnos laborales extensos y en horarios nocturnos</t>
-        </is>
-      </c>
-      <c r="E31" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F31" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I31" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K31" s="15">
-        <f>G31*I31</f>
-        <v/>
-      </c>
-      <c r="L31" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M31" s="11" t="inlineStr">
-        <is>
-          <t>Citas con Dr de Combexim</t>
-        </is>
-      </c>
-      <c r="N31" s="33" t="inlineStr">
-        <is>
-          <t>Por medio de Bienestar Laboral</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="48" customHeight="1">
-      <c r="A32" s="32" t="inlineStr">
-        <is>
-          <t>R135</t>
-        </is>
-      </c>
-      <c r="B32" s="23" t="inlineStr">
-        <is>
-          <t>Eléctricos</t>
-        </is>
-      </c>
-      <c r="C32" s="24" t="inlineStr">
-        <is>
-          <t>Descargas eléctricas</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos eléctricos en malas condiciones</t>
-        </is>
-      </c>
-      <c r="E32" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F32" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G32" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I32" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K32" s="15">
-        <f>G32*I32</f>
-        <v/>
-      </c>
-      <c r="L32" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M32" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP y capacitación</t>
-        </is>
-      </c>
-      <c r="N32" s="33" t="inlineStr">
-        <is>
-          <t>Evaluar EPP y el corecto uso</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="55.5" customHeight="1">
-      <c r="A33" s="32" t="inlineStr">
-        <is>
-          <t>R136</t>
-        </is>
-      </c>
-      <c r="B33" s="23" t="inlineStr">
-        <is>
-          <t>Eléctricos</t>
-        </is>
-      </c>
-      <c r="C33" s="24" t="inlineStr">
-        <is>
-          <t>Electrucución</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos eléctricos en malas condiciones y de manera inadecuada</t>
-        </is>
-      </c>
-      <c r="E33" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F33" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="12" t="inlineStr">
-        <is>
-          <t>Fatalidad (es)</t>
-        </is>
-      </c>
-      <c r="I33" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K33" s="15">
-        <f>G33*I33</f>
-        <v/>
-      </c>
-      <c r="L33" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M33" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP y capacitación</t>
-        </is>
-      </c>
-      <c r="N33" s="33" t="inlineStr">
-        <is>
-          <t>Evaluar EPP y el corecto uso</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="54.75" customHeight="1">
-      <c r="A34" s="32" t="inlineStr">
-        <is>
-          <t>R137</t>
-        </is>
-      </c>
-      <c r="B34" s="23" t="inlineStr">
-        <is>
-          <t>Eléctricos</t>
-        </is>
-      </c>
-      <c r="C34" s="24" t="inlineStr">
-        <is>
-          <t>Quemaduras de 2do o 3er grado</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Incendios (Cortocircuitos y contacto con materiales inflamables)</t>
-        </is>
-      </c>
-      <c r="E34" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G34" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I34" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K34" s="15">
-        <f>G34*I34</f>
-        <v/>
-      </c>
-      <c r="L34" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M34" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP y capacitación</t>
-        </is>
-      </c>
-      <c r="N34" s="33" t="inlineStr">
-        <is>
-          <t>Evaluar EPP y el corecto uso</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="57" customHeight="1">
-      <c r="A35" s="32" t="inlineStr">
-        <is>
-          <t>R138</t>
-        </is>
-      </c>
-      <c r="B35" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturales/Locativos </t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones severas o fatalidades</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Sismo (Área altamente sismíca)</t>
-        </is>
-      </c>
-      <c r="E35" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F35" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G35" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H35" s="12" t="inlineStr">
-        <is>
-          <t>Fatalidad (es)</t>
-        </is>
-      </c>
-      <c r="I35" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K35" s="15">
-        <f>G35*I35</f>
-        <v/>
-      </c>
-      <c r="L35" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>Simulacros de evacuación y señalización.</t>
-        </is>
-      </c>
-      <c r="N35" s="33" t="inlineStr">
-        <is>
-          <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="61.5" customHeight="1">
-      <c r="A36" s="32" t="inlineStr">
-        <is>
-          <t>R139</t>
-        </is>
-      </c>
-      <c r="B36" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturales/Locativos </t>
-        </is>
-      </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones severas o fatalidades</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
-        <is>
-          <t>Incendios forestales provenientes de factores humanos y naturales(rayos).</t>
-        </is>
-      </c>
-      <c r="E36" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F36" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G36" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H36" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I36" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K36" s="15">
-        <f>G36*I36</f>
-        <v/>
-      </c>
-      <c r="L36" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M36" s="11" t="inlineStr">
-        <is>
-          <t>Simulacros de evacuación y señalización.</t>
-        </is>
-      </c>
-      <c r="N36" s="33" t="inlineStr">
-        <is>
-          <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A37" s="34" t="inlineStr">
-        <is>
-          <t>R140</t>
-        </is>
-      </c>
-      <c r="B37" s="35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturales/Locativos </t>
-        </is>
-      </c>
-      <c r="C37" s="36" t="inlineStr">
-        <is>
-          <t>Infecciones o irritación a vías respiratorias</t>
-        </is>
-      </c>
-      <c r="D37" s="36" t="inlineStr">
-        <is>
-          <t>Actividad volcánica (Ceniza)</t>
-        </is>
-      </c>
-      <c r="E37" s="42" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F37" s="36" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G37" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="H37" s="36" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I37" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" s="37" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K37" s="38">
-        <f>G37*I37</f>
-        <v/>
-      </c>
-      <c r="L37" s="36" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M37" s="39" t="inlineStr">
-        <is>
-          <t>Uso de mascarillas</t>
-        </is>
-      </c>
-      <c r="N37" s="40" t="inlineStr">
-        <is>
-          <t>Capacitación</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="L2:L37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2:H37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" scale="35" fitToHeight="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Capacitaciones</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Asistentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-11</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-12</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-01</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-08</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-09</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>81</v>
-      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Fatalidad (es) x Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -10474,7 +10474,11 @@
           <t>Fatalidad (es) x Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -10448,7 +10448,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Acoso</t>
+          <t>Alergias</t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -10464,11 +10464,7 @@
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>Fatalidad (es) x Pasa una vez o más al año</t>
@@ -10476,7 +10472,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10477,6 +10477,65 @@
       </c>
       <c r="M204" t="inlineStr"/>
     </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Casi Accidente</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Alergias</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Fatalidad (es)</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Fatalidad (es) x Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -2,25 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6630" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Incidentes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Riesgos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Capacitaciones" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Riesgos'!$B$1:$N$37</definedName>
+  </definedNames>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,23 +34,282 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -58,15 +322,133 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,69 +820,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="44" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="44" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="44" t="inlineStr">
         <is>
           <t>Área</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="44" t="inlineStr">
         <is>
           <t>Puesto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="44" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="44" t="inlineStr">
         <is>
           <t>Causa</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="44" t="inlineStr">
         <is>
           <t>Días_Perdidos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="44" t="inlineStr">
         <is>
           <t>Severidad</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="44" t="inlineStr">
         <is>
           <t>Probabilidad</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="44" t="inlineStr">
         <is>
           <t>Descripción</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="44" t="inlineStr">
         <is>
           <t>Riesgo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="44" t="inlineStr">
         <is>
           <t>Hora del Evento</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Riesgo_valor</t>
         </is>
       </c>
     </row>
@@ -510,7 +887,7 @@
           <t>INC1000</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="46" t="n">
         <v>45841</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -551,7 +928,6 @@
         <v>20</v>
       </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -559,7 +935,7 @@
           <t>INC1001</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="46" t="n">
         <v>45595</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -600,7 +976,6 @@
         <v>1</v>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,7 +983,7 @@
           <t>INC1002</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="46" t="n">
         <v>45673</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -649,7 +1024,6 @@
         <v>10</v>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -657,7 +1031,7 @@
           <t>INC1003</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="46" t="n">
         <v>45837</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -698,7 +1072,6 @@
         <v>5</v>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,7 +1079,7 @@
           <t>INC1004</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="46" t="n">
         <v>45872</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -747,7 +1120,6 @@
         <v>12</v>
       </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -755,7 +1127,7 @@
           <t>INC1005</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="46" t="n">
         <v>45755</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -796,7 +1168,6 @@
         <v>20</v>
       </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -804,7 +1175,7 @@
           <t>INC1006</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="46" t="n">
         <v>45923</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -845,7 +1216,6 @@
         <v>2</v>
       </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -853,7 +1223,7 @@
           <t>INC1007</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="46" t="n">
         <v>45841</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -894,7 +1264,6 @@
         <v>4</v>
       </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -902,7 +1271,7 @@
           <t>INC1008</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="46" t="n">
         <v>45822</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -943,7 +1312,6 @@
         <v>9</v>
       </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -951,7 +1319,7 @@
           <t>INC1009</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="46" t="n">
         <v>45729</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -992,7 +1360,6 @@
         <v>15</v>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1000,7 +1367,7 @@
           <t>INC1010</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="46" t="n">
         <v>45613</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -1041,7 +1408,6 @@
         <v>6</v>
       </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1049,7 +1415,7 @@
           <t>INC1011</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="46" t="n">
         <v>45856</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1090,7 +1456,6 @@
         <v>4</v>
       </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1098,7 +1463,7 @@
           <t>INC1012</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="46" t="n">
         <v>45844</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1139,7 +1504,6 @@
         <v>8</v>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1147,7 +1511,7 @@
           <t>INC1013</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="46" t="n">
         <v>45584</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1188,7 +1552,6 @@
         <v>20</v>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1196,7 +1559,7 @@
           <t>INC1014</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="46" t="n">
         <v>45792</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1237,7 +1600,6 @@
         <v>5</v>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1245,7 +1607,7 @@
           <t>INC1015</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="46" t="n">
         <v>45813</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1286,7 +1648,6 @@
         <v>5</v>
       </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1294,7 +1655,7 @@
           <t>INC1016</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="46" t="n">
         <v>45794</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1335,7 +1696,6 @@
         <v>25</v>
       </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1343,7 +1703,7 @@
           <t>INC1017</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="46" t="n">
         <v>45635</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1384,7 +1744,6 @@
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1392,7 +1751,7 @@
           <t>INC1018</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="46" t="n">
         <v>45686</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1433,7 +1792,6 @@
         <v>4</v>
       </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1441,7 +1799,7 @@
           <t>INC1019</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="46" t="n">
         <v>45600</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1482,7 +1840,6 @@
         <v>3</v>
       </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1490,7 +1847,7 @@
           <t>INC1020</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="46" t="n">
         <v>45650</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1531,7 +1888,6 @@
         <v>4</v>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1539,7 +1895,7 @@
           <t>INC1021</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="46" t="n">
         <v>45752</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1580,7 +1936,6 @@
         <v>20</v>
       </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1588,7 +1943,7 @@
           <t>INC1022</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="46" t="n">
         <v>45667</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1629,7 +1984,6 @@
         <v>9</v>
       </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1637,7 +1991,7 @@
           <t>INC1023</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="46" t="n">
         <v>45783</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1678,7 +2032,6 @@
         <v>6</v>
       </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1686,7 +2039,7 @@
           <t>INC1024</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="46" t="n">
         <v>45630</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1727,7 +2080,6 @@
         <v>5</v>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1735,7 +2087,7 @@
           <t>INC1025</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="46" t="n">
         <v>45922</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1776,7 +2128,6 @@
         <v>10</v>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1784,7 +2135,7 @@
           <t>INC1026</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="46" t="n">
         <v>45691</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1825,7 +2176,6 @@
         <v>20</v>
       </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1833,7 +2183,7 @@
           <t>INC1027</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="46" t="n">
         <v>45708</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1874,7 +2224,6 @@
         <v>6</v>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1882,7 +2231,7 @@
           <t>INC1028</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="46" t="n">
         <v>45599</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1923,7 +2272,6 @@
         <v>20</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1931,7 +2279,7 @@
           <t>INC1029</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="46" t="n">
         <v>45895</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1972,7 +2320,6 @@
         <v>9</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1980,7 +2327,7 @@
           <t>INC1030</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="46" t="n">
         <v>45885</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -2021,7 +2368,6 @@
         <v>5</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2029,7 +2375,7 @@
           <t>INC1031</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="46" t="n">
         <v>45774</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -2070,7 +2416,6 @@
         <v>2</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2078,7 +2423,7 @@
           <t>INC1032</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="46" t="n">
         <v>45756</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -2119,7 +2464,6 @@
         <v>4</v>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2127,7 +2471,7 @@
           <t>INC1033</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="46" t="n">
         <v>45673</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -2168,7 +2512,6 @@
         <v>8</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2176,7 +2519,7 @@
           <t>INC1034</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="46" t="n">
         <v>45754</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -2217,7 +2560,6 @@
         <v>16</v>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2225,7 +2567,7 @@
           <t>INC1035</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="46" t="n">
         <v>45769</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -2266,7 +2608,6 @@
         <v>9</v>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2274,7 +2615,7 @@
           <t>INC1036</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="46" t="n">
         <v>45893</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -2315,7 +2656,6 @@
         <v>16</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2323,7 +2663,7 @@
           <t>INC1037</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="46" t="n">
         <v>45580</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2364,7 +2704,6 @@
         <v>5</v>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2372,7 +2711,7 @@
           <t>INC1038</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="46" t="n">
         <v>45889</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2413,7 +2752,6 @@
         <v>5</v>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2421,7 +2759,7 @@
           <t>INC1039</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="46" t="n">
         <v>45700</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2462,7 +2800,6 @@
         <v>15</v>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2470,7 +2807,7 @@
           <t>INC1040</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="46" t="n">
         <v>45624</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2511,7 +2848,6 @@
         <v>25</v>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2519,7 +2855,7 @@
           <t>INC1041</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="46" t="n">
         <v>45813</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2560,7 +2896,6 @@
         <v>6</v>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2568,7 +2903,7 @@
           <t>INC1042</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="46" t="n">
         <v>45637</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2609,7 +2944,6 @@
         <v>6</v>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2617,7 +2951,7 @@
           <t>INC1043</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="46" t="n">
         <v>45809</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2658,7 +2992,6 @@
         <v>8</v>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2666,7 +2999,7 @@
           <t>INC1044</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="46" t="n">
         <v>45923</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2707,7 +3040,6 @@
         <v>3</v>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2715,7 +3047,7 @@
           <t>INC1045</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="46" t="n">
         <v>45615</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2756,7 +3088,6 @@
         <v>10</v>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2764,7 +3095,7 @@
           <t>INC1046</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="46" t="n">
         <v>45777</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2805,7 +3136,6 @@
         <v>4</v>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2813,7 +3143,7 @@
           <t>INC1047</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="46" t="n">
         <v>45670</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2854,7 +3184,6 @@
         <v>5</v>
       </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2862,7 +3191,7 @@
           <t>INC1048</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="46" t="n">
         <v>45855</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2903,7 +3232,6 @@
         <v>8</v>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2911,7 +3239,7 @@
           <t>INC1049</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="46" t="n">
         <v>45628</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2952,7 +3280,6 @@
         <v>6</v>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2960,7 +3287,7 @@
           <t>INC1050</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="46" t="n">
         <v>45930</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -3001,7 +3328,6 @@
         <v>15</v>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3009,7 +3335,7 @@
           <t>INC1051</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="46" t="n">
         <v>45702</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -3050,7 +3376,6 @@
         <v>20</v>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3058,7 +3383,7 @@
           <t>INC1052</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="46" t="n">
         <v>45679</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -3099,7 +3424,6 @@
         <v>1</v>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3107,7 +3431,7 @@
           <t>INC1053</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="46" t="n">
         <v>45598</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -3148,7 +3472,6 @@
         <v>1</v>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3156,7 +3479,7 @@
           <t>INC1054</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="46" t="n">
         <v>45891</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -3197,7 +3520,6 @@
         <v>12</v>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3205,7 +3527,7 @@
           <t>INC1055</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="46" t="n">
         <v>45604</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -3246,7 +3568,6 @@
         <v>16</v>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3254,7 +3575,7 @@
           <t>INC1056</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="46" t="n">
         <v>45852</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -3295,7 +3616,6 @@
         <v>8</v>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3303,7 +3623,7 @@
           <t>INC1057</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="46" t="n">
         <v>45680</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -3344,7 +3664,6 @@
         <v>1</v>
       </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3352,7 +3671,7 @@
           <t>INC1058</t>
         </is>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="46" t="n">
         <v>45909</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -3393,7 +3712,6 @@
         <v>5</v>
       </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3401,7 +3719,7 @@
           <t>INC1059</t>
         </is>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="46" t="n">
         <v>45738</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -3442,7 +3760,6 @@
         <v>12</v>
       </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3450,7 +3767,7 @@
           <t>INC1060</t>
         </is>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="46" t="n">
         <v>45863</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -3491,7 +3808,6 @@
         <v>10</v>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3499,7 +3815,7 @@
           <t>INC1061</t>
         </is>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="46" t="n">
         <v>45894</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -3540,7 +3856,6 @@
         <v>15</v>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3548,7 +3863,7 @@
           <t>INC1062</t>
         </is>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="46" t="n">
         <v>45584</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3589,7 +3904,6 @@
         <v>4</v>
       </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3597,7 +3911,7 @@
           <t>INC1063</t>
         </is>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="46" t="n">
         <v>45942</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3638,7 +3952,6 @@
         <v>6</v>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3646,7 +3959,7 @@
           <t>INC1064</t>
         </is>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="46" t="n">
         <v>45890</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3687,7 +4000,6 @@
         <v>5</v>
       </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3695,7 +4007,7 @@
           <t>INC1065</t>
         </is>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="46" t="n">
         <v>45838</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3736,7 +4048,6 @@
         <v>3</v>
       </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3744,7 +4055,7 @@
           <t>INC1066</t>
         </is>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="46" t="n">
         <v>45684</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3785,7 +4096,6 @@
         <v>15</v>
       </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3793,7 +4103,7 @@
           <t>INC1067</t>
         </is>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="46" t="n">
         <v>45634</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3834,7 +4144,6 @@
         <v>10</v>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3842,7 +4151,7 @@
           <t>INC1068</t>
         </is>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="46" t="n">
         <v>45753</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -3883,7 +4192,6 @@
         <v>10</v>
       </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3891,7 +4199,7 @@
           <t>INC1069</t>
         </is>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="46" t="n">
         <v>45726</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3932,7 +4240,6 @@
         <v>3</v>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3940,7 +4247,7 @@
           <t>INC1070</t>
         </is>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="46" t="n">
         <v>45900</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3981,7 +4288,6 @@
         <v>5</v>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3989,7 +4295,7 @@
           <t>INC1071</t>
         </is>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="46" t="n">
         <v>45782</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -4030,7 +4336,6 @@
         <v>4</v>
       </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4038,7 +4343,7 @@
           <t>INC1072</t>
         </is>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="46" t="n">
         <v>45742</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -4079,7 +4384,6 @@
         <v>5</v>
       </c>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4087,7 +4391,7 @@
           <t>INC1073</t>
         </is>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="46" t="n">
         <v>45674</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -4128,7 +4432,6 @@
         <v>8</v>
       </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4136,7 +4439,7 @@
           <t>INC1074</t>
         </is>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="46" t="n">
         <v>45593</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -4177,7 +4480,6 @@
         <v>3</v>
       </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4185,7 +4487,7 @@
           <t>INC1075</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="46" t="n">
         <v>45640</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -4226,7 +4528,6 @@
         <v>3</v>
       </c>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4234,7 +4535,7 @@
           <t>INC1076</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="46" t="n">
         <v>45673</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -4275,7 +4576,6 @@
         <v>9</v>
       </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4283,7 +4583,7 @@
           <t>INC1077</t>
         </is>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="46" t="n">
         <v>45729</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -4324,7 +4624,6 @@
         <v>3</v>
       </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4332,7 +4631,7 @@
           <t>INC1078</t>
         </is>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="46" t="n">
         <v>45692</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -4373,7 +4672,6 @@
         <v>4</v>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4381,7 +4679,7 @@
           <t>INC1079</t>
         </is>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="46" t="n">
         <v>45754</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -4422,7 +4720,6 @@
         <v>20</v>
       </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4430,7 +4727,7 @@
           <t>INC1080</t>
         </is>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="46" t="n">
         <v>45648</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -4471,7 +4768,6 @@
         <v>1</v>
       </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4479,7 +4775,7 @@
           <t>INC1081</t>
         </is>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="46" t="n">
         <v>45731</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -4520,7 +4816,6 @@
         <v>12</v>
       </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4528,7 +4823,7 @@
           <t>INC1082</t>
         </is>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="46" t="n">
         <v>45736</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -4569,7 +4864,6 @@
         <v>4</v>
       </c>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4577,7 +4871,7 @@
           <t>INC1083</t>
         </is>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="46" t="n">
         <v>45707</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -4618,7 +4912,6 @@
         <v>2</v>
       </c>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4626,7 +4919,7 @@
           <t>INC1084</t>
         </is>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="46" t="n">
         <v>45606</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -4667,7 +4960,6 @@
         <v>8</v>
       </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4675,7 +4967,7 @@
           <t>INC1085</t>
         </is>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="46" t="n">
         <v>45891</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -4716,7 +5008,6 @@
         <v>4</v>
       </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4724,7 +5015,7 @@
           <t>INC1086</t>
         </is>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="46" t="n">
         <v>45664</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4765,7 +5056,6 @@
         <v>4</v>
       </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4773,7 +5063,7 @@
           <t>INC1087</t>
         </is>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="46" t="n">
         <v>45727</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -4814,7 +5104,6 @@
         <v>1</v>
       </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4822,7 +5111,7 @@
           <t>INC1088</t>
         </is>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="46" t="n">
         <v>45692</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -4863,7 +5152,6 @@
         <v>10</v>
       </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4871,7 +5159,7 @@
           <t>INC1089</t>
         </is>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="46" t="n">
         <v>45756</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -4912,7 +5200,6 @@
         <v>3</v>
       </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4920,7 +5207,7 @@
           <t>INC1090</t>
         </is>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="46" t="n">
         <v>45903</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -4961,7 +5248,6 @@
         <v>3</v>
       </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4969,7 +5255,7 @@
           <t>INC1091</t>
         </is>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="46" t="n">
         <v>45787</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -5010,7 +5296,6 @@
         <v>2</v>
       </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5018,7 +5303,7 @@
           <t>INC1092</t>
         </is>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="46" t="n">
         <v>45929</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -5059,7 +5344,6 @@
         <v>20</v>
       </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5067,7 +5351,7 @@
           <t>INC1093</t>
         </is>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="46" t="n">
         <v>45643</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -5108,7 +5392,6 @@
         <v>3</v>
       </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5116,7 +5399,7 @@
           <t>INC1094</t>
         </is>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="46" t="n">
         <v>45879</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -5157,7 +5440,6 @@
         <v>25</v>
       </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5165,7 +5447,7 @@
           <t>INC1095</t>
         </is>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="46" t="n">
         <v>45599</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -5206,7 +5488,6 @@
         <v>8</v>
       </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5214,7 +5495,7 @@
           <t>INC1096</t>
         </is>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="46" t="n">
         <v>45617</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -5255,7 +5536,6 @@
         <v>4</v>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5263,7 +5543,7 @@
           <t>INC1097</t>
         </is>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="46" t="n">
         <v>45935</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -5304,7 +5584,6 @@
         <v>10</v>
       </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5312,7 +5591,7 @@
           <t>INC1098</t>
         </is>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="46" t="n">
         <v>45600</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -5353,7 +5632,6 @@
         <v>8</v>
       </c>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5361,7 +5639,7 @@
           <t>INC1099</t>
         </is>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="46" t="n">
         <v>45815</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -5402,7 +5680,6 @@
         <v>10</v>
       </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5410,7 +5687,7 @@
           <t>INC1100</t>
         </is>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="46" t="n">
         <v>45808</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -5451,7 +5728,6 @@
         <v>8</v>
       </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5459,7 +5735,7 @@
           <t>INC1101</t>
         </is>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="46" t="n">
         <v>45881</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -5500,7 +5776,6 @@
         <v>10</v>
       </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5508,7 +5783,7 @@
           <t>INC1102</t>
         </is>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="46" t="n">
         <v>45805</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -5549,7 +5824,6 @@
         <v>10</v>
       </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5557,7 +5831,7 @@
           <t>INC1103</t>
         </is>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="46" t="n">
         <v>45863</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -5598,7 +5872,6 @@
         <v>4</v>
       </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5606,7 +5879,7 @@
           <t>INC1104</t>
         </is>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="46" t="n">
         <v>45781</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -5647,7 +5920,6 @@
         <v>2</v>
       </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5655,7 +5927,7 @@
           <t>INC1105</t>
         </is>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="46" t="n">
         <v>45655</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -5696,7 +5968,6 @@
         <v>15</v>
       </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5704,7 +5975,7 @@
           <t>INC1106</t>
         </is>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="46" t="n">
         <v>45683</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -5745,7 +6016,6 @@
         <v>25</v>
       </c>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5753,7 +6023,7 @@
           <t>INC1107</t>
         </is>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="46" t="n">
         <v>45713</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -5794,7 +6064,6 @@
         <v>9</v>
       </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5802,7 +6071,7 @@
           <t>INC1108</t>
         </is>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="46" t="n">
         <v>45903</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -5843,7 +6112,6 @@
         <v>6</v>
       </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5851,7 +6119,7 @@
           <t>INC1109</t>
         </is>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="46" t="n">
         <v>45916</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -5892,7 +6160,6 @@
         <v>3</v>
       </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5900,7 +6167,7 @@
           <t>INC1110</t>
         </is>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="46" t="n">
         <v>45809</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -5941,7 +6208,6 @@
         <v>2</v>
       </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5949,7 +6215,7 @@
           <t>INC1111</t>
         </is>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="46" t="n">
         <v>45743</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -5990,7 +6256,6 @@
         <v>3</v>
       </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5998,7 +6263,7 @@
           <t>INC1112</t>
         </is>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="46" t="n">
         <v>45616</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -6039,7 +6304,6 @@
         <v>10</v>
       </c>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6047,7 +6311,7 @@
           <t>INC1113</t>
         </is>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="46" t="n">
         <v>45676</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -6088,7 +6352,6 @@
         <v>20</v>
       </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6096,7 +6359,7 @@
           <t>INC1114</t>
         </is>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="46" t="n">
         <v>45911</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -6137,7 +6400,6 @@
         <v>2</v>
       </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6145,7 +6407,7 @@
           <t>INC1115</t>
         </is>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="46" t="n">
         <v>45896</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -6186,7 +6448,6 @@
         <v>12</v>
       </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6194,7 +6455,7 @@
           <t>INC1116</t>
         </is>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="46" t="n">
         <v>45882</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -6235,7 +6496,6 @@
         <v>16</v>
       </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6243,7 +6503,7 @@
           <t>INC1117</t>
         </is>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="46" t="n">
         <v>45728</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -6284,7 +6544,6 @@
         <v>3</v>
       </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6292,7 +6551,7 @@
           <t>INC1118</t>
         </is>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="46" t="n">
         <v>45651</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -6333,7 +6592,6 @@
         <v>9</v>
       </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6341,7 +6599,7 @@
           <t>INC1119</t>
         </is>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="46" t="n">
         <v>45845</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -6382,7 +6640,6 @@
         <v>12</v>
       </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6390,7 +6647,7 @@
           <t>INC1120</t>
         </is>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="46" t="n">
         <v>45772</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -6431,7 +6688,6 @@
         <v>4</v>
       </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6439,7 +6695,7 @@
           <t>INC1121</t>
         </is>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="46" t="n">
         <v>45584</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -6480,7 +6736,6 @@
         <v>10</v>
       </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6488,7 +6743,7 @@
           <t>INC1122</t>
         </is>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="46" t="n">
         <v>45730</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -6529,7 +6784,6 @@
         <v>6</v>
       </c>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6537,7 +6791,7 @@
           <t>INC1123</t>
         </is>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="46" t="n">
         <v>45909</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -6578,7 +6832,6 @@
         <v>15</v>
       </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6586,7 +6839,7 @@
           <t>INC1124</t>
         </is>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="46" t="n">
         <v>45717</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -6627,7 +6880,6 @@
         <v>1</v>
       </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6635,7 +6887,7 @@
           <t>INC1125</t>
         </is>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="46" t="n">
         <v>45843</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -6676,7 +6928,6 @@
         <v>20</v>
       </c>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6684,7 +6935,7 @@
           <t>INC1126</t>
         </is>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="46" t="n">
         <v>45813</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -6725,7 +6976,6 @@
         <v>4</v>
       </c>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6733,7 +6983,7 @@
           <t>INC1127</t>
         </is>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="46" t="n">
         <v>45687</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -6774,7 +7024,6 @@
         <v>12</v>
       </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6782,7 +7031,7 @@
           <t>INC1128</t>
         </is>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="46" t="n">
         <v>45939</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -6823,7 +7072,6 @@
         <v>6</v>
       </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6831,7 +7079,7 @@
           <t>INC1129</t>
         </is>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="46" t="n">
         <v>45726</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -6872,7 +7120,6 @@
         <v>16</v>
       </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6880,7 +7127,7 @@
           <t>INC1130</t>
         </is>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="46" t="n">
         <v>45689</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -6921,7 +7168,6 @@
         <v>20</v>
       </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6929,7 +7175,7 @@
           <t>INC1131</t>
         </is>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="46" t="n">
         <v>45585</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -6970,7 +7216,6 @@
         <v>15</v>
       </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6978,7 +7223,7 @@
           <t>INC1132</t>
         </is>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="46" t="n">
         <v>45661</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -7019,7 +7264,6 @@
         <v>5</v>
       </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7027,7 +7271,7 @@
           <t>INC1133</t>
         </is>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="46" t="n">
         <v>45737</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -7068,7 +7312,6 @@
         <v>10</v>
       </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7076,7 +7319,7 @@
           <t>INC1134</t>
         </is>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="46" t="n">
         <v>45929</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -7117,7 +7360,6 @@
         <v>3</v>
       </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7125,7 +7367,7 @@
           <t>INC1135</t>
         </is>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="46" t="n">
         <v>45598</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -7166,7 +7408,6 @@
         <v>6</v>
       </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7174,7 +7415,7 @@
           <t>INC1136</t>
         </is>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="46" t="n">
         <v>45902</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -7215,7 +7456,6 @@
         <v>6</v>
       </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7223,7 +7463,7 @@
           <t>INC1137</t>
         </is>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="46" t="n">
         <v>45765</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -7264,7 +7504,6 @@
         <v>8</v>
       </c>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7272,7 +7511,7 @@
           <t>INC1138</t>
         </is>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="46" t="n">
         <v>45881</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -7313,7 +7552,6 @@
         <v>15</v>
       </c>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7321,7 +7559,7 @@
           <t>INC1139</t>
         </is>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="46" t="n">
         <v>45592</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -7362,7 +7600,6 @@
         <v>25</v>
       </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7370,7 +7607,7 @@
           <t>INC1140</t>
         </is>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="46" t="n">
         <v>45713</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -7411,7 +7648,6 @@
         <v>10</v>
       </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7419,7 +7655,7 @@
           <t>INC1141</t>
         </is>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="46" t="n">
         <v>45703</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -7460,7 +7696,6 @@
         <v>12</v>
       </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7468,7 +7703,7 @@
           <t>INC1142</t>
         </is>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="46" t="n">
         <v>45892</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -7509,7 +7744,6 @@
         <v>8</v>
       </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7517,7 +7751,7 @@
           <t>INC1143</t>
         </is>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="46" t="n">
         <v>45848</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -7558,7 +7792,6 @@
         <v>10</v>
       </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7566,7 +7799,7 @@
           <t>INC1144</t>
         </is>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="46" t="n">
         <v>45722</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -7607,7 +7840,6 @@
         <v>10</v>
       </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7615,7 +7847,7 @@
           <t>INC1145</t>
         </is>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="46" t="n">
         <v>45713</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -7656,7 +7888,6 @@
         <v>12</v>
       </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7664,7 +7895,7 @@
           <t>INC1146</t>
         </is>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="46" t="n">
         <v>45707</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -7705,7 +7936,6 @@
         <v>10</v>
       </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7713,7 +7943,7 @@
           <t>INC1147</t>
         </is>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="46" t="n">
         <v>45801</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -7754,7 +7984,6 @@
         <v>5</v>
       </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7762,7 +7991,7 @@
           <t>INC1148</t>
         </is>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="46" t="n">
         <v>45773</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -7803,7 +8032,6 @@
         <v>9</v>
       </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7811,7 +8039,7 @@
           <t>INC1149</t>
         </is>
       </c>
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="46" t="n">
         <v>45915</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -7852,7 +8080,6 @@
         <v>3</v>
       </c>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7860,7 +8087,7 @@
           <t>INC1150</t>
         </is>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="46" t="n">
         <v>45908</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -7901,7 +8128,6 @@
         <v>4</v>
       </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7909,7 +8135,7 @@
           <t>INC1151</t>
         </is>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="46" t="n">
         <v>45931</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -7950,7 +8176,6 @@
         <v>2</v>
       </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7958,7 +8183,7 @@
           <t>INC1152</t>
         </is>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="46" t="n">
         <v>45784</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -7999,7 +8224,6 @@
         <v>6</v>
       </c>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8007,7 +8231,7 @@
           <t>INC1153</t>
         </is>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="46" t="n">
         <v>45617</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -8048,7 +8272,6 @@
         <v>12</v>
       </c>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8056,7 +8279,7 @@
           <t>INC1154</t>
         </is>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="46" t="n">
         <v>45757</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -8097,7 +8320,6 @@
         <v>25</v>
       </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8105,7 +8327,7 @@
           <t>INC1155</t>
         </is>
       </c>
-      <c r="B157" s="2" t="n">
+      <c r="B157" s="46" t="n">
         <v>45701</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -8146,7 +8368,6 @@
         <v>15</v>
       </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8154,7 +8375,7 @@
           <t>INC1156</t>
         </is>
       </c>
-      <c r="B158" s="2" t="n">
+      <c r="B158" s="46" t="n">
         <v>45858</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -8195,7 +8416,6 @@
         <v>3</v>
       </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8203,7 +8423,7 @@
           <t>INC1157</t>
         </is>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="46" t="n">
         <v>45660</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -8244,7 +8464,6 @@
         <v>8</v>
       </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8252,7 +8471,7 @@
           <t>INC1158</t>
         </is>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="46" t="n">
         <v>45878</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -8293,7 +8512,6 @@
         <v>1</v>
       </c>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8301,7 +8519,7 @@
           <t>INC1159</t>
         </is>
       </c>
-      <c r="B161" s="2" t="n">
+      <c r="B161" s="46" t="n">
         <v>45774</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -8342,7 +8560,6 @@
         <v>10</v>
       </c>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8350,7 +8567,7 @@
           <t>INC1160</t>
         </is>
       </c>
-      <c r="B162" s="2" t="n">
+      <c r="B162" s="46" t="n">
         <v>45899</v>
       </c>
       <c r="C162" t="inlineStr">
@@ -8391,7 +8608,6 @@
         <v>8</v>
       </c>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8399,7 +8615,7 @@
           <t>INC1161</t>
         </is>
       </c>
-      <c r="B163" s="2" t="n">
+      <c r="B163" s="46" t="n">
         <v>45882</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -8440,7 +8656,6 @@
         <v>20</v>
       </c>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8448,7 +8663,7 @@
           <t>INC1162</t>
         </is>
       </c>
-      <c r="B164" s="2" t="n">
+      <c r="B164" s="46" t="n">
         <v>45810</v>
       </c>
       <c r="C164" t="inlineStr">
@@ -8489,7 +8704,6 @@
         <v>20</v>
       </c>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8497,7 +8711,7 @@
           <t>INC1163</t>
         </is>
       </c>
-      <c r="B165" s="2" t="n">
+      <c r="B165" s="46" t="n">
         <v>45660</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -8538,7 +8752,6 @@
         <v>25</v>
       </c>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8546,7 +8759,7 @@
           <t>INC1164</t>
         </is>
       </c>
-      <c r="B166" s="2" t="n">
+      <c r="B166" s="46" t="n">
         <v>45916</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -8587,7 +8800,6 @@
         <v>16</v>
       </c>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8595,7 +8807,7 @@
           <t>INC1165</t>
         </is>
       </c>
-      <c r="B167" s="2" t="n">
+      <c r="B167" s="46" t="n">
         <v>45836</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -8636,7 +8848,6 @@
         <v>16</v>
       </c>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8644,7 +8855,7 @@
           <t>INC1166</t>
         </is>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="46" t="n">
         <v>45900</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -8685,7 +8896,6 @@
         <v>16</v>
       </c>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8693,7 +8903,7 @@
           <t>INC1167</t>
         </is>
       </c>
-      <c r="B169" s="2" t="n">
+      <c r="B169" s="46" t="n">
         <v>45604</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -8734,7 +8944,6 @@
         <v>8</v>
       </c>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8742,7 +8951,7 @@
           <t>INC1168</t>
         </is>
       </c>
-      <c r="B170" s="2" t="n">
+      <c r="B170" s="46" t="n">
         <v>45658</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -8783,7 +8992,6 @@
         <v>16</v>
       </c>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8791,7 +8999,7 @@
           <t>INC1169</t>
         </is>
       </c>
-      <c r="B171" s="2" t="n">
+      <c r="B171" s="46" t="n">
         <v>45613</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -8832,7 +9040,6 @@
         <v>6</v>
       </c>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8840,7 +9047,7 @@
           <t>INC1170</t>
         </is>
       </c>
-      <c r="B172" s="2" t="n">
+      <c r="B172" s="46" t="n">
         <v>45816</v>
       </c>
       <c r="C172" t="inlineStr">
@@ -8881,7 +9088,6 @@
         <v>1</v>
       </c>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8889,7 +9095,7 @@
           <t>INC1171</t>
         </is>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="46" t="n">
         <v>45596</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -8930,7 +9136,6 @@
         <v>12</v>
       </c>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8938,7 +9143,7 @@
           <t>INC1172</t>
         </is>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="46" t="n">
         <v>45713</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -8979,7 +9184,6 @@
         <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8987,7 +9191,7 @@
           <t>INC1173</t>
         </is>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="46" t="n">
         <v>45754</v>
       </c>
       <c r="C175" t="inlineStr">
@@ -9028,7 +9232,6 @@
         <v>8</v>
       </c>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9036,7 +9239,7 @@
           <t>INC1174</t>
         </is>
       </c>
-      <c r="B176" s="2" t="n">
+      <c r="B176" s="46" t="n">
         <v>45719</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -9077,7 +9280,6 @@
         <v>2</v>
       </c>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9085,7 +9287,7 @@
           <t>INC1175</t>
         </is>
       </c>
-      <c r="B177" s="2" t="n">
+      <c r="B177" s="46" t="n">
         <v>45661</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -9126,7 +9328,6 @@
         <v>10</v>
       </c>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9134,7 +9335,7 @@
           <t>INC1176</t>
         </is>
       </c>
-      <c r="B178" s="2" t="n">
+      <c r="B178" s="46" t="n">
         <v>45823</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -9175,7 +9376,6 @@
         <v>6</v>
       </c>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9183,7 +9383,7 @@
           <t>INC1177</t>
         </is>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" s="46" t="n">
         <v>45828</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -9224,7 +9424,6 @@
         <v>8</v>
       </c>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9232,7 +9431,7 @@
           <t>INC1178</t>
         </is>
       </c>
-      <c r="B180" s="2" t="n">
+      <c r="B180" s="46" t="n">
         <v>45711</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -9273,7 +9472,6 @@
         <v>4</v>
       </c>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9281,7 +9479,7 @@
           <t>INC1179</t>
         </is>
       </c>
-      <c r="B181" s="2" t="n">
+      <c r="B181" s="46" t="n">
         <v>45685</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -9322,7 +9520,6 @@
         <v>10</v>
       </c>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9330,7 +9527,7 @@
           <t>INC1180</t>
         </is>
       </c>
-      <c r="B182" s="2" t="n">
+      <c r="B182" s="46" t="n">
         <v>45585</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -9371,7 +9568,6 @@
         <v>16</v>
       </c>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9379,7 +9575,7 @@
           <t>INC1181</t>
         </is>
       </c>
-      <c r="B183" s="2" t="n">
+      <c r="B183" s="46" t="n">
         <v>45746</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -9420,7 +9616,6 @@
         <v>8</v>
       </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9428,7 +9623,7 @@
           <t>INC1182</t>
         </is>
       </c>
-      <c r="B184" s="2" t="n">
+      <c r="B184" s="46" t="n">
         <v>45807</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -9469,7 +9664,6 @@
         <v>9</v>
       </c>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9477,7 +9671,7 @@
           <t>INC1183</t>
         </is>
       </c>
-      <c r="B185" s="2" t="n">
+      <c r="B185" s="46" t="n">
         <v>45626</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -9518,7 +9712,6 @@
         <v>9</v>
       </c>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9526,7 +9719,7 @@
           <t>INC1184</t>
         </is>
       </c>
-      <c r="B186" s="2" t="n">
+      <c r="B186" s="46" t="n">
         <v>45779</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -9567,7 +9760,6 @@
         <v>8</v>
       </c>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9575,7 +9767,7 @@
           <t>INC1185</t>
         </is>
       </c>
-      <c r="B187" s="2" t="n">
+      <c r="B187" s="46" t="n">
         <v>45719</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -9616,7 +9808,6 @@
         <v>25</v>
       </c>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9624,7 +9815,7 @@
           <t>INC1186</t>
         </is>
       </c>
-      <c r="B188" s="2" t="n">
+      <c r="B188" s="46" t="n">
         <v>45637</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -9665,7 +9856,6 @@
         <v>16</v>
       </c>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9673,7 +9863,7 @@
           <t>INC1187</t>
         </is>
       </c>
-      <c r="B189" s="2" t="n">
+      <c r="B189" s="46" t="n">
         <v>45710</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -9714,7 +9904,6 @@
         <v>15</v>
       </c>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9722,7 +9911,7 @@
           <t>INC1188</t>
         </is>
       </c>
-      <c r="B190" s="2" t="n">
+      <c r="B190" s="46" t="n">
         <v>45772</v>
       </c>
       <c r="C190" t="inlineStr">
@@ -9763,7 +9952,6 @@
         <v>15</v>
       </c>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9771,7 +9959,7 @@
           <t>INC1189</t>
         </is>
       </c>
-      <c r="B191" s="2" t="n">
+      <c r="B191" s="46" t="n">
         <v>45792</v>
       </c>
       <c r="C191" t="inlineStr">
@@ -9812,7 +10000,6 @@
         <v>2</v>
       </c>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9820,7 +10007,7 @@
           <t>INC1190</t>
         </is>
       </c>
-      <c r="B192" s="2" t="n">
+      <c r="B192" s="46" t="n">
         <v>45629</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -9861,7 +10048,6 @@
         <v>15</v>
       </c>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9869,7 +10055,7 @@
           <t>INC1191</t>
         </is>
       </c>
-      <c r="B193" s="2" t="n">
+      <c r="B193" s="46" t="n">
         <v>45784</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -9910,7 +10096,6 @@
         <v>3</v>
       </c>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9918,7 +10103,7 @@
           <t>INC1192</t>
         </is>
       </c>
-      <c r="B194" s="2" t="n">
+      <c r="B194" s="46" t="n">
         <v>45848</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -9959,7 +10144,6 @@
         <v>6</v>
       </c>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9967,7 +10151,7 @@
           <t>INC1193</t>
         </is>
       </c>
-      <c r="B195" s="2" t="n">
+      <c r="B195" s="46" t="n">
         <v>45711</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -10008,7 +10192,6 @@
         <v>4</v>
       </c>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10016,7 +10199,7 @@
           <t>INC1194</t>
         </is>
       </c>
-      <c r="B196" s="2" t="n">
+      <c r="B196" s="46" t="n">
         <v>45764</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -10057,7 +10240,6 @@
         <v>8</v>
       </c>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10065,7 +10247,7 @@
           <t>INC1195</t>
         </is>
       </c>
-      <c r="B197" s="2" t="n">
+      <c r="B197" s="46" t="n">
         <v>45831</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -10106,7 +10288,6 @@
         <v>4</v>
       </c>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10114,7 +10295,7 @@
           <t>INC1196</t>
         </is>
       </c>
-      <c r="B198" s="2" t="n">
+      <c r="B198" s="46" t="n">
         <v>45626</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -10155,7 +10336,6 @@
         <v>20</v>
       </c>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10163,7 +10343,7 @@
           <t>INC1197</t>
         </is>
       </c>
-      <c r="B199" s="2" t="n">
+      <c r="B199" s="46" t="n">
         <v>45892</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -10204,7 +10384,6 @@
         <v>8</v>
       </c>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10212,7 +10391,7 @@
           <t>INC1198</t>
         </is>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="46" t="n">
         <v>45676</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -10253,7 +10432,6 @@
         <v>5</v>
       </c>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10261,7 +10439,7 @@
           <t>INC1199</t>
         </is>
       </c>
-      <c r="B201" s="2" t="n">
+      <c r="B201" s="46" t="n">
         <v>45649</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -10302,7 +10480,6 @@
         <v>15</v>
       </c>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10310,7 +10487,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="46" t="n">
         <v>45964</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -10361,7 +10538,6 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10369,7 +10545,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="46" t="n">
         <v>45964</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -10420,121 +10596,2723 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Casi Accidente</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" min="1" max="1"/>
+    <col width="25.85546875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="33.140625" customWidth="1" style="4" min="3" max="3"/>
+    <col width="53.5703125" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="37.28515625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="26.5703125" customWidth="1" style="7" min="6" max="6"/>
+    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="7" max="7"/>
+    <col width="29.140625" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="9" max="9"/>
+    <col width="12.5703125" customWidth="1" style="6" min="10" max="10"/>
+    <col hidden="1" width="5.140625" customWidth="1" style="8" min="11" max="11"/>
+    <col width="19.28515625" customWidth="1" style="7" min="12" max="12"/>
+    <col width="30.85546875" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
+    <col width="50.42578125" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
+    <col width="11.42578125" customWidth="1" style="9" min="15" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38.25" customFormat="1" customHeight="1" s="10">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>ID_Riesgo</t>
+        </is>
+      </c>
+      <c r="B1" s="27" t="inlineStr">
+        <is>
+          <t>Clasificación de peligro</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr">
+        <is>
+          <t>Peligro</t>
+        </is>
+      </c>
+      <c r="D1" s="27" t="inlineStr">
+        <is>
+          <t>Fuente o actividad</t>
+        </is>
+      </c>
+      <c r="E1" s="27" t="inlineStr">
+        <is>
+          <t>Tipo de puesto</t>
+        </is>
+      </c>
+      <c r="F1" s="27" t="inlineStr">
+        <is>
+          <t>Probabilidad</t>
+        </is>
+      </c>
+      <c r="G1" s="28" t="n"/>
+      <c r="H1" s="27" t="inlineStr">
+        <is>
+          <t>Severidad</t>
+        </is>
+      </c>
+      <c r="I1" s="29" t="n"/>
+      <c r="J1" s="30" t="inlineStr">
+        <is>
+          <t>Nivel de Riesgo</t>
+        </is>
+      </c>
+      <c r="K1" s="30" t="n"/>
+      <c r="L1" s="27" t="inlineStr">
+        <is>
+          <t>Jerarquía de riesgo</t>
+        </is>
+      </c>
+      <c r="M1" s="27" t="inlineStr">
+        <is>
+          <t>Medidas de control</t>
+        </is>
+      </c>
+      <c r="N1" s="31" t="inlineStr">
+        <is>
+          <t>Hallazgos/Oportunidades de mejora</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="60.75" customHeight="1">
+      <c r="A2" s="32" t="inlineStr">
+        <is>
+          <t>R105</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>Atropellamiento</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>Uso de pasos peatonales dentro de bodega.</t>
+        </is>
+      </c>
+      <c r="E2" s="43" t="inlineStr">
+        <is>
+          <t>Puestos con actividades operativas</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>Pasó alguna vez</t>
+        </is>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I2" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K2" s="15">
+        <f>G2*I2</f>
+        <v/>
+      </c>
+      <c r="L2" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M2" s="11" t="inlineStr">
+        <is>
+          <t>Señalización y pasos peatonales</t>
+        </is>
+      </c>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación sobre el manejo seguro a las áreas opeativas, capacitación sobre medidas de seguridad equipo administrativo, creación de pasos peatonales operativos</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="38.25" customHeight="1">
+      <c r="A3" s="32" t="inlineStr">
+        <is>
+          <t>R106</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>Caidas a nivel</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>Caminos dañados, desnivelados o pisos mojados.</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K3" s="15">
+        <f>G3*I3</f>
+        <v/>
+      </c>
+      <c r="L3" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="inlineStr">
+        <is>
+          <t>Señalización y colocación de cintas antideslizantes</t>
+        </is>
+      </c>
+      <c r="N3" s="33" t="inlineStr">
+        <is>
+          <t>Inspecciones de pisos y superficies en conjunto a capacitaciones sobre el trabajo seguro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="38.25" customHeight="1">
+      <c r="A4" s="32" t="inlineStr">
+        <is>
+          <t>R107</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>Caidas a diferente nivel</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>Uso continuo de gradas y superficies desniveladas (Rampas)</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K4" s="15">
+        <f>G4*I4</f>
+        <v/>
+      </c>
+      <c r="L4" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M4" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP anti caida, escaleras fijas, lineas de vida</t>
+        </is>
+      </c>
+      <c r="N4" s="33" t="inlineStr">
+        <is>
+          <t>Inspecciones de gradas, escaleras y rampas, en conjunto de capacitaciones sobre trabajo seguro</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="38.25" customHeight="1">
+      <c r="A5" s="32" t="inlineStr">
+        <is>
+          <t>R108</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>Choque contra objetos mecánicos</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Cargas, vehiculos, ayudas mécanicas u objeto que se encuentran en las instalaciones</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>Pasó alguna vez</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K5" s="15">
+        <f>G5*I5</f>
+        <v/>
+      </c>
+      <c r="L5" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M5" s="11" t="inlineStr">
+        <is>
+          <t>Señalización e inspecciones de orden y limpieza</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="inlineStr">
+        <is>
+          <t>Inspecciones de las instalaciones en temas de orden y limpieza.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="38.25" customHeight="1">
+      <c r="A6" s="32" t="inlineStr">
+        <is>
+          <t>R109</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>Aplastamiento</t>
+        </is>
+      </c>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K6" s="15">
+        <f>G6*I6</f>
+        <v/>
+      </c>
+      <c r="L6" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M6" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP, Señalización visual en montacrgas</t>
+        </is>
+      </c>
+      <c r="N6" s="33" t="inlineStr">
+        <is>
+          <t>Analisís de estructuras y equipo de almacenamiento en general</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="51.75" customHeight="1">
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t>R110</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>Atrapamiento</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K7" s="15">
+        <f>G7*I7</f>
+        <v/>
+      </c>
+      <c r="L7" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M7" s="11" t="inlineStr">
+        <is>
+          <t>Señalización e inspecciones de orden y limpieza</t>
+        </is>
+      </c>
+      <c r="N7" s="33" t="inlineStr">
+        <is>
+          <t>Analisís de estructuras y equipo de almacenamiento en general</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="46.5" customHeight="1">
+      <c r="A8" s="32" t="inlineStr">
+        <is>
+          <t>R111</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>Cortes y hemorragías</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>Uso de equipos de corte (flejadoras y cuchillas)</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="K8" s="15">
+        <f>G8*I8</f>
+        <v/>
+      </c>
+      <c r="L8" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M8" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP</t>
+        </is>
+      </c>
+      <c r="N8" s="33" t="inlineStr">
+        <is>
+          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>R112</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>Contusiones leves y severas (caida de objetos)</t>
+        </is>
+      </c>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>Cargas u objetos elevados (lámparas, cargas u objetos en general)</t>
+        </is>
+      </c>
+      <c r="E9" s="43" t="inlineStr">
+        <is>
+          <t>Puestos con actividades operativas</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K9" s="15">
+        <f>G9*I9</f>
+        <v/>
+      </c>
+      <c r="L9" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M9" s="11" t="inlineStr">
+        <is>
+          <t>Señalización, uso de EPP</t>
+        </is>
+      </c>
+      <c r="N9" s="33" t="inlineStr">
+        <is>
+          <t>Caminatas de seguridad e inspección sobre condiciones inseguras de trabajo en cuanto a objetos colgantes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1">
+      <c r="A10" s="32" t="inlineStr">
+        <is>
+          <t>R113</t>
+        </is>
+      </c>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>Mecánicos</t>
+        </is>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>Lumbalgías y lesiones musculoesqueleticas</t>
+        </is>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
+        <is>
+          <t>Malas posturas, posturas forzadas y repetitivas</t>
+        </is>
+      </c>
+      <c r="E10" s="43" t="inlineStr">
+        <is>
+          <t>Puestos con actividades operativas</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K10" s="15">
+        <f>G10*I10</f>
+        <v/>
+      </c>
+      <c r="L10" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M10" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP</t>
+        </is>
+      </c>
+      <c r="N10" s="33" t="inlineStr">
+        <is>
+          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="46.5" customHeight="1">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
+          <t>R114</t>
+        </is>
+      </c>
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>Migrañas, lesiones oculares (agravamiento de miopia y astigmatismo)</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>Ilumnación deficiente</t>
+        </is>
+      </c>
+      <c r="E11" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al mes</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>Lesión leve o sin impacto</t>
+        </is>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K11" s="15">
+        <f>G11*I11</f>
+        <v/>
+      </c>
+      <c r="L11" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M11" s="11" t="inlineStr">
+        <is>
+          <t>Buena iluminación en las areas de trabajo</t>
+        </is>
+      </c>
+      <c r="N11" s="33" t="inlineStr">
+        <is>
+          <t>Estudio de iluminación y mantenimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="59.25" customHeight="1">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t>R115</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>Tendinitis</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>Uso de equipos que causan vibración (Computadoras, herramientas, vehiculos, etc)</t>
+        </is>
+      </c>
+      <c r="E12" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" s="17" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="K12" s="15">
+        <f>G12*I12</f>
+        <v/>
+      </c>
+      <c r="L12" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M12" s="11" t="inlineStr">
+        <is>
+          <t>Hacer pausas activas</t>
+        </is>
+      </c>
+      <c r="N12" s="33" t="inlineStr">
+        <is>
+          <t>Capacitaciones sobre ergonomía y uso de ayudas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="32" t="inlineStr">
+        <is>
+          <t>R116</t>
+        </is>
+      </c>
+      <c r="B13" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>Desmayos o golpes/choques de calor</t>
+        </is>
+      </c>
+      <c r="D13" s="12" t="inlineStr">
+        <is>
+          <t>Estaciones de trabajo con alto nivel de estrés térmico.</t>
+        </is>
+      </c>
+      <c r="E13" s="41" t="inlineStr">
+        <is>
+          <t>Puestos con actividades administrativas</t>
+        </is>
+      </c>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K13" s="15">
+        <f>G13*I13</f>
+        <v/>
+      </c>
+      <c r="L13" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M13" s="11" t="inlineStr">
+        <is>
+          <t>Hidratación,  techos aislantes</t>
+        </is>
+      </c>
+      <c r="N13" s="33" t="inlineStr">
+        <is>
+          <t>Monitorear la temperatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="32" t="inlineStr">
+        <is>
+          <t>R117</t>
+        </is>
+      </c>
+      <c r="B14" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>Golpe o choque de calor y quemaduras de 1er y 2do grado.</t>
+        </is>
+      </c>
+      <c r="D14" s="12" t="inlineStr">
+        <is>
+          <t>Exposición prolongada a los rayos UV</t>
+        </is>
+      </c>
+      <c r="E14" s="41" t="inlineStr">
+        <is>
+          <t>Puestos con actividades operativas</t>
+        </is>
+      </c>
+      <c r="F14" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K14" s="15">
+        <f>G14*I14</f>
+        <v/>
+      </c>
+      <c r="L14" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M14" s="11" t="inlineStr">
+        <is>
+          <t>Bloqueador Solar y Uso de EPP</t>
+        </is>
+      </c>
+      <c r="N14" s="33" t="inlineStr">
+        <is>
+          <t>Señalización, pausas activas y uso de bloqueador solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="55.5" customHeight="1">
+      <c r="A15" s="32" t="inlineStr">
+        <is>
+          <t>R118</t>
+        </is>
+      </c>
+      <c r="B15" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>Deshidratación</t>
+        </is>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t>Exposición prolongada a los rayos UV</t>
+        </is>
+      </c>
+      <c r="E15" s="41" t="inlineStr">
+        <is>
+          <t>Puestos con actividades operativas</t>
+        </is>
+      </c>
+      <c r="F15" s="12" t="inlineStr">
+        <is>
+          <t>Pasó alguna vez</t>
+        </is>
+      </c>
+      <c r="G15" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K15" s="15">
+        <f>G15*I15</f>
+        <v/>
+      </c>
+      <c r="L15" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M15" s="11" t="inlineStr">
+        <is>
+          <t>Oasis o dispensadores de agua</t>
+        </is>
+      </c>
+      <c r="N15" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación sobre trabajo seguro, pausas activas y evaluación médica periódica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="55.5" customHeight="1">
+      <c r="A16" s="32" t="inlineStr">
+        <is>
+          <t>R119</t>
+        </is>
+      </c>
+      <c r="B16" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Lesiones a mediano o largo plazo hacia sentido auditivo</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruidos estridentes (Altos decibeles) por aterrizajes y despegues de aviones) </t>
+        </is>
+      </c>
+      <c r="E16" s="41" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F16" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I16" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K16" s="15">
+        <f>G16*I16</f>
+        <v/>
+      </c>
+      <c r="L16" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M16" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP</t>
+        </is>
+      </c>
+      <c r="N16" s="33" t="inlineStr">
+        <is>
+          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" s="32" t="inlineStr">
+        <is>
+          <t>R120</t>
+        </is>
+      </c>
+      <c r="B17" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>Uso de montacargas</t>
+        </is>
+      </c>
+      <c r="E17" s="41" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F17" s="12" t="inlineStr">
+        <is>
+          <t>Pasó alguna vez</t>
+        </is>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Lesión leve o sin impacto</t>
+        </is>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K17" s="15">
+        <f>G17*I17</f>
+        <v/>
+      </c>
+      <c r="L17" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M17" s="11" t="inlineStr">
+        <is>
+          <t>Uso de equipos de combustion a GLP y electricos</t>
+        </is>
+      </c>
+      <c r="N17" s="33" t="inlineStr">
+        <is>
+          <t>Renovación a medio plazo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="46.5" customHeight="1">
+      <c r="A18" s="32" t="inlineStr">
+        <is>
+          <t>R121</t>
+        </is>
+      </c>
+      <c r="B18" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fisicos </t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sobrepoblación de personas en áreas de trabajo reducidas o poco ventiladas </t>
+        </is>
+      </c>
+      <c r="E18" s="41" t="inlineStr">
+        <is>
+          <t>Puestos con actividades administrativas</t>
+        </is>
+      </c>
+      <c r="F18" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G18" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" s="12" t="inlineStr">
+        <is>
+          <t>Lesión leve o sin impacto</t>
+        </is>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K18" s="15">
+        <f>G18*I18</f>
+        <v/>
+      </c>
+      <c r="L18" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M18" s="11" t="inlineStr">
+        <is>
+          <t>Aires acondicionados</t>
+        </is>
+      </c>
+      <c r="N18" s="33" t="inlineStr">
+        <is>
+          <t>Creación de áreas mejor ventiladas, pausas activas o reeorganización de personal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1">
+      <c r="A19" s="32" t="inlineStr">
+        <is>
+          <t>R122</t>
+        </is>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Ergonomicos</t>
+        </is>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>Lumbalgía ocupacional</t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t>Posturas repetitivas, mala manipulación de cargas, etc)</t>
+        </is>
+      </c>
+      <c r="E19" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I19" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K19" s="15">
+        <f>G19*I19</f>
+        <v/>
+      </c>
+      <c r="L19" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M19" s="11" t="inlineStr">
+        <is>
+          <t>Sillas ejecutivas</t>
+        </is>
+      </c>
+      <c r="N19" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="39" customHeight="1">
+      <c r="A20" s="32" t="inlineStr">
+        <is>
+          <t>R123</t>
+        </is>
+      </c>
+      <c r="B20" s="19" t="inlineStr">
+        <is>
+          <t>Ergonomicos</t>
+        </is>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>Lesiones por condiciones ergonomicas (Sindrome tubo carpiano, Tendinitis, etc)</t>
+        </is>
+      </c>
+      <c r="D20" s="12" t="inlineStr">
+        <is>
+          <t>Uso constante de equipo de computo</t>
+        </is>
+      </c>
+      <c r="E20" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F20" s="12" t="inlineStr">
+        <is>
+          <t>Pasó alguna vez</t>
+        </is>
+      </c>
+      <c r="G20" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I20" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K20" s="15">
+        <f>G20*I20</f>
+        <v/>
+      </c>
+      <c r="L20" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M20" s="11" t="inlineStr">
+        <is>
+          <t>Capacitación</t>
+        </is>
+      </c>
+      <c r="N20" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación de condiciones ocupacionales y ergonómicas y uso de mause pad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30.75" customHeight="1">
+      <c r="A21" s="32" t="inlineStr">
+        <is>
+          <t>R124</t>
+        </is>
+      </c>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>Ergonomicos</t>
+        </is>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>Sindrome de texto (lesiones en columna)</t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>Uso constante de dispositivos móviles (HandHeld, teléfonos, tablets, entre otros)</t>
+        </is>
+      </c>
+      <c r="E21" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G21" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I21" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K21" s="15">
+        <f>G21*I21</f>
+        <v/>
+      </c>
+      <c r="L21" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M21" s="11" t="inlineStr">
+        <is>
+          <t>Capacitacion</t>
+        </is>
+      </c>
+      <c r="N21" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="51.75" customHeight="1">
+      <c r="A22" s="32" t="inlineStr">
+        <is>
+          <t>R125</t>
+        </is>
+      </c>
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>Ergonomicos</t>
+        </is>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>Polirradiculoneuropatías</t>
+        </is>
+      </c>
+      <c r="D22" s="12" t="inlineStr">
+        <is>
+          <t>Malas posturas, posturas forzadas y repetitivas</t>
+        </is>
+      </c>
+      <c r="E22" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F22" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I22" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K22" s="15">
+        <f>G22*I22</f>
+        <v/>
+      </c>
+      <c r="L22" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M22" s="11" t="inlineStr">
+        <is>
+          <t>Capacitacion</t>
+        </is>
+      </c>
+      <c r="N22" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="39.75" customHeight="1">
+      <c r="A23" s="32" t="inlineStr">
+        <is>
+          <t>R126</t>
+        </is>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>Biológicos</t>
+        </is>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>Enfermedades estacionales</t>
+        </is>
+      </c>
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contacto con agentes patologicos </t>
+        </is>
+      </c>
+      <c r="E23" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F23" s="12" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="G23" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I23" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K23" s="15">
+        <f>G23*I23</f>
+        <v/>
+      </c>
+      <c r="L23" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M23" s="11" t="inlineStr">
+        <is>
+          <t>Concientización de cuidados y vacunación</t>
+        </is>
+      </c>
+      <c r="N23" s="33" t="inlineStr">
+        <is>
+          <t>Vigilancia epidemiológica</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="36.75" customHeight="1">
+      <c r="A24" s="32" t="inlineStr">
+        <is>
+          <t>R127</t>
+        </is>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>Biológicos</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>Intoxicación</t>
+        </is>
+      </c>
+      <c r="D24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contacto con agentes patologicos </t>
+        </is>
+      </c>
+      <c r="E24" s="41" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G24" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I24" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K24" s="15">
+        <f>G24*I24</f>
+        <v/>
+      </c>
+      <c r="L24" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M24" s="11" t="inlineStr">
+        <is>
+          <t>Identificación y aislamiento de mercancías peligrosas</t>
+        </is>
+      </c>
+      <c r="N24" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="37.5" customHeight="1">
+      <c r="A25" s="32" t="inlineStr">
+        <is>
+          <t>R128</t>
+        </is>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>Biológicos</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>Enfermedades virales</t>
+        </is>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t>Contacto con agentes patologicos por manipulación de carga contaminada</t>
+        </is>
+      </c>
+      <c r="E25" s="41" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F25" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I25" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K25" s="15">
+        <f>G25*I25</f>
+        <v/>
+      </c>
+      <c r="L25" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M25" s="11" t="inlineStr">
+        <is>
+          <t>Identificación y aislamiento de mercancías peligrosas</t>
+        </is>
+      </c>
+      <c r="N25" s="33" t="inlineStr">
+        <is>
+          <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="39" customHeight="1">
+      <c r="A26" s="32" t="inlineStr">
+        <is>
+          <t>R129</t>
+        </is>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>Biológicos</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
         <is>
           <t>Alergias</t>
         </is>
       </c>
-      <c r="G204" t="n">
-        <v>0</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
+        <is>
+          <t>Picaduras de mosquitos, abejas, zacudos, entre otros</t>
+        </is>
+      </c>
+      <c r="E26" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F26" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G26" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I26" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K26" s="15">
+        <f>G26*I26</f>
+        <v/>
+      </c>
+      <c r="L26" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M26" s="11" t="inlineStr">
+        <is>
+          <t>Concientización de cuidados</t>
+        </is>
+      </c>
+      <c r="N26" s="33" t="inlineStr">
+        <is>
+          <t>Vigilancia epidemiológica</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="33" customHeight="1">
+      <c r="A27" s="32" t="inlineStr">
+        <is>
+          <t>R130</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psicósociales </t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>Acoso</t>
+        </is>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>Por parte de compañeros, jefes y/o supervisores</t>
+        </is>
+      </c>
+      <c r="E27" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F27" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G27" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="12" t="inlineStr">
+        <is>
+          <t>Lesión leve o sin impacto</t>
+        </is>
+      </c>
+      <c r="I27" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="22" t="inlineStr">
+        <is>
+          <t>Apropiado</t>
+        </is>
+      </c>
+      <c r="K27" s="15">
+        <f>G27*I27</f>
+        <v/>
+      </c>
+      <c r="L27" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M27" s="11" t="inlineStr">
+        <is>
+          <t>Reglamento de Etica y RIT</t>
+        </is>
+      </c>
+      <c r="N27" s="33" t="inlineStr">
+        <is>
+          <t>Canal de denuncias</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="34.5" customHeight="1">
+      <c r="A28" s="32" t="inlineStr">
+        <is>
+          <t>R131</t>
+        </is>
+      </c>
+      <c r="B28" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psicósociales </t>
+        </is>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>Hostigamiento</t>
+        </is>
+      </c>
+      <c r="D28" s="12" t="inlineStr">
+        <is>
+          <t>Por parte de compañeros, jefes y/o supervisores</t>
+        </is>
+      </c>
+      <c r="E28" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F28" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" s="12" t="inlineStr">
+        <is>
+          <t>Lesión leve o sin impacto</t>
+        </is>
+      </c>
+      <c r="I28" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" s="22" t="inlineStr">
+        <is>
+          <t>Apropiado</t>
+        </is>
+      </c>
+      <c r="K28" s="15">
+        <f>G28*I28</f>
+        <v/>
+      </c>
+      <c r="L28" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M28" s="11" t="inlineStr">
+        <is>
+          <t>Reglamento de Etica y RIT</t>
+        </is>
+      </c>
+      <c r="N28" s="33" t="inlineStr">
+        <is>
+          <t>Canal de denuncias</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="41.25" customHeight="1">
+      <c r="A29" s="32" t="inlineStr">
+        <is>
+          <t>R132</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psicósociales </t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>Estrés laboral</t>
+        </is>
+      </c>
+      <c r="D29" s="12" t="inlineStr">
+        <is>
+          <t>Carga laboral elevada</t>
+        </is>
+      </c>
+      <c r="E29" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F29" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I29" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K29" s="15">
+        <f>G29*I29</f>
+        <v/>
+      </c>
+      <c r="L29" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M29" s="11" t="inlineStr">
+        <is>
+          <t>Citas con psicológa</t>
+        </is>
+      </c>
+      <c r="N29" s="33" t="inlineStr">
+        <is>
+          <t>Por medio de Bienestar Laboral</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="34.5" customHeight="1">
+      <c r="A30" s="32" t="inlineStr">
+        <is>
+          <t>R133</t>
+        </is>
+      </c>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psicósociales </t>
+        </is>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>Depresión</t>
+        </is>
+      </c>
+      <c r="D30" s="12" t="inlineStr">
+        <is>
+          <t>Carga laboral elevada</t>
+        </is>
+      </c>
+      <c r="E30" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F30" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G30" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I30" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K30" s="15">
+        <f>G30*I30</f>
+        <v/>
+      </c>
+      <c r="L30" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M30" s="11" t="inlineStr">
+        <is>
+          <t>Citas con psicológa</t>
+        </is>
+      </c>
+      <c r="N30" s="33" t="inlineStr">
+        <is>
+          <t>Por medio de Bienestar Laboral</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="56.25" customHeight="1">
+      <c r="A31" s="32" t="inlineStr">
+        <is>
+          <t>R134</t>
+        </is>
+      </c>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psicósociales </t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>Enfermedades fisicas varias</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t>Turnos laborales extensos y en horarios nocturnos</t>
+        </is>
+      </c>
+      <c r="E31" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F31" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G31" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I31" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K31" s="15">
+        <f>G31*I31</f>
+        <v/>
+      </c>
+      <c r="L31" s="12" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M31" s="11" t="inlineStr">
+        <is>
+          <t>Citas con Dr de Combexim</t>
+        </is>
+      </c>
+      <c r="N31" s="33" t="inlineStr">
+        <is>
+          <t>Por medio de Bienestar Laboral</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="48" customHeight="1">
+      <c r="A32" s="32" t="inlineStr">
+        <is>
+          <t>R135</t>
+        </is>
+      </c>
+      <c r="B32" s="23" t="inlineStr">
+        <is>
+          <t>Eléctricos</t>
+        </is>
+      </c>
+      <c r="C32" s="24" t="inlineStr">
+        <is>
+          <t>Descargas eléctricas</t>
+        </is>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
+        <is>
+          <t>Uso de equipos eléctricos en malas condiciones</t>
+        </is>
+      </c>
+      <c r="E32" s="41" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F32" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G32" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="12" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I32" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K32" s="15">
+        <f>G32*I32</f>
+        <v/>
+      </c>
+      <c r="L32" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M32" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP y capacitación</t>
+        </is>
+      </c>
+      <c r="N32" s="33" t="inlineStr">
+        <is>
+          <t>Evaluar EPP y el corecto uso</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="55.5" customHeight="1">
+      <c r="A33" s="32" t="inlineStr">
+        <is>
+          <t>R136</t>
+        </is>
+      </c>
+      <c r="B33" s="23" t="inlineStr">
+        <is>
+          <t>Eléctricos</t>
+        </is>
+      </c>
+      <c r="C33" s="24" t="inlineStr">
+        <is>
+          <t>Electrucución</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>Uso de equipos eléctricos en malas condiciones y de manera inadecuada</t>
+        </is>
+      </c>
+      <c r="E33" s="41" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F33" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G33" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="12" t="inlineStr">
         <is>
           <t>Fatalidad (es)</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>Fatalidad (es) x Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Casi Accidente</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Alergias</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="I33" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K33" s="15">
+        <f>G33*I33</f>
+        <v/>
+      </c>
+      <c r="L33" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M33" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP y capacitación</t>
+        </is>
+      </c>
+      <c r="N33" s="33" t="inlineStr">
+        <is>
+          <t>Evaluar EPP y el corecto uso</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="54.75" customHeight="1">
+      <c r="A34" s="32" t="inlineStr">
+        <is>
+          <t>R137</t>
+        </is>
+      </c>
+      <c r="B34" s="23" t="inlineStr">
+        <is>
+          <t>Eléctricos</t>
+        </is>
+      </c>
+      <c r="C34" s="24" t="inlineStr">
+        <is>
+          <t>Quemaduras de 2do o 3er grado</t>
+        </is>
+      </c>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>Incendios (Cortocircuitos y contacto con materiales inflamables)</t>
+        </is>
+      </c>
+      <c r="E34" s="41" t="inlineStr">
+        <is>
+          <t>Puestos netamente Operativos</t>
+        </is>
+      </c>
+      <c r="F34" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G34" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I34" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J34" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K34" s="15">
+        <f>G34*I34</f>
+        <v/>
+      </c>
+      <c r="L34" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M34" s="11" t="inlineStr">
+        <is>
+          <t>Uso de EPP y capacitación</t>
+        </is>
+      </c>
+      <c r="N34" s="33" t="inlineStr">
+        <is>
+          <t>Evaluar EPP y el corecto uso</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="57" customHeight="1">
+      <c r="A35" s="32" t="inlineStr">
+        <is>
+          <t>R138</t>
+        </is>
+      </c>
+      <c r="B35" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturales/Locativos </t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Lesiones severas o fatalidades</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>Sismo (Área altamente sismíca)</t>
+        </is>
+      </c>
+      <c r="E35" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F35" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G35" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="12" t="inlineStr">
         <is>
           <t>Fatalidad (es)</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>Fatalidad (es) x Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="I35" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J35" s="14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="K35" s="15">
+        <f>G35*I35</f>
+        <v/>
+      </c>
+      <c r="L35" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M35" s="11" t="inlineStr">
+        <is>
+          <t>Simulacros de evacuación y señalización.</t>
+        </is>
+      </c>
+      <c r="N35" s="33" t="inlineStr">
+        <is>
+          <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="61.5" customHeight="1">
+      <c r="A36" s="32" t="inlineStr">
+        <is>
+          <t>R139</t>
+        </is>
+      </c>
+      <c r="B36" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturales/Locativos </t>
+        </is>
+      </c>
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>Lesiones severas o fatalidades</t>
+        </is>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
+        <is>
+          <t>Incendios forestales provenientes de factores humanos y naturales(rayos).</t>
+        </is>
+      </c>
+      <c r="E36" s="41" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F36" s="12" t="inlineStr">
+        <is>
+          <t>Podría pasar</t>
+        </is>
+      </c>
+      <c r="G36" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" s="12" t="inlineStr">
+        <is>
+          <t>Lesión incapacitante</t>
+        </is>
+      </c>
+      <c r="I36" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" s="16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K36" s="15">
+        <f>G36*I36</f>
+        <v/>
+      </c>
+      <c r="L36" s="12" t="inlineStr">
+        <is>
+          <t>Controles de Ingeniería</t>
+        </is>
+      </c>
+      <c r="M36" s="11" t="inlineStr">
+        <is>
+          <t>Simulacros de evacuación y señalización.</t>
+        </is>
+      </c>
+      <c r="N36" s="33" t="inlineStr">
+        <is>
+          <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A37" s="34" t="inlineStr">
+        <is>
+          <t>R140</t>
+        </is>
+      </c>
+      <c r="B37" s="35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturales/Locativos </t>
+        </is>
+      </c>
+      <c r="C37" s="36" t="inlineStr">
+        <is>
+          <t>Infecciones o irritación a vías respiratorias</t>
+        </is>
+      </c>
+      <c r="D37" s="36" t="inlineStr">
+        <is>
+          <t>Actividad volcánica (Ceniza)</t>
+        </is>
+      </c>
+      <c r="E37" s="42" t="inlineStr">
+        <is>
+          <t>Todos los puestos</t>
+        </is>
+      </c>
+      <c r="F37" s="36" t="inlineStr">
+        <is>
+          <t>Pasó alguna vez</t>
+        </is>
+      </c>
+      <c r="G37" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" s="36" t="inlineStr">
+        <is>
+          <t>Lesión Severa</t>
+        </is>
+      </c>
+      <c r="I37" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" s="37" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="K37" s="38">
+        <f>G37*I37</f>
+        <v/>
+      </c>
+      <c r="L37" s="36" t="inlineStr">
+        <is>
+          <t>Controles Administrativos</t>
+        </is>
+      </c>
+      <c r="M37" s="39" t="inlineStr">
+        <is>
+          <t>Uso de mascarillas</t>
+        </is>
+      </c>
+      <c r="N37" s="40" t="inlineStr">
+        <is>
+          <t>Capacitación</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="L2:L37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" scale="35" fitToHeight="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Capacitaciones</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Asistentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10477,6 +10477,61 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
     </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Casi Accidente</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Acoso</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Fatalidad (es)</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Fatalidad (es) x Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -2,30 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6630" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Incidentes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Riesgos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Capacitaciones" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Riesgos'!$B$1:$N$37</definedName>
-  </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,282 +29,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="24"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.1499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -322,133 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -811,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,64 +438,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="44" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Área</t>
         </is>
       </c>
-      <c r="D1" s="44" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Puesto</t>
         </is>
       </c>
-      <c r="E1" s="44" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="F1" s="44" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Causa</t>
         </is>
       </c>
-      <c r="G1" s="44" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Días_Perdidos</t>
         </is>
       </c>
-      <c r="H1" s="44" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Severidad</t>
         </is>
       </c>
-      <c r="I1" s="44" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Probabilidad</t>
         </is>
       </c>
-      <c r="J1" s="44" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Descripción</t>
         </is>
       </c>
-      <c r="K1" s="44" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Riesgo</t>
         </is>
       </c>
-      <c r="L1" s="44" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Hora del Evento</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo_valor</t>
         </is>
       </c>
     </row>
@@ -887,7 +510,7 @@
           <t>INC1000</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n">
+      <c r="B2" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -928,6 +551,7 @@
         <v>20</v>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -935,7 +559,7 @@
           <t>INC1001</t>
         </is>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="2" t="n">
         <v>45595</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -976,6 +600,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -983,7 +608,7 @@
           <t>INC1002</t>
         </is>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -1024,6 +649,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1031,7 +657,7 @@
           <t>INC1003</t>
         </is>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="2" t="n">
         <v>45837</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -1072,6 +698,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1079,7 +706,7 @@
           <t>INC1004</t>
         </is>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="2" t="n">
         <v>45872</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -1120,6 +747,7 @@
         <v>12</v>
       </c>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1127,7 +755,7 @@
           <t>INC1005</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="2" t="n">
         <v>45755</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -1168,6 +796,7 @@
         <v>20</v>
       </c>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1175,7 +804,7 @@
           <t>INC1006</t>
         </is>
       </c>
-      <c r="B8" s="46" t="n">
+      <c r="B8" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -1216,6 +845,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1223,7 +853,7 @@
           <t>INC1007</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n">
+      <c r="B9" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -1264,6 +894,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1271,7 +902,7 @@
           <t>INC1008</t>
         </is>
       </c>
-      <c r="B10" s="46" t="n">
+      <c r="B10" s="2" t="n">
         <v>45822</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -1312,6 +943,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1319,7 +951,7 @@
           <t>INC1009</t>
         </is>
       </c>
-      <c r="B11" s="46" t="n">
+      <c r="B11" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -1360,6 +992,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1367,7 +1000,7 @@
           <t>INC1010</t>
         </is>
       </c>
-      <c r="B12" s="46" t="n">
+      <c r="B12" s="2" t="n">
         <v>45613</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -1408,6 +1041,7 @@
         <v>6</v>
       </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1415,7 +1049,7 @@
           <t>INC1011</t>
         </is>
       </c>
-      <c r="B13" s="46" t="n">
+      <c r="B13" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1456,6 +1090,7 @@
         <v>4</v>
       </c>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1463,7 +1098,7 @@
           <t>INC1012</t>
         </is>
       </c>
-      <c r="B14" s="46" t="n">
+      <c r="B14" s="2" t="n">
         <v>45844</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1504,6 +1139,7 @@
         <v>8</v>
       </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1511,7 +1147,7 @@
           <t>INC1013</t>
         </is>
       </c>
-      <c r="B15" s="46" t="n">
+      <c r="B15" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1552,6 +1188,7 @@
         <v>20</v>
       </c>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1559,7 +1196,7 @@
           <t>INC1014</t>
         </is>
       </c>
-      <c r="B16" s="46" t="n">
+      <c r="B16" s="2" t="n">
         <v>45792</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1600,6 +1237,7 @@
         <v>5</v>
       </c>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1607,7 +1245,7 @@
           <t>INC1015</t>
         </is>
       </c>
-      <c r="B17" s="46" t="n">
+      <c r="B17" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1648,6 +1286,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1655,7 +1294,7 @@
           <t>INC1016</t>
         </is>
       </c>
-      <c r="B18" s="46" t="n">
+      <c r="B18" s="2" t="n">
         <v>45794</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1696,6 +1335,7 @@
         <v>25</v>
       </c>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1703,7 +1343,7 @@
           <t>INC1017</t>
         </is>
       </c>
-      <c r="B19" s="46" t="n">
+      <c r="B19" s="2" t="n">
         <v>45635</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1744,6 +1384,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1751,7 +1392,7 @@
           <t>INC1018</t>
         </is>
       </c>
-      <c r="B20" s="46" t="n">
+      <c r="B20" s="2" t="n">
         <v>45686</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1792,6 +1433,7 @@
         <v>4</v>
       </c>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1799,7 +1441,7 @@
           <t>INC1019</t>
         </is>
       </c>
-      <c r="B21" s="46" t="n">
+      <c r="B21" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1840,6 +1482,7 @@
         <v>3</v>
       </c>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1847,7 +1490,7 @@
           <t>INC1020</t>
         </is>
       </c>
-      <c r="B22" s="46" t="n">
+      <c r="B22" s="2" t="n">
         <v>45650</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1888,6 +1531,7 @@
         <v>4</v>
       </c>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1895,7 +1539,7 @@
           <t>INC1021</t>
         </is>
       </c>
-      <c r="B23" s="46" t="n">
+      <c r="B23" s="2" t="n">
         <v>45752</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1936,6 +1580,7 @@
         <v>20</v>
       </c>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1943,7 +1588,7 @@
           <t>INC1022</t>
         </is>
       </c>
-      <c r="B24" s="46" t="n">
+      <c r="B24" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1984,6 +1629,7 @@
         <v>9</v>
       </c>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1991,7 +1637,7 @@
           <t>INC1023</t>
         </is>
       </c>
-      <c r="B25" s="46" t="n">
+      <c r="B25" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -2032,6 +1678,7 @@
         <v>6</v>
       </c>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2039,7 +1686,7 @@
           <t>INC1024</t>
         </is>
       </c>
-      <c r="B26" s="46" t="n">
+      <c r="B26" s="2" t="n">
         <v>45630</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -2080,6 +1727,7 @@
         <v>5</v>
       </c>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2087,7 +1735,7 @@
           <t>INC1025</t>
         </is>
       </c>
-      <c r="B27" s="46" t="n">
+      <c r="B27" s="2" t="n">
         <v>45922</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -2128,6 +1776,7 @@
         <v>10</v>
       </c>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2135,7 +1784,7 @@
           <t>INC1026</t>
         </is>
       </c>
-      <c r="B28" s="46" t="n">
+      <c r="B28" s="2" t="n">
         <v>45691</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -2176,6 +1825,7 @@
         <v>20</v>
       </c>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2183,7 +1833,7 @@
           <t>INC1027</t>
         </is>
       </c>
-      <c r="B29" s="46" t="n">
+      <c r="B29" s="2" t="n">
         <v>45708</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -2224,6 +1874,7 @@
         <v>6</v>
       </c>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2231,7 +1882,7 @@
           <t>INC1028</t>
         </is>
       </c>
-      <c r="B30" s="46" t="n">
+      <c r="B30" s="2" t="n">
         <v>45599</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -2272,6 +1923,7 @@
         <v>20</v>
       </c>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2279,7 +1931,7 @@
           <t>INC1029</t>
         </is>
       </c>
-      <c r="B31" s="46" t="n">
+      <c r="B31" s="2" t="n">
         <v>45895</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -2320,6 +1972,7 @@
         <v>9</v>
       </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2327,7 +1980,7 @@
           <t>INC1030</t>
         </is>
       </c>
-      <c r="B32" s="46" t="n">
+      <c r="B32" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -2368,6 +2021,7 @@
         <v>5</v>
       </c>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2375,7 +2029,7 @@
           <t>INC1031</t>
         </is>
       </c>
-      <c r="B33" s="46" t="n">
+      <c r="B33" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -2416,6 +2070,7 @@
         <v>2</v>
       </c>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2423,7 +2078,7 @@
           <t>INC1032</t>
         </is>
       </c>
-      <c r="B34" s="46" t="n">
+      <c r="B34" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -2464,6 +2119,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2471,7 +2127,7 @@
           <t>INC1033</t>
         </is>
       </c>
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -2512,6 +2168,7 @@
         <v>8</v>
       </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2519,7 +2176,7 @@
           <t>INC1034</t>
         </is>
       </c>
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -2560,6 +2217,7 @@
         <v>16</v>
       </c>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2567,7 +2225,7 @@
           <t>INC1035</t>
         </is>
       </c>
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="2" t="n">
         <v>45769</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -2608,6 +2266,7 @@
         <v>9</v>
       </c>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2615,7 +2274,7 @@
           <t>INC1036</t>
         </is>
       </c>
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="2" t="n">
         <v>45893</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -2656,6 +2315,7 @@
         <v>16</v>
       </c>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2663,7 +2323,7 @@
           <t>INC1037</t>
         </is>
       </c>
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="2" t="n">
         <v>45580</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2704,6 +2364,7 @@
         <v>5</v>
       </c>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2711,7 +2372,7 @@
           <t>INC1038</t>
         </is>
       </c>
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2752,6 +2413,7 @@
         <v>5</v>
       </c>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2759,7 +2421,7 @@
           <t>INC1039</t>
         </is>
       </c>
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="2" t="n">
         <v>45700</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2800,6 +2462,7 @@
         <v>15</v>
       </c>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2807,7 +2470,7 @@
           <t>INC1040</t>
         </is>
       </c>
-      <c r="B42" s="46" t="n">
+      <c r="B42" s="2" t="n">
         <v>45624</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2848,6 +2511,7 @@
         <v>25</v>
       </c>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2855,7 +2519,7 @@
           <t>INC1041</t>
         </is>
       </c>
-      <c r="B43" s="46" t="n">
+      <c r="B43" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2896,6 +2560,7 @@
         <v>6</v>
       </c>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2903,7 +2568,7 @@
           <t>INC1042</t>
         </is>
       </c>
-      <c r="B44" s="46" t="n">
+      <c r="B44" s="2" t="n">
         <v>45637</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2944,6 +2609,7 @@
         <v>6</v>
       </c>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2951,7 +2617,7 @@
           <t>INC1043</t>
         </is>
       </c>
-      <c r="B45" s="46" t="n">
+      <c r="B45" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2992,6 +2658,7 @@
         <v>8</v>
       </c>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2999,7 +2666,7 @@
           <t>INC1044</t>
         </is>
       </c>
-      <c r="B46" s="46" t="n">
+      <c r="B46" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -3040,6 +2707,7 @@
         <v>3</v>
       </c>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3047,7 +2715,7 @@
           <t>INC1045</t>
         </is>
       </c>
-      <c r="B47" s="46" t="n">
+      <c r="B47" s="2" t="n">
         <v>45615</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -3088,6 +2756,7 @@
         <v>10</v>
       </c>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3095,7 +2764,7 @@
           <t>INC1046</t>
         </is>
       </c>
-      <c r="B48" s="46" t="n">
+      <c r="B48" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -3136,6 +2805,7 @@
         <v>4</v>
       </c>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3143,7 +2813,7 @@
           <t>INC1047</t>
         </is>
       </c>
-      <c r="B49" s="46" t="n">
+      <c r="B49" s="2" t="n">
         <v>45670</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -3184,6 +2854,7 @@
         <v>5</v>
       </c>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3191,7 +2862,7 @@
           <t>INC1048</t>
         </is>
       </c>
-      <c r="B50" s="46" t="n">
+      <c r="B50" s="2" t="n">
         <v>45855</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -3232,6 +2903,7 @@
         <v>8</v>
       </c>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3239,7 +2911,7 @@
           <t>INC1049</t>
         </is>
       </c>
-      <c r="B51" s="46" t="n">
+      <c r="B51" s="2" t="n">
         <v>45628</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -3280,6 +2952,7 @@
         <v>6</v>
       </c>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3287,7 +2960,7 @@
           <t>INC1050</t>
         </is>
       </c>
-      <c r="B52" s="46" t="n">
+      <c r="B52" s="2" t="n">
         <v>45930</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -3328,6 +3001,7 @@
         <v>15</v>
       </c>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3335,7 +3009,7 @@
           <t>INC1051</t>
         </is>
       </c>
-      <c r="B53" s="46" t="n">
+      <c r="B53" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -3376,6 +3050,7 @@
         <v>20</v>
       </c>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3383,7 +3058,7 @@
           <t>INC1052</t>
         </is>
       </c>
-      <c r="B54" s="46" t="n">
+      <c r="B54" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -3424,6 +3099,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3431,7 +3107,7 @@
           <t>INC1053</t>
         </is>
       </c>
-      <c r="B55" s="46" t="n">
+      <c r="B55" s="2" t="n">
         <v>45598</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -3472,6 +3148,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3479,7 +3156,7 @@
           <t>INC1054</t>
         </is>
       </c>
-      <c r="B56" s="46" t="n">
+      <c r="B56" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -3520,6 +3197,7 @@
         <v>12</v>
       </c>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3527,7 +3205,7 @@
           <t>INC1055</t>
         </is>
       </c>
-      <c r="B57" s="46" t="n">
+      <c r="B57" s="2" t="n">
         <v>45604</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -3568,6 +3246,7 @@
         <v>16</v>
       </c>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3575,7 +3254,7 @@
           <t>INC1056</t>
         </is>
       </c>
-      <c r="B58" s="46" t="n">
+      <c r="B58" s="2" t="n">
         <v>45852</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -3616,6 +3295,7 @@
         <v>8</v>
       </c>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3623,7 +3303,7 @@
           <t>INC1057</t>
         </is>
       </c>
-      <c r="B59" s="46" t="n">
+      <c r="B59" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -3664,6 +3344,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3671,7 +3352,7 @@
           <t>INC1058</t>
         </is>
       </c>
-      <c r="B60" s="46" t="n">
+      <c r="B60" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -3712,6 +3393,7 @@
         <v>5</v>
       </c>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3719,7 +3401,7 @@
           <t>INC1059</t>
         </is>
       </c>
-      <c r="B61" s="46" t="n">
+      <c r="B61" s="2" t="n">
         <v>45738</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -3760,6 +3442,7 @@
         <v>12</v>
       </c>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3767,7 +3450,7 @@
           <t>INC1060</t>
         </is>
       </c>
-      <c r="B62" s="46" t="n">
+      <c r="B62" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -3808,6 +3491,7 @@
         <v>10</v>
       </c>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3815,7 +3499,7 @@
           <t>INC1061</t>
         </is>
       </c>
-      <c r="B63" s="46" t="n">
+      <c r="B63" s="2" t="n">
         <v>45894</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -3856,6 +3540,7 @@
         <v>15</v>
       </c>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3863,7 +3548,7 @@
           <t>INC1062</t>
         </is>
       </c>
-      <c r="B64" s="46" t="n">
+      <c r="B64" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3904,6 +3589,7 @@
         <v>4</v>
       </c>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3911,7 +3597,7 @@
           <t>INC1063</t>
         </is>
       </c>
-      <c r="B65" s="46" t="n">
+      <c r="B65" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3952,6 +3638,7 @@
         <v>6</v>
       </c>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3959,7 +3646,7 @@
           <t>INC1064</t>
         </is>
       </c>
-      <c r="B66" s="46" t="n">
+      <c r="B66" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -4000,6 +3687,7 @@
         <v>5</v>
       </c>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4007,7 +3695,7 @@
           <t>INC1065</t>
         </is>
       </c>
-      <c r="B67" s="46" t="n">
+      <c r="B67" s="2" t="n">
         <v>45838</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -4048,6 +3736,7 @@
         <v>3</v>
       </c>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4055,7 +3744,7 @@
           <t>INC1066</t>
         </is>
       </c>
-      <c r="B68" s="46" t="n">
+      <c r="B68" s="2" t="n">
         <v>45684</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -4096,6 +3785,7 @@
         <v>15</v>
       </c>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4103,7 +3793,7 @@
           <t>INC1067</t>
         </is>
       </c>
-      <c r="B69" s="46" t="n">
+      <c r="B69" s="2" t="n">
         <v>45634</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -4144,6 +3834,7 @@
         <v>10</v>
       </c>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4151,7 +3842,7 @@
           <t>INC1068</t>
         </is>
       </c>
-      <c r="B70" s="46" t="n">
+      <c r="B70" s="2" t="n">
         <v>45753</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -4192,6 +3883,7 @@
         <v>10</v>
       </c>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4199,7 +3891,7 @@
           <t>INC1069</t>
         </is>
       </c>
-      <c r="B71" s="46" t="n">
+      <c r="B71" s="2" t="n">
         <v>45726</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -4240,6 +3932,7 @@
         <v>3</v>
       </c>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4247,7 +3940,7 @@
           <t>INC1070</t>
         </is>
       </c>
-      <c r="B72" s="46" t="n">
+      <c r="B72" s="2" t="n">
         <v>45900</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -4288,6 +3981,7 @@
         <v>5</v>
       </c>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4295,7 +3989,7 @@
           <t>INC1071</t>
         </is>
       </c>
-      <c r="B73" s="46" t="n">
+      <c r="B73" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -4336,6 +4030,7 @@
         <v>4</v>
       </c>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4343,7 +4038,7 @@
           <t>INC1072</t>
         </is>
       </c>
-      <c r="B74" s="46" t="n">
+      <c r="B74" s="2" t="n">
         <v>45742</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -4384,6 +4079,7 @@
         <v>5</v>
       </c>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4391,7 +4087,7 @@
           <t>INC1073</t>
         </is>
       </c>
-      <c r="B75" s="46" t="n">
+      <c r="B75" s="2" t="n">
         <v>45674</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -4432,6 +4128,7 @@
         <v>8</v>
       </c>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4439,7 +4136,7 @@
           <t>INC1074</t>
         </is>
       </c>
-      <c r="B76" s="46" t="n">
+      <c r="B76" s="2" t="n">
         <v>45593</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -4480,6 +4177,7 @@
         <v>3</v>
       </c>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4487,7 +4185,7 @@
           <t>INC1075</t>
         </is>
       </c>
-      <c r="B77" s="46" t="n">
+      <c r="B77" s="2" t="n">
         <v>45640</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -4528,6 +4226,7 @@
         <v>3</v>
       </c>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4535,7 +4234,7 @@
           <t>INC1076</t>
         </is>
       </c>
-      <c r="B78" s="46" t="n">
+      <c r="B78" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -4576,6 +4275,7 @@
         <v>9</v>
       </c>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4583,7 +4283,7 @@
           <t>INC1077</t>
         </is>
       </c>
-      <c r="B79" s="46" t="n">
+      <c r="B79" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -4624,6 +4324,7 @@
         <v>3</v>
       </c>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4631,7 +4332,7 @@
           <t>INC1078</t>
         </is>
       </c>
-      <c r="B80" s="46" t="n">
+      <c r="B80" s="2" t="n">
         <v>45692</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -4672,6 +4373,7 @@
         <v>4</v>
       </c>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4679,7 +4381,7 @@
           <t>INC1079</t>
         </is>
       </c>
-      <c r="B81" s="46" t="n">
+      <c r="B81" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -4720,6 +4422,7 @@
         <v>20</v>
       </c>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4727,7 +4430,7 @@
           <t>INC1080</t>
         </is>
       </c>
-      <c r="B82" s="46" t="n">
+      <c r="B82" s="2" t="n">
         <v>45648</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -4768,6 +4471,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4775,7 +4479,7 @@
           <t>INC1081</t>
         </is>
       </c>
-      <c r="B83" s="46" t="n">
+      <c r="B83" s="2" t="n">
         <v>45731</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -4816,6 +4520,7 @@
         <v>12</v>
       </c>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4823,7 +4528,7 @@
           <t>INC1082</t>
         </is>
       </c>
-      <c r="B84" s="46" t="n">
+      <c r="B84" s="2" t="n">
         <v>45736</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -4864,6 +4569,7 @@
         <v>4</v>
       </c>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4871,7 +4577,7 @@
           <t>INC1083</t>
         </is>
       </c>
-      <c r="B85" s="46" t="n">
+      <c r="B85" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -4912,6 +4618,7 @@
         <v>2</v>
       </c>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4919,7 +4626,7 @@
           <t>INC1084</t>
         </is>
       </c>
-      <c r="B86" s="46" t="n">
+      <c r="B86" s="2" t="n">
         <v>45606</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -4960,6 +4667,7 @@
         <v>8</v>
       </c>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4967,7 +4675,7 @@
           <t>INC1085</t>
         </is>
       </c>
-      <c r="B87" s="46" t="n">
+      <c r="B87" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -5008,6 +4716,7 @@
         <v>4</v>
       </c>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5015,7 +4724,7 @@
           <t>INC1086</t>
         </is>
       </c>
-      <c r="B88" s="46" t="n">
+      <c r="B88" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -5056,6 +4765,7 @@
         <v>4</v>
       </c>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5063,7 +4773,7 @@
           <t>INC1087</t>
         </is>
       </c>
-      <c r="B89" s="46" t="n">
+      <c r="B89" s="2" t="n">
         <v>45727</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -5104,6 +4814,7 @@
         <v>1</v>
       </c>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5111,7 +4822,7 @@
           <t>INC1088</t>
         </is>
       </c>
-      <c r="B90" s="46" t="n">
+      <c r="B90" s="2" t="n">
         <v>45692</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -5152,6 +4863,7 @@
         <v>10</v>
       </c>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5159,7 +4871,7 @@
           <t>INC1089</t>
         </is>
       </c>
-      <c r="B91" s="46" t="n">
+      <c r="B91" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -5200,6 +4912,7 @@
         <v>3</v>
       </c>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5207,7 +4920,7 @@
           <t>INC1090</t>
         </is>
       </c>
-      <c r="B92" s="46" t="n">
+      <c r="B92" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -5248,6 +4961,7 @@
         <v>3</v>
       </c>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5255,7 +4969,7 @@
           <t>INC1091</t>
         </is>
       </c>
-      <c r="B93" s="46" t="n">
+      <c r="B93" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -5296,6 +5010,7 @@
         <v>2</v>
       </c>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5303,7 +5018,7 @@
           <t>INC1092</t>
         </is>
       </c>
-      <c r="B94" s="46" t="n">
+      <c r="B94" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -5344,6 +5059,7 @@
         <v>20</v>
       </c>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5351,7 +5067,7 @@
           <t>INC1093</t>
         </is>
       </c>
-      <c r="B95" s="46" t="n">
+      <c r="B95" s="2" t="n">
         <v>45643</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -5392,6 +5108,7 @@
         <v>3</v>
       </c>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5399,7 +5116,7 @@
           <t>INC1094</t>
         </is>
       </c>
-      <c r="B96" s="46" t="n">
+      <c r="B96" s="2" t="n">
         <v>45879</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -5440,6 +5157,7 @@
         <v>25</v>
       </c>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5447,7 +5165,7 @@
           <t>INC1095</t>
         </is>
       </c>
-      <c r="B97" s="46" t="n">
+      <c r="B97" s="2" t="n">
         <v>45599</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -5488,6 +5206,7 @@
         <v>8</v>
       </c>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5495,7 +5214,7 @@
           <t>INC1096</t>
         </is>
       </c>
-      <c r="B98" s="46" t="n">
+      <c r="B98" s="2" t="n">
         <v>45617</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -5536,6 +5255,7 @@
         <v>4</v>
       </c>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5543,7 +5263,7 @@
           <t>INC1097</t>
         </is>
       </c>
-      <c r="B99" s="46" t="n">
+      <c r="B99" s="2" t="n">
         <v>45935</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -5584,6 +5304,7 @@
         <v>10</v>
       </c>
       <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5591,7 +5312,7 @@
           <t>INC1098</t>
         </is>
       </c>
-      <c r="B100" s="46" t="n">
+      <c r="B100" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -5632,6 +5353,7 @@
         <v>8</v>
       </c>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5639,7 +5361,7 @@
           <t>INC1099</t>
         </is>
       </c>
-      <c r="B101" s="46" t="n">
+      <c r="B101" s="2" t="n">
         <v>45815</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -5680,6 +5402,7 @@
         <v>10</v>
       </c>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5687,7 +5410,7 @@
           <t>INC1100</t>
         </is>
       </c>
-      <c r="B102" s="46" t="n">
+      <c r="B102" s="2" t="n">
         <v>45808</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -5728,6 +5451,7 @@
         <v>8</v>
       </c>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5735,7 +5459,7 @@
           <t>INC1101</t>
         </is>
       </c>
-      <c r="B103" s="46" t="n">
+      <c r="B103" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -5776,6 +5500,7 @@
         <v>10</v>
       </c>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5783,7 +5508,7 @@
           <t>INC1102</t>
         </is>
       </c>
-      <c r="B104" s="46" t="n">
+      <c r="B104" s="2" t="n">
         <v>45805</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -5824,6 +5549,7 @@
         <v>10</v>
       </c>
       <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5831,7 +5557,7 @@
           <t>INC1103</t>
         </is>
       </c>
-      <c r="B105" s="46" t="n">
+      <c r="B105" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -5872,6 +5598,7 @@
         <v>4</v>
       </c>
       <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5879,7 +5606,7 @@
           <t>INC1104</t>
         </is>
       </c>
-      <c r="B106" s="46" t="n">
+      <c r="B106" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -5920,6 +5647,7 @@
         <v>2</v>
       </c>
       <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5927,7 +5655,7 @@
           <t>INC1105</t>
         </is>
       </c>
-      <c r="B107" s="46" t="n">
+      <c r="B107" s="2" t="n">
         <v>45655</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -5968,6 +5696,7 @@
         <v>15</v>
       </c>
       <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5975,7 +5704,7 @@
           <t>INC1106</t>
         </is>
       </c>
-      <c r="B108" s="46" t="n">
+      <c r="B108" s="2" t="n">
         <v>45683</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -6016,6 +5745,7 @@
         <v>25</v>
       </c>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6023,7 +5753,7 @@
           <t>INC1107</t>
         </is>
       </c>
-      <c r="B109" s="46" t="n">
+      <c r="B109" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -6064,6 +5794,7 @@
         <v>9</v>
       </c>
       <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6071,7 +5802,7 @@
           <t>INC1108</t>
         </is>
       </c>
-      <c r="B110" s="46" t="n">
+      <c r="B110" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -6112,6 +5843,7 @@
         <v>6</v>
       </c>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6119,7 +5851,7 @@
           <t>INC1109</t>
         </is>
       </c>
-      <c r="B111" s="46" t="n">
+      <c r="B111" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -6160,6 +5892,7 @@
         <v>3</v>
       </c>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6167,7 +5900,7 @@
           <t>INC1110</t>
         </is>
       </c>
-      <c r="B112" s="46" t="n">
+      <c r="B112" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -6208,6 +5941,7 @@
         <v>2</v>
       </c>
       <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6215,7 +5949,7 @@
           <t>INC1111</t>
         </is>
       </c>
-      <c r="B113" s="46" t="n">
+      <c r="B113" s="2" t="n">
         <v>45743</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -6256,6 +5990,7 @@
         <v>3</v>
       </c>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6263,7 +5998,7 @@
           <t>INC1112</t>
         </is>
       </c>
-      <c r="B114" s="46" t="n">
+      <c r="B114" s="2" t="n">
         <v>45616</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -6304,6 +6039,7 @@
         <v>10</v>
       </c>
       <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6311,7 +6047,7 @@
           <t>INC1113</t>
         </is>
       </c>
-      <c r="B115" s="46" t="n">
+      <c r="B115" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -6352,6 +6088,7 @@
         <v>20</v>
       </c>
       <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6359,7 +6096,7 @@
           <t>INC1114</t>
         </is>
       </c>
-      <c r="B116" s="46" t="n">
+      <c r="B116" s="2" t="n">
         <v>45911</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -6400,6 +6137,7 @@
         <v>2</v>
       </c>
       <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6407,7 +6145,7 @@
           <t>INC1115</t>
         </is>
       </c>
-      <c r="B117" s="46" t="n">
+      <c r="B117" s="2" t="n">
         <v>45896</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -6448,6 +6186,7 @@
         <v>12</v>
       </c>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6455,7 +6194,7 @@
           <t>INC1116</t>
         </is>
       </c>
-      <c r="B118" s="46" t="n">
+      <c r="B118" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -6496,6 +6235,7 @@
         <v>16</v>
       </c>
       <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6503,7 +6243,7 @@
           <t>INC1117</t>
         </is>
       </c>
-      <c r="B119" s="46" t="n">
+      <c r="B119" s="2" t="n">
         <v>45728</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -6544,6 +6284,7 @@
         <v>3</v>
       </c>
       <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6551,7 +6292,7 @@
           <t>INC1118</t>
         </is>
       </c>
-      <c r="B120" s="46" t="n">
+      <c r="B120" s="2" t="n">
         <v>45651</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -6592,6 +6333,7 @@
         <v>9</v>
       </c>
       <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6599,7 +6341,7 @@
           <t>INC1119</t>
         </is>
       </c>
-      <c r="B121" s="46" t="n">
+      <c r="B121" s="2" t="n">
         <v>45845</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -6640,6 +6382,7 @@
         <v>12</v>
       </c>
       <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6647,7 +6390,7 @@
           <t>INC1120</t>
         </is>
       </c>
-      <c r="B122" s="46" t="n">
+      <c r="B122" s="2" t="n">
         <v>45772</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -6688,6 +6431,7 @@
         <v>4</v>
       </c>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6695,7 +6439,7 @@
           <t>INC1121</t>
         </is>
       </c>
-      <c r="B123" s="46" t="n">
+      <c r="B123" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -6736,6 +6480,7 @@
         <v>10</v>
       </c>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6743,7 +6488,7 @@
           <t>INC1122</t>
         </is>
       </c>
-      <c r="B124" s="46" t="n">
+      <c r="B124" s="2" t="n">
         <v>45730</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -6784,6 +6529,7 @@
         <v>6</v>
       </c>
       <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6791,7 +6537,7 @@
           <t>INC1123</t>
         </is>
       </c>
-      <c r="B125" s="46" t="n">
+      <c r="B125" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -6832,6 +6578,7 @@
         <v>15</v>
       </c>
       <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6839,7 +6586,7 @@
           <t>INC1124</t>
         </is>
       </c>
-      <c r="B126" s="46" t="n">
+      <c r="B126" s="2" t="n">
         <v>45717</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -6880,6 +6627,7 @@
         <v>1</v>
       </c>
       <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6887,7 +6635,7 @@
           <t>INC1125</t>
         </is>
       </c>
-      <c r="B127" s="46" t="n">
+      <c r="B127" s="2" t="n">
         <v>45843</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -6928,6 +6676,7 @@
         <v>20</v>
       </c>
       <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6935,7 +6684,7 @@
           <t>INC1126</t>
         </is>
       </c>
-      <c r="B128" s="46" t="n">
+      <c r="B128" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -6976,6 +6725,7 @@
         <v>4</v>
       </c>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6983,7 +6733,7 @@
           <t>INC1127</t>
         </is>
       </c>
-      <c r="B129" s="46" t="n">
+      <c r="B129" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -7024,6 +6774,7 @@
         <v>12</v>
       </c>
       <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7031,7 +6782,7 @@
           <t>INC1128</t>
         </is>
       </c>
-      <c r="B130" s="46" t="n">
+      <c r="B130" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -7072,6 +6823,7 @@
         <v>6</v>
       </c>
       <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7079,7 +6831,7 @@
           <t>INC1129</t>
         </is>
       </c>
-      <c r="B131" s="46" t="n">
+      <c r="B131" s="2" t="n">
         <v>45726</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -7120,6 +6872,7 @@
         <v>16</v>
       </c>
       <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7127,7 +6880,7 @@
           <t>INC1130</t>
         </is>
       </c>
-      <c r="B132" s="46" t="n">
+      <c r="B132" s="2" t="n">
         <v>45689</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -7168,6 +6921,7 @@
         <v>20</v>
       </c>
       <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7175,7 +6929,7 @@
           <t>INC1131</t>
         </is>
       </c>
-      <c r="B133" s="46" t="n">
+      <c r="B133" s="2" t="n">
         <v>45585</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -7216,6 +6970,7 @@
         <v>15</v>
       </c>
       <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7223,7 +6978,7 @@
           <t>INC1132</t>
         </is>
       </c>
-      <c r="B134" s="46" t="n">
+      <c r="B134" s="2" t="n">
         <v>45661</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -7264,6 +7019,7 @@
         <v>5</v>
       </c>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7271,7 +7027,7 @@
           <t>INC1133</t>
         </is>
       </c>
-      <c r="B135" s="46" t="n">
+      <c r="B135" s="2" t="n">
         <v>45737</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -7312,6 +7068,7 @@
         <v>10</v>
       </c>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7319,7 +7076,7 @@
           <t>INC1134</t>
         </is>
       </c>
-      <c r="B136" s="46" t="n">
+      <c r="B136" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -7360,6 +7117,7 @@
         <v>3</v>
       </c>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7367,7 +7125,7 @@
           <t>INC1135</t>
         </is>
       </c>
-      <c r="B137" s="46" t="n">
+      <c r="B137" s="2" t="n">
         <v>45598</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -7408,6 +7166,7 @@
         <v>6</v>
       </c>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7415,7 +7174,7 @@
           <t>INC1136</t>
         </is>
       </c>
-      <c r="B138" s="46" t="n">
+      <c r="B138" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -7456,6 +7215,7 @@
         <v>6</v>
       </c>
       <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7463,7 +7223,7 @@
           <t>INC1137</t>
         </is>
       </c>
-      <c r="B139" s="46" t="n">
+      <c r="B139" s="2" t="n">
         <v>45765</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -7504,6 +7264,7 @@
         <v>8</v>
       </c>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7511,7 +7272,7 @@
           <t>INC1138</t>
         </is>
       </c>
-      <c r="B140" s="46" t="n">
+      <c r="B140" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -7552,6 +7313,7 @@
         <v>15</v>
       </c>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7559,7 +7321,7 @@
           <t>INC1139</t>
         </is>
       </c>
-      <c r="B141" s="46" t="n">
+      <c r="B141" s="2" t="n">
         <v>45592</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -7600,6 +7362,7 @@
         <v>25</v>
       </c>
       <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7607,7 +7370,7 @@
           <t>INC1140</t>
         </is>
       </c>
-      <c r="B142" s="46" t="n">
+      <c r="B142" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -7648,6 +7411,7 @@
         <v>10</v>
       </c>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7655,7 +7419,7 @@
           <t>INC1141</t>
         </is>
       </c>
-      <c r="B143" s="46" t="n">
+      <c r="B143" s="2" t="n">
         <v>45703</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -7696,6 +7460,7 @@
         <v>12</v>
       </c>
       <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7703,7 +7468,7 @@
           <t>INC1142</t>
         </is>
       </c>
-      <c r="B144" s="46" t="n">
+      <c r="B144" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -7744,6 +7509,7 @@
         <v>8</v>
       </c>
       <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7751,7 +7517,7 @@
           <t>INC1143</t>
         </is>
       </c>
-      <c r="B145" s="46" t="n">
+      <c r="B145" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -7792,6 +7558,7 @@
         <v>10</v>
       </c>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7799,7 +7566,7 @@
           <t>INC1144</t>
         </is>
       </c>
-      <c r="B146" s="46" t="n">
+      <c r="B146" s="2" t="n">
         <v>45722</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -7840,6 +7607,7 @@
         <v>10</v>
       </c>
       <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7847,7 +7615,7 @@
           <t>INC1145</t>
         </is>
       </c>
-      <c r="B147" s="46" t="n">
+      <c r="B147" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -7888,6 +7656,7 @@
         <v>12</v>
       </c>
       <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7895,7 +7664,7 @@
           <t>INC1146</t>
         </is>
       </c>
-      <c r="B148" s="46" t="n">
+      <c r="B148" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -7936,6 +7705,7 @@
         <v>10</v>
       </c>
       <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7943,7 +7713,7 @@
           <t>INC1147</t>
         </is>
       </c>
-      <c r="B149" s="46" t="n">
+      <c r="B149" s="2" t="n">
         <v>45801</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -7984,6 +7754,7 @@
         <v>5</v>
       </c>
       <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7991,7 +7762,7 @@
           <t>INC1148</t>
         </is>
       </c>
-      <c r="B150" s="46" t="n">
+      <c r="B150" s="2" t="n">
         <v>45773</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -8032,6 +7803,7 @@
         <v>9</v>
       </c>
       <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8039,7 +7811,7 @@
           <t>INC1149</t>
         </is>
       </c>
-      <c r="B151" s="46" t="n">
+      <c r="B151" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -8080,6 +7852,7 @@
         <v>3</v>
       </c>
       <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8087,7 +7860,7 @@
           <t>INC1150</t>
         </is>
       </c>
-      <c r="B152" s="46" t="n">
+      <c r="B152" s="2" t="n">
         <v>45908</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -8128,6 +7901,7 @@
         <v>4</v>
       </c>
       <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8135,7 +7909,7 @@
           <t>INC1151</t>
         </is>
       </c>
-      <c r="B153" s="46" t="n">
+      <c r="B153" s="2" t="n">
         <v>45931</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -8176,6 +7950,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8183,7 +7958,7 @@
           <t>INC1152</t>
         </is>
       </c>
-      <c r="B154" s="46" t="n">
+      <c r="B154" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -8224,6 +7999,7 @@
         <v>6</v>
       </c>
       <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8231,7 +8007,7 @@
           <t>INC1153</t>
         </is>
       </c>
-      <c r="B155" s="46" t="n">
+      <c r="B155" s="2" t="n">
         <v>45617</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -8272,6 +8048,7 @@
         <v>12</v>
       </c>
       <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8279,7 +8056,7 @@
           <t>INC1154</t>
         </is>
       </c>
-      <c r="B156" s="46" t="n">
+      <c r="B156" s="2" t="n">
         <v>45757</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -8320,6 +8097,7 @@
         <v>25</v>
       </c>
       <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8327,7 +8105,7 @@
           <t>INC1155</t>
         </is>
       </c>
-      <c r="B157" s="46" t="n">
+      <c r="B157" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -8368,6 +8146,7 @@
         <v>15</v>
       </c>
       <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8375,7 +8154,7 @@
           <t>INC1156</t>
         </is>
       </c>
-      <c r="B158" s="46" t="n">
+      <c r="B158" s="2" t="n">
         <v>45858</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -8416,6 +8195,7 @@
         <v>3</v>
       </c>
       <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8423,7 +8203,7 @@
           <t>INC1157</t>
         </is>
       </c>
-      <c r="B159" s="46" t="n">
+      <c r="B159" s="2" t="n">
         <v>45660</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -8464,6 +8244,7 @@
         <v>8</v>
       </c>
       <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8471,7 +8252,7 @@
           <t>INC1158</t>
         </is>
       </c>
-      <c r="B160" s="46" t="n">
+      <c r="B160" s="2" t="n">
         <v>45878</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -8512,6 +8293,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8519,7 +8301,7 @@
           <t>INC1159</t>
         </is>
       </c>
-      <c r="B161" s="46" t="n">
+      <c r="B161" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -8560,6 +8342,7 @@
         <v>10</v>
       </c>
       <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8567,7 +8350,7 @@
           <t>INC1160</t>
         </is>
       </c>
-      <c r="B162" s="46" t="n">
+      <c r="B162" s="2" t="n">
         <v>45899</v>
       </c>
       <c r="C162" t="inlineStr">
@@ -8608,6 +8391,7 @@
         <v>8</v>
       </c>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8615,7 +8399,7 @@
           <t>INC1161</t>
         </is>
       </c>
-      <c r="B163" s="46" t="n">
+      <c r="B163" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -8656,6 +8440,7 @@
         <v>20</v>
       </c>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8663,7 +8448,7 @@
           <t>INC1162</t>
         </is>
       </c>
-      <c r="B164" s="46" t="n">
+      <c r="B164" s="2" t="n">
         <v>45810</v>
       </c>
       <c r="C164" t="inlineStr">
@@ -8704,6 +8489,7 @@
         <v>20</v>
       </c>
       <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8711,7 +8497,7 @@
           <t>INC1163</t>
         </is>
       </c>
-      <c r="B165" s="46" t="n">
+      <c r="B165" s="2" t="n">
         <v>45660</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -8752,6 +8538,7 @@
         <v>25</v>
       </c>
       <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8759,7 +8546,7 @@
           <t>INC1164</t>
         </is>
       </c>
-      <c r="B166" s="46" t="n">
+      <c r="B166" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -8800,6 +8587,7 @@
         <v>16</v>
       </c>
       <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8807,7 +8595,7 @@
           <t>INC1165</t>
         </is>
       </c>
-      <c r="B167" s="46" t="n">
+      <c r="B167" s="2" t="n">
         <v>45836</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -8848,6 +8636,7 @@
         <v>16</v>
       </c>
       <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8855,7 +8644,7 @@
           <t>INC1166</t>
         </is>
       </c>
-      <c r="B168" s="46" t="n">
+      <c r="B168" s="2" t="n">
         <v>45900</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -8896,6 +8685,7 @@
         <v>16</v>
       </c>
       <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8903,7 +8693,7 @@
           <t>INC1167</t>
         </is>
       </c>
-      <c r="B169" s="46" t="n">
+      <c r="B169" s="2" t="n">
         <v>45604</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -8944,6 +8734,7 @@
         <v>8</v>
       </c>
       <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8951,7 +8742,7 @@
           <t>INC1168</t>
         </is>
       </c>
-      <c r="B170" s="46" t="n">
+      <c r="B170" s="2" t="n">
         <v>45658</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -8992,6 +8783,7 @@
         <v>16</v>
       </c>
       <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8999,7 +8791,7 @@
           <t>INC1169</t>
         </is>
       </c>
-      <c r="B171" s="46" t="n">
+      <c r="B171" s="2" t="n">
         <v>45613</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -9040,6 +8832,7 @@
         <v>6</v>
       </c>
       <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9047,7 +8840,7 @@
           <t>INC1170</t>
         </is>
       </c>
-      <c r="B172" s="46" t="n">
+      <c r="B172" s="2" t="n">
         <v>45816</v>
       </c>
       <c r="C172" t="inlineStr">
@@ -9088,6 +8881,7 @@
         <v>1</v>
       </c>
       <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9095,7 +8889,7 @@
           <t>INC1171</t>
         </is>
       </c>
-      <c r="B173" s="46" t="n">
+      <c r="B173" s="2" t="n">
         <v>45596</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -9136,6 +8930,7 @@
         <v>12</v>
       </c>
       <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9143,7 +8938,7 @@
           <t>INC1172</t>
         </is>
       </c>
-      <c r="B174" s="46" t="n">
+      <c r="B174" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -9184,6 +8979,7 @@
         <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9191,7 +8987,7 @@
           <t>INC1173</t>
         </is>
       </c>
-      <c r="B175" s="46" t="n">
+      <c r="B175" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C175" t="inlineStr">
@@ -9232,6 +9028,7 @@
         <v>8</v>
       </c>
       <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9239,7 +9036,7 @@
           <t>INC1174</t>
         </is>
       </c>
-      <c r="B176" s="46" t="n">
+      <c r="B176" s="2" t="n">
         <v>45719</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -9280,6 +9077,7 @@
         <v>2</v>
       </c>
       <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9287,7 +9085,7 @@
           <t>INC1175</t>
         </is>
       </c>
-      <c r="B177" s="46" t="n">
+      <c r="B177" s="2" t="n">
         <v>45661</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -9328,6 +9126,7 @@
         <v>10</v>
       </c>
       <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9335,7 +9134,7 @@
           <t>INC1176</t>
         </is>
       </c>
-      <c r="B178" s="46" t="n">
+      <c r="B178" s="2" t="n">
         <v>45823</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -9376,6 +9175,7 @@
         <v>6</v>
       </c>
       <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9383,7 +9183,7 @@
           <t>INC1177</t>
         </is>
       </c>
-      <c r="B179" s="46" t="n">
+      <c r="B179" s="2" t="n">
         <v>45828</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -9424,6 +9224,7 @@
         <v>8</v>
       </c>
       <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9431,7 +9232,7 @@
           <t>INC1178</t>
         </is>
       </c>
-      <c r="B180" s="46" t="n">
+      <c r="B180" s="2" t="n">
         <v>45711</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -9472,6 +9273,7 @@
         <v>4</v>
       </c>
       <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9479,7 +9281,7 @@
           <t>INC1179</t>
         </is>
       </c>
-      <c r="B181" s="46" t="n">
+      <c r="B181" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -9520,6 +9322,7 @@
         <v>10</v>
       </c>
       <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9527,7 +9330,7 @@
           <t>INC1180</t>
         </is>
       </c>
-      <c r="B182" s="46" t="n">
+      <c r="B182" s="2" t="n">
         <v>45585</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -9568,6 +9371,7 @@
         <v>16</v>
       </c>
       <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9575,7 +9379,7 @@
           <t>INC1181</t>
         </is>
       </c>
-      <c r="B183" s="46" t="n">
+      <c r="B183" s="2" t="n">
         <v>45746</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -9616,6 +9420,7 @@
         <v>8</v>
       </c>
       <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9623,7 +9428,7 @@
           <t>INC1182</t>
         </is>
       </c>
-      <c r="B184" s="46" t="n">
+      <c r="B184" s="2" t="n">
         <v>45807</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -9664,6 +9469,7 @@
         <v>9</v>
       </c>
       <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9671,7 +9477,7 @@
           <t>INC1183</t>
         </is>
       </c>
-      <c r="B185" s="46" t="n">
+      <c r="B185" s="2" t="n">
         <v>45626</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -9712,6 +9518,7 @@
         <v>9</v>
       </c>
       <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9719,7 +9526,7 @@
           <t>INC1184</t>
         </is>
       </c>
-      <c r="B186" s="46" t="n">
+      <c r="B186" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -9760,6 +9567,7 @@
         <v>8</v>
       </c>
       <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9767,7 +9575,7 @@
           <t>INC1185</t>
         </is>
       </c>
-      <c r="B187" s="46" t="n">
+      <c r="B187" s="2" t="n">
         <v>45719</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -9808,6 +9616,7 @@
         <v>25</v>
       </c>
       <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9815,7 +9624,7 @@
           <t>INC1186</t>
         </is>
       </c>
-      <c r="B188" s="46" t="n">
+      <c r="B188" s="2" t="n">
         <v>45637</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -9856,6 +9665,7 @@
         <v>16</v>
       </c>
       <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9863,7 +9673,7 @@
           <t>INC1187</t>
         </is>
       </c>
-      <c r="B189" s="46" t="n">
+      <c r="B189" s="2" t="n">
         <v>45710</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -9904,6 +9714,7 @@
         <v>15</v>
       </c>
       <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9911,7 +9722,7 @@
           <t>INC1188</t>
         </is>
       </c>
-      <c r="B190" s="46" t="n">
+      <c r="B190" s="2" t="n">
         <v>45772</v>
       </c>
       <c r="C190" t="inlineStr">
@@ -9952,6 +9763,7 @@
         <v>15</v>
       </c>
       <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9959,7 +9771,7 @@
           <t>INC1189</t>
         </is>
       </c>
-      <c r="B191" s="46" t="n">
+      <c r="B191" s="2" t="n">
         <v>45792</v>
       </c>
       <c r="C191" t="inlineStr">
@@ -10000,6 +9812,7 @@
         <v>2</v>
       </c>
       <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10007,7 +9820,7 @@
           <t>INC1190</t>
         </is>
       </c>
-      <c r="B192" s="46" t="n">
+      <c r="B192" s="2" t="n">
         <v>45629</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -10048,6 +9861,7 @@
         <v>15</v>
       </c>
       <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10055,7 +9869,7 @@
           <t>INC1191</t>
         </is>
       </c>
-      <c r="B193" s="46" t="n">
+      <c r="B193" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -10096,6 +9910,7 @@
         <v>3</v>
       </c>
       <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10103,7 +9918,7 @@
           <t>INC1192</t>
         </is>
       </c>
-      <c r="B194" s="46" t="n">
+      <c r="B194" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -10144,6 +9959,7 @@
         <v>6</v>
       </c>
       <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10151,7 +9967,7 @@
           <t>INC1193</t>
         </is>
       </c>
-      <c r="B195" s="46" t="n">
+      <c r="B195" s="2" t="n">
         <v>45711</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -10192,6 +10008,7 @@
         <v>4</v>
       </c>
       <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10199,7 +10016,7 @@
           <t>INC1194</t>
         </is>
       </c>
-      <c r="B196" s="46" t="n">
+      <c r="B196" s="2" t="n">
         <v>45764</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -10240,6 +10057,7 @@
         <v>8</v>
       </c>
       <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10247,7 +10065,7 @@
           <t>INC1195</t>
         </is>
       </c>
-      <c r="B197" s="46" t="n">
+      <c r="B197" s="2" t="n">
         <v>45831</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -10288,6 +10106,7 @@
         <v>4</v>
       </c>
       <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10295,7 +10114,7 @@
           <t>INC1196</t>
         </is>
       </c>
-      <c r="B198" s="46" t="n">
+      <c r="B198" s="2" t="n">
         <v>45626</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -10336,6 +10155,7 @@
         <v>20</v>
       </c>
       <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10343,7 +10163,7 @@
           <t>INC1197</t>
         </is>
       </c>
-      <c r="B199" s="46" t="n">
+      <c r="B199" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -10384,6 +10204,7 @@
         <v>8</v>
       </c>
       <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10391,7 +10212,7 @@
           <t>INC1198</t>
         </is>
       </c>
-      <c r="B200" s="46" t="n">
+      <c r="B200" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -10432,6 +10253,7 @@
         <v>5</v>
       </c>
       <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10439,7 +10261,7 @@
           <t>INC1199</t>
         </is>
       </c>
-      <c r="B201" s="46" t="n">
+      <c r="B201" s="2" t="n">
         <v>45649</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -10480,6 +10302,7 @@
         <v>15</v>
       </c>
       <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10487,7 +10310,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B202" s="46" t="n">
+      <c r="B202" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -10538,6 +10361,7 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10545,7 +10369,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B203" s="46" t="n">
+      <c r="B203" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -10596,2723 +10420,66 @@
           <t>14:30</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col width="9.140625" customWidth="1" min="1" max="1"/>
-    <col width="25.85546875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="33.140625" customWidth="1" style="4" min="3" max="3"/>
-    <col width="53.5703125" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="37.28515625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="26.5703125" customWidth="1" style="7" min="6" max="6"/>
-    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="7" max="7"/>
-    <col width="29.140625" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="9" max="9"/>
-    <col width="12.5703125" customWidth="1" style="6" min="10" max="10"/>
-    <col hidden="1" width="5.140625" customWidth="1" style="8" min="11" max="11"/>
-    <col width="19.28515625" customWidth="1" style="7" min="12" max="12"/>
-    <col width="30.85546875" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
-    <col width="50.42578125" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="9" min="15" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="38.25" customFormat="1" customHeight="1" s="10">
-      <c r="A1" s="26" t="inlineStr">
-        <is>
-          <t>ID_Riesgo</t>
-        </is>
-      </c>
-      <c r="B1" s="27" t="inlineStr">
-        <is>
-          <t>Clasificación de peligro</t>
-        </is>
-      </c>
-      <c r="C1" s="27" t="inlineStr">
-        <is>
-          <t>Peligro</t>
-        </is>
-      </c>
-      <c r="D1" s="27" t="inlineStr">
-        <is>
-          <t>Fuente o actividad</t>
-        </is>
-      </c>
-      <c r="E1" s="27" t="inlineStr">
-        <is>
-          <t>Tipo de puesto</t>
-        </is>
-      </c>
-      <c r="F1" s="27" t="inlineStr">
-        <is>
-          <t>Probabilidad</t>
-        </is>
-      </c>
-      <c r="G1" s="28" t="n"/>
-      <c r="H1" s="27" t="inlineStr">
-        <is>
-          <t>Severidad</t>
-        </is>
-      </c>
-      <c r="I1" s="29" t="n"/>
-      <c r="J1" s="30" t="inlineStr">
-        <is>
-          <t>Nivel de Riesgo</t>
-        </is>
-      </c>
-      <c r="K1" s="30" t="n"/>
-      <c r="L1" s="27" t="inlineStr">
-        <is>
-          <t>Jerarquía de riesgo</t>
-        </is>
-      </c>
-      <c r="M1" s="27" t="inlineStr">
-        <is>
-          <t>Medidas de control</t>
-        </is>
-      </c>
-      <c r="N1" s="31" t="inlineStr">
-        <is>
-          <t>Hallazgos/Oportunidades de mejora</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="60.75" customHeight="1">
-      <c r="A2" s="32" t="inlineStr">
-        <is>
-          <t>R105</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>Atropellamiento</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr">
-        <is>
-          <t>Uso de pasos peatonales dentro de bodega.</t>
-        </is>
-      </c>
-      <c r="E2" s="43" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F2" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I2" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K2" s="15">
-        <f>G2*I2</f>
-        <v/>
-      </c>
-      <c r="L2" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M2" s="11" t="inlineStr">
-        <is>
-          <t>Señalización y pasos peatonales</t>
-        </is>
-      </c>
-      <c r="N2" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre el manejo seguro a las áreas opeativas, capacitación sobre medidas de seguridad equipo administrativo, creación de pasos peatonales operativos</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="38.25" customHeight="1">
-      <c r="A3" s="32" t="inlineStr">
-        <is>
-          <t>R106</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Casi Accidente</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
         <is>
           <t>Caidas a nivel</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Caminos dañados, desnivelados o pisos mojados.</t>
-        </is>
-      </c>
-      <c r="E3" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Fatalidad (es)</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G3" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K3" s="15">
-        <f>G3*I3</f>
-        <v/>
-      </c>
-      <c r="L3" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M3" s="11" t="inlineStr">
-        <is>
-          <t>Señalización y colocación de cintas antideslizantes</t>
-        </is>
-      </c>
-      <c r="N3" s="33" t="inlineStr">
-        <is>
-          <t>Inspecciones de pisos y superficies en conjunto a capacitaciones sobre el trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="38.25" customHeight="1">
-      <c r="A4" s="32" t="inlineStr">
-        <is>
-          <t>R107</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>Caidas a diferente nivel</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>Uso continuo de gradas y superficies desniveladas (Rampas)</t>
-        </is>
-      </c>
-      <c r="E4" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K4" s="15">
-        <f>G4*I4</f>
-        <v/>
-      </c>
-      <c r="L4" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M4" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP anti caida, escaleras fijas, lineas de vida</t>
-        </is>
-      </c>
-      <c r="N4" s="33" t="inlineStr">
-        <is>
-          <t>Inspecciones de gradas, escaleras y rampas, en conjunto de capacitaciones sobre trabajo seguro</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="32" t="inlineStr">
-        <is>
-          <t>R108</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>Choque contra objetos mecánicos</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>Cargas, vehiculos, ayudas mécanicas u objeto que se encuentran en las instalaciones</t>
-        </is>
-      </c>
-      <c r="E5" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I5" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K5" s="15">
-        <f>G5*I5</f>
-        <v/>
-      </c>
-      <c r="L5" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t>Señalización e inspecciones de orden y limpieza</t>
-        </is>
-      </c>
-      <c r="N5" s="33" t="inlineStr">
-        <is>
-          <t>Inspecciones de las instalaciones en temas de orden y limpieza.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="38.25" customHeight="1">
-      <c r="A6" s="32" t="inlineStr">
-        <is>
-          <t>R109</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>Aplastamiento</t>
-        </is>
-      </c>
-      <c r="D6" s="12" t="inlineStr">
-        <is>
-          <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
-        </is>
-      </c>
-      <c r="E6" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K6" s="15">
-        <f>G6*I6</f>
-        <v/>
-      </c>
-      <c r="L6" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M6" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP, Señalización visual en montacrgas</t>
-        </is>
-      </c>
-      <c r="N6" s="33" t="inlineStr">
-        <is>
-          <t>Analisís de estructuras y equipo de almacenamiento en general</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="51.75" customHeight="1">
-      <c r="A7" s="32" t="inlineStr">
-        <is>
-          <t>R110</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C7" s="12" t="inlineStr">
-        <is>
-          <t>Atrapamiento</t>
-        </is>
-      </c>
-      <c r="D7" s="12" t="inlineStr">
-        <is>
-          <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
-        </is>
-      </c>
-      <c r="E7" s="43" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K7" s="15">
-        <f>G7*I7</f>
-        <v/>
-      </c>
-      <c r="L7" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M7" s="11" t="inlineStr">
-        <is>
-          <t>Señalización e inspecciones de orden y limpieza</t>
-        </is>
-      </c>
-      <c r="N7" s="33" t="inlineStr">
-        <is>
-          <t>Analisís de estructuras y equipo de almacenamiento en general</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="46.5" customHeight="1">
-      <c r="A8" s="32" t="inlineStr">
-        <is>
-          <t>R111</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>Cortes y hemorragías</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos de corte (flejadoras y cuchillas)</t>
-        </is>
-      </c>
-      <c r="E8" s="43" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="K8" s="15">
-        <f>G8*I8</f>
-        <v/>
-      </c>
-      <c r="L8" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M8" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N8" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="32" t="inlineStr">
-        <is>
-          <t>R112</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C9" s="12" t="inlineStr">
-        <is>
-          <t>Contusiones leves y severas (caida de objetos)</t>
-        </is>
-      </c>
-      <c r="D9" s="12" t="inlineStr">
-        <is>
-          <t>Cargas u objetos elevados (lámparas, cargas u objetos en general)</t>
-        </is>
-      </c>
-      <c r="E9" s="43" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K9" s="15">
-        <f>G9*I9</f>
-        <v/>
-      </c>
-      <c r="L9" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M9" s="11" t="inlineStr">
-        <is>
-          <t>Señalización, uso de EPP</t>
-        </is>
-      </c>
-      <c r="N9" s="33" t="inlineStr">
-        <is>
-          <t>Caminatas de seguridad e inspección sobre condiciones inseguras de trabajo en cuanto a objetos colgantes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1">
-      <c r="A10" s="32" t="inlineStr">
-        <is>
-          <t>R113</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="inlineStr">
-        <is>
-          <t>Mecánicos</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="inlineStr">
-        <is>
-          <t>Lumbalgías y lesiones musculoesqueleticas</t>
-        </is>
-      </c>
-      <c r="D10" s="12" t="inlineStr">
-        <is>
-          <t>Malas posturas, posturas forzadas y repetitivas</t>
-        </is>
-      </c>
-      <c r="E10" s="43" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I10" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K10" s="15">
-        <f>G10*I10</f>
-        <v/>
-      </c>
-      <c r="L10" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M10" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N10" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="46.5" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>R114</t>
-        </is>
-      </c>
-      <c r="B11" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>Migrañas, lesiones oculares (agravamiento de miopia y astigmatismo)</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
-        <is>
-          <t>Ilumnación deficiente</t>
-        </is>
-      </c>
-      <c r="E11" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al mes</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K11" s="15">
-        <f>G11*I11</f>
-        <v/>
-      </c>
-      <c r="L11" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M11" s="11" t="inlineStr">
-        <is>
-          <t>Buena iluminación en las areas de trabajo</t>
-        </is>
-      </c>
-      <c r="N11" s="33" t="inlineStr">
-        <is>
-          <t>Estudio de iluminación y mantenimiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="59.25" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t>R115</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>Tendinitis</t>
-        </is>
-      </c>
-      <c r="D12" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos que causan vibración (Computadoras, herramientas, vehiculos, etc)</t>
-        </is>
-      </c>
-      <c r="E12" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G12" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I12" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" s="17" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="K12" s="15">
-        <f>G12*I12</f>
-        <v/>
-      </c>
-      <c r="L12" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M12" s="11" t="inlineStr">
-        <is>
-          <t>Hacer pausas activas</t>
-        </is>
-      </c>
-      <c r="N12" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre ergonomía y uso de ayudas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>R116</t>
-        </is>
-      </c>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C13" s="12" t="inlineStr">
-        <is>
-          <t>Desmayos o golpes/choques de calor</t>
-        </is>
-      </c>
-      <c r="D13" s="12" t="inlineStr">
-        <is>
-          <t>Estaciones de trabajo con alto nivel de estrés térmico.</t>
-        </is>
-      </c>
-      <c r="E13" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades administrativas</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K13" s="15">
-        <f>G13*I13</f>
-        <v/>
-      </c>
-      <c r="L13" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M13" s="11" t="inlineStr">
-        <is>
-          <t>Hidratación,  techos aislantes</t>
-        </is>
-      </c>
-      <c r="N13" s="33" t="inlineStr">
-        <is>
-          <t>Monitorear la temperatura</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="45" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>R117</t>
-        </is>
-      </c>
-      <c r="B14" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>Golpe o choque de calor y quemaduras de 1er y 2do grado.</t>
-        </is>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>Exposición prolongada a los rayos UV</t>
-        </is>
-      </c>
-      <c r="E14" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G14" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K14" s="15">
-        <f>G14*I14</f>
-        <v/>
-      </c>
-      <c r="L14" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M14" s="11" t="inlineStr">
-        <is>
-          <t>Bloqueador Solar y Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N14" s="33" t="inlineStr">
-        <is>
-          <t>Señalización, pausas activas y uso de bloqueador solar</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="55.5" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
-        <is>
-          <t>R118</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C15" s="12" t="inlineStr">
-        <is>
-          <t>Deshidratación</t>
-        </is>
-      </c>
-      <c r="D15" s="12" t="inlineStr">
-        <is>
-          <t>Exposición prolongada a los rayos UV</t>
-        </is>
-      </c>
-      <c r="E15" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades operativas</t>
-        </is>
-      </c>
-      <c r="F15" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K15" s="15">
-        <f>G15*I15</f>
-        <v/>
-      </c>
-      <c r="L15" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M15" s="11" t="inlineStr">
-        <is>
-          <t>Oasis o dispensadores de agua</t>
-        </is>
-      </c>
-      <c r="N15" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre trabajo seguro, pausas activas y evaluación médica periódica.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="55.5" customHeight="1">
-      <c r="A16" s="32" t="inlineStr">
-        <is>
-          <t>R119</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C16" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones a mediano o largo plazo hacia sentido auditivo</t>
-        </is>
-      </c>
-      <c r="D16" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruidos estridentes (Altos decibeles) por aterrizajes y despegues de aviones) </t>
-        </is>
-      </c>
-      <c r="E16" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F16" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K16" s="15">
-        <f>G16*I16</f>
-        <v/>
-      </c>
-      <c r="L16" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M16" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP</t>
-        </is>
-      </c>
-      <c r="N16" s="33" t="inlineStr">
-        <is>
-          <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="45" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
-        <is>
-          <t>R120</t>
-        </is>
-      </c>
-      <c r="B17" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="inlineStr">
-        <is>
-          <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
-        </is>
-      </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>Uso de montacargas</t>
-        </is>
-      </c>
-      <c r="E17" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F17" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I17" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K17" s="15">
-        <f>G17*I17</f>
-        <v/>
-      </c>
-      <c r="L17" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M17" s="11" t="inlineStr">
-        <is>
-          <t>Uso de equipos de combustion a GLP y electricos</t>
-        </is>
-      </c>
-      <c r="N17" s="33" t="inlineStr">
-        <is>
-          <t>Renovación a medio plazo</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="46.5" customHeight="1">
-      <c r="A18" s="32" t="inlineStr">
-        <is>
-          <t>R121</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fisicos </t>
-        </is>
-      </c>
-      <c r="C18" s="12" t="inlineStr">
-        <is>
-          <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
-        </is>
-      </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sobrepoblación de personas en áreas de trabajo reducidas o poco ventiladas </t>
-        </is>
-      </c>
-      <c r="E18" s="41" t="inlineStr">
-        <is>
-          <t>Puestos con actividades administrativas</t>
-        </is>
-      </c>
-      <c r="F18" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G18" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H18" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I18" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K18" s="15">
-        <f>G18*I18</f>
-        <v/>
-      </c>
-      <c r="L18" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M18" s="11" t="inlineStr">
-        <is>
-          <t>Aires acondicionados</t>
-        </is>
-      </c>
-      <c r="N18" s="33" t="inlineStr">
-        <is>
-          <t>Creación de áreas mejor ventiladas, pausas activas o reeorganización de personal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="39" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
-        <is>
-          <t>R122</t>
-        </is>
-      </c>
-      <c r="B19" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C19" s="12" t="inlineStr">
-        <is>
-          <t>Lumbalgía ocupacional</t>
-        </is>
-      </c>
-      <c r="D19" s="12" t="inlineStr">
-        <is>
-          <t>Posturas repetitivas, mala manipulación de cargas, etc)</t>
-        </is>
-      </c>
-      <c r="E19" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G19" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H19" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I19" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K19" s="15">
-        <f>G19*I19</f>
-        <v/>
-      </c>
-      <c r="L19" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M19" s="11" t="inlineStr">
-        <is>
-          <t>Sillas ejecutivas</t>
-        </is>
-      </c>
-      <c r="N19" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1">
-      <c r="A20" s="32" t="inlineStr">
-        <is>
-          <t>R123</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones por condiciones ergonomicas (Sindrome tubo carpiano, Tendinitis, etc)</t>
-        </is>
-      </c>
-      <c r="D20" s="12" t="inlineStr">
-        <is>
-          <t>Uso constante de equipo de computo</t>
-        </is>
-      </c>
-      <c r="E20" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F20" s="12" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G20" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I20" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K20" s="15">
-        <f>G20*I20</f>
-        <v/>
-      </c>
-      <c r="L20" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M20" s="11" t="inlineStr">
-        <is>
-          <t>Capacitación</t>
-        </is>
-      </c>
-      <c r="N20" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas y uso de mause pad.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="30.75" customHeight="1">
-      <c r="A21" s="32" t="inlineStr">
-        <is>
-          <t>R124</t>
-        </is>
-      </c>
-      <c r="B21" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C21" s="12" t="inlineStr">
-        <is>
-          <t>Sindrome de texto (lesiones en columna)</t>
-        </is>
-      </c>
-      <c r="D21" s="12" t="inlineStr">
-        <is>
-          <t>Uso constante de dispositivos móviles (HandHeld, teléfonos, tablets, entre otros)</t>
-        </is>
-      </c>
-      <c r="E21" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F21" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I21" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K21" s="15">
-        <f>G21*I21</f>
-        <v/>
-      </c>
-      <c r="L21" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M21" s="11" t="inlineStr">
-        <is>
-          <t>Capacitacion</t>
-        </is>
-      </c>
-      <c r="N21" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="51.75" customHeight="1">
-      <c r="A22" s="32" t="inlineStr">
-        <is>
-          <t>R125</t>
-        </is>
-      </c>
-      <c r="B22" s="19" t="inlineStr">
-        <is>
-          <t>Ergonomicos</t>
-        </is>
-      </c>
-      <c r="C22" s="12" t="inlineStr">
-        <is>
-          <t>Polirradiculoneuropatías</t>
-        </is>
-      </c>
-      <c r="D22" s="12" t="inlineStr">
-        <is>
-          <t>Malas posturas, posturas forzadas y repetitivas</t>
-        </is>
-      </c>
-      <c r="E22" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F22" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K22" s="15">
-        <f>G22*I22</f>
-        <v/>
-      </c>
-      <c r="L22" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M22" s="11" t="inlineStr">
-        <is>
-          <t>Capacitacion</t>
-        </is>
-      </c>
-      <c r="N22" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="39.75" customHeight="1">
-      <c r="A23" s="32" t="inlineStr">
-        <is>
-          <t>R126</t>
-        </is>
-      </c>
-      <c r="B23" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C23" s="12" t="inlineStr">
-        <is>
-          <t>Enfermedades estacionales</t>
-        </is>
-      </c>
-      <c r="D23" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contacto con agentes patologicos </t>
-        </is>
-      </c>
-      <c r="E23" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F23" s="12" t="inlineStr">
-        <is>
-          <t>Pasa una vez o más al año</t>
-        </is>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H23" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I23" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K23" s="15">
-        <f>G23*I23</f>
-        <v/>
-      </c>
-      <c r="L23" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M23" s="11" t="inlineStr">
-        <is>
-          <t>Concientización de cuidados y vacunación</t>
-        </is>
-      </c>
-      <c r="N23" s="33" t="inlineStr">
-        <is>
-          <t>Vigilancia epidemiológica</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="36.75" customHeight="1">
-      <c r="A24" s="32" t="inlineStr">
-        <is>
-          <t>R127</t>
-        </is>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="inlineStr">
-        <is>
-          <t>Intoxicación</t>
-        </is>
-      </c>
-      <c r="D24" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contacto con agentes patologicos </t>
-        </is>
-      </c>
-      <c r="E24" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F24" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K24" s="15">
-        <f>G24*I24</f>
-        <v/>
-      </c>
-      <c r="L24" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M24" s="11" t="inlineStr">
-        <is>
-          <t>Identificación y aislamiento de mercancías peligrosas</t>
-        </is>
-      </c>
-      <c r="N24" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="32" t="inlineStr">
-        <is>
-          <t>R128</t>
-        </is>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C25" s="12" t="inlineStr">
-        <is>
-          <t>Enfermedades virales</t>
-        </is>
-      </c>
-      <c r="D25" s="12" t="inlineStr">
-        <is>
-          <t>Contacto con agentes patologicos por manipulación de carga contaminada</t>
-        </is>
-      </c>
-      <c r="E25" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F25" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I25" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K25" s="15">
-        <f>G25*I25</f>
-        <v/>
-      </c>
-      <c r="L25" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M25" s="11" t="inlineStr">
-        <is>
-          <t>Identificación y aislamiento de mercancías peligrosas</t>
-        </is>
-      </c>
-      <c r="N25" s="33" t="inlineStr">
-        <is>
-          <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="39" customHeight="1">
-      <c r="A26" s="32" t="inlineStr">
-        <is>
-          <t>R129</t>
-        </is>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
-        <is>
-          <t>Biológicos</t>
-        </is>
-      </c>
-      <c r="C26" s="12" t="inlineStr">
-        <is>
-          <t>Alergias</t>
-        </is>
-      </c>
-      <c r="D26" s="12" t="inlineStr">
-        <is>
-          <t>Picaduras de mosquitos, abejas, zacudos, entre otros</t>
-        </is>
-      </c>
-      <c r="E26" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F26" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G26" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I26" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K26" s="15">
-        <f>G26*I26</f>
-        <v/>
-      </c>
-      <c r="L26" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M26" s="11" t="inlineStr">
-        <is>
-          <t>Concientización de cuidados</t>
-        </is>
-      </c>
-      <c r="N26" s="33" t="inlineStr">
-        <is>
-          <t>Vigilancia epidemiológica</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="33" customHeight="1">
-      <c r="A27" s="32" t="inlineStr">
-        <is>
-          <t>R130</t>
-        </is>
-      </c>
-      <c r="B27" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C27" s="12" t="inlineStr">
-        <is>
-          <t>Acoso</t>
-        </is>
-      </c>
-      <c r="D27" s="12" t="inlineStr">
-        <is>
-          <t>Por parte de compañeros, jefes y/o supervisores</t>
-        </is>
-      </c>
-      <c r="E27" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F27" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I27" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="22" t="inlineStr">
-        <is>
-          <t>Apropiado</t>
-        </is>
-      </c>
-      <c r="K27" s="15">
-        <f>G27*I27</f>
-        <v/>
-      </c>
-      <c r="L27" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M27" s="11" t="inlineStr">
-        <is>
-          <t>Reglamento de Etica y RIT</t>
-        </is>
-      </c>
-      <c r="N27" s="33" t="inlineStr">
-        <is>
-          <t>Canal de denuncias</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="34.5" customHeight="1">
-      <c r="A28" s="32" t="inlineStr">
-        <is>
-          <t>R131</t>
-        </is>
-      </c>
-      <c r="B28" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C28" s="12" t="inlineStr">
-        <is>
-          <t>Hostigamiento</t>
-        </is>
-      </c>
-      <c r="D28" s="12" t="inlineStr">
-        <is>
-          <t>Por parte de compañeros, jefes y/o supervisores</t>
-        </is>
-      </c>
-      <c r="E28" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F28" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H28" s="12" t="inlineStr">
-        <is>
-          <t>Lesión leve o sin impacto</t>
-        </is>
-      </c>
-      <c r="I28" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" s="22" t="inlineStr">
-        <is>
-          <t>Apropiado</t>
-        </is>
-      </c>
-      <c r="K28" s="15">
-        <f>G28*I28</f>
-        <v/>
-      </c>
-      <c r="L28" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M28" s="11" t="inlineStr">
-        <is>
-          <t>Reglamento de Etica y RIT</t>
-        </is>
-      </c>
-      <c r="N28" s="33" t="inlineStr">
-        <is>
-          <t>Canal de denuncias</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="41.25" customHeight="1">
-      <c r="A29" s="32" t="inlineStr">
-        <is>
-          <t>R132</t>
-        </is>
-      </c>
-      <c r="B29" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C29" s="12" t="inlineStr">
-        <is>
-          <t>Estrés laboral</t>
-        </is>
-      </c>
-      <c r="D29" s="12" t="inlineStr">
-        <is>
-          <t>Carga laboral elevada</t>
-        </is>
-      </c>
-      <c r="E29" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F29" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I29" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K29" s="15">
-        <f>G29*I29</f>
-        <v/>
-      </c>
-      <c r="L29" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M29" s="11" t="inlineStr">
-        <is>
-          <t>Citas con psicológa</t>
-        </is>
-      </c>
-      <c r="N29" s="33" t="inlineStr">
-        <is>
-          <t>Por medio de Bienestar Laboral</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="34.5" customHeight="1">
-      <c r="A30" s="32" t="inlineStr">
-        <is>
-          <t>R133</t>
-        </is>
-      </c>
-      <c r="B30" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C30" s="12" t="inlineStr">
-        <is>
-          <t>Depresión</t>
-        </is>
-      </c>
-      <c r="D30" s="12" t="inlineStr">
-        <is>
-          <t>Carga laboral elevada</t>
-        </is>
-      </c>
-      <c r="E30" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F30" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G30" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I30" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K30" s="15">
-        <f>G30*I30</f>
-        <v/>
-      </c>
-      <c r="L30" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M30" s="11" t="inlineStr">
-        <is>
-          <t>Citas con psicológa</t>
-        </is>
-      </c>
-      <c r="N30" s="33" t="inlineStr">
-        <is>
-          <t>Por medio de Bienestar Laboral</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="56.25" customHeight="1">
-      <c r="A31" s="32" t="inlineStr">
-        <is>
-          <t>R134</t>
-        </is>
-      </c>
-      <c r="B31" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psicósociales </t>
-        </is>
-      </c>
-      <c r="C31" s="12" t="inlineStr">
-        <is>
-          <t>Enfermedades fisicas varias</t>
-        </is>
-      </c>
-      <c r="D31" s="12" t="inlineStr">
-        <is>
-          <t>Turnos laborales extensos y en horarios nocturnos</t>
-        </is>
-      </c>
-      <c r="E31" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F31" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I31" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K31" s="15">
-        <f>G31*I31</f>
-        <v/>
-      </c>
-      <c r="L31" s="12" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M31" s="11" t="inlineStr">
-        <is>
-          <t>Citas con Dr de Combexim</t>
-        </is>
-      </c>
-      <c r="N31" s="33" t="inlineStr">
-        <is>
-          <t>Por medio de Bienestar Laboral</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="48" customHeight="1">
-      <c r="A32" s="32" t="inlineStr">
-        <is>
-          <t>R135</t>
-        </is>
-      </c>
-      <c r="B32" s="23" t="inlineStr">
-        <is>
-          <t>Eléctricos</t>
-        </is>
-      </c>
-      <c r="C32" s="24" t="inlineStr">
-        <is>
-          <t>Descargas eléctricas</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos eléctricos en malas condiciones</t>
-        </is>
-      </c>
-      <c r="E32" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F32" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G32" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" s="12" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I32" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K32" s="15">
-        <f>G32*I32</f>
-        <v/>
-      </c>
-      <c r="L32" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M32" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP y capacitación</t>
-        </is>
-      </c>
-      <c r="N32" s="33" t="inlineStr">
-        <is>
-          <t>Evaluar EPP y el corecto uso</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="55.5" customHeight="1">
-      <c r="A33" s="32" t="inlineStr">
-        <is>
-          <t>R136</t>
-        </is>
-      </c>
-      <c r="B33" s="23" t="inlineStr">
-        <is>
-          <t>Eléctricos</t>
-        </is>
-      </c>
-      <c r="C33" s="24" t="inlineStr">
-        <is>
-          <t>Electrucución</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>Uso de equipos eléctricos en malas condiciones y de manera inadecuada</t>
-        </is>
-      </c>
-      <c r="E33" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F33" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="12" t="inlineStr">
-        <is>
-          <t>Fatalidad (es)</t>
-        </is>
-      </c>
-      <c r="I33" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K33" s="15">
-        <f>G33*I33</f>
-        <v/>
-      </c>
-      <c r="L33" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M33" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP y capacitación</t>
-        </is>
-      </c>
-      <c r="N33" s="33" t="inlineStr">
-        <is>
-          <t>Evaluar EPP y el corecto uso</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="54.75" customHeight="1">
-      <c r="A34" s="32" t="inlineStr">
-        <is>
-          <t>R137</t>
-        </is>
-      </c>
-      <c r="B34" s="23" t="inlineStr">
-        <is>
-          <t>Eléctricos</t>
-        </is>
-      </c>
-      <c r="C34" s="24" t="inlineStr">
-        <is>
-          <t>Quemaduras de 2do o 3er grado</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Incendios (Cortocircuitos y contacto con materiales inflamables)</t>
-        </is>
-      </c>
-      <c r="E34" s="41" t="inlineStr">
-        <is>
-          <t>Puestos netamente Operativos</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G34" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I34" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K34" s="15">
-        <f>G34*I34</f>
-        <v/>
-      </c>
-      <c r="L34" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M34" s="11" t="inlineStr">
-        <is>
-          <t>Uso de EPP y capacitación</t>
-        </is>
-      </c>
-      <c r="N34" s="33" t="inlineStr">
-        <is>
-          <t>Evaluar EPP y el corecto uso</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="57" customHeight="1">
-      <c r="A35" s="32" t="inlineStr">
-        <is>
-          <t>R138</t>
-        </is>
-      </c>
-      <c r="B35" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturales/Locativos </t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones severas o fatalidades</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Sismo (Área altamente sismíca)</t>
-        </is>
-      </c>
-      <c r="E35" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F35" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G35" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H35" s="12" t="inlineStr">
-        <is>
-          <t>Fatalidad (es)</t>
-        </is>
-      </c>
-      <c r="I35" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" s="14" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="K35" s="15">
-        <f>G35*I35</f>
-        <v/>
-      </c>
-      <c r="L35" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>Simulacros de evacuación y señalización.</t>
-        </is>
-      </c>
-      <c r="N35" s="33" t="inlineStr">
-        <is>
-          <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="61.5" customHeight="1">
-      <c r="A36" s="32" t="inlineStr">
-        <is>
-          <t>R139</t>
-        </is>
-      </c>
-      <c r="B36" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturales/Locativos </t>
-        </is>
-      </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Lesiones severas o fatalidades</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
-        <is>
-          <t>Incendios forestales provenientes de factores humanos y naturales(rayos).</t>
-        </is>
-      </c>
-      <c r="E36" s="41" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F36" s="12" t="inlineStr">
-        <is>
-          <t>Podría pasar</t>
-        </is>
-      </c>
-      <c r="G36" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H36" s="12" t="inlineStr">
-        <is>
-          <t>Lesión incapacitante</t>
-        </is>
-      </c>
-      <c r="I36" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" s="16" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K36" s="15">
-        <f>G36*I36</f>
-        <v/>
-      </c>
-      <c r="L36" s="12" t="inlineStr">
-        <is>
-          <t>Controles de Ingeniería</t>
-        </is>
-      </c>
-      <c r="M36" s="11" t="inlineStr">
-        <is>
-          <t>Simulacros de evacuación y señalización.</t>
-        </is>
-      </c>
-      <c r="N36" s="33" t="inlineStr">
-        <is>
-          <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A37" s="34" t="inlineStr">
-        <is>
-          <t>R140</t>
-        </is>
-      </c>
-      <c r="B37" s="35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturales/Locativos </t>
-        </is>
-      </c>
-      <c r="C37" s="36" t="inlineStr">
-        <is>
-          <t>Infecciones o irritación a vías respiratorias</t>
-        </is>
-      </c>
-      <c r="D37" s="36" t="inlineStr">
-        <is>
-          <t>Actividad volcánica (Ceniza)</t>
-        </is>
-      </c>
-      <c r="E37" s="42" t="inlineStr">
-        <is>
-          <t>Todos los puestos</t>
-        </is>
-      </c>
-      <c r="F37" s="36" t="inlineStr">
-        <is>
-          <t>Pasó alguna vez</t>
-        </is>
-      </c>
-      <c r="G37" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="H37" s="36" t="inlineStr">
-        <is>
-          <t>Lesión Severa</t>
-        </is>
-      </c>
-      <c r="I37" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" s="37" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="K37" s="38">
-        <f>G37*I37</f>
-        <v/>
-      </c>
-      <c r="L37" s="36" t="inlineStr">
-        <is>
-          <t>Controles Administrativos</t>
-        </is>
-      </c>
-      <c r="M37" s="39" t="inlineStr">
-        <is>
-          <t>Uso de mascarillas</t>
-        </is>
-      </c>
-      <c r="N37" s="40" t="inlineStr">
-        <is>
-          <t>Capacitación</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="L2:L37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2:H37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" scale="35" fitToHeight="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Capacitaciones</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Asistentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-11</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-12</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-01</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-08</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-09</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>81</v>
-      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Fatalidad (es) x Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -2,30 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6630" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Incidentes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Riesgos" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Capacitaciones" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Riesgos'!$B$1:$N$37</definedName>
-  </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,282 +31,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="24"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.1499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -322,133 +60,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -811,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,64 +440,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="44" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Área</t>
         </is>
       </c>
-      <c r="D1" s="44" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Puesto</t>
         </is>
       </c>
-      <c r="E1" s="44" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="F1" s="44" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Causa</t>
         </is>
       </c>
-      <c r="G1" s="44" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Días_Perdidos</t>
         </is>
       </c>
-      <c r="H1" s="44" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Severidad</t>
         </is>
       </c>
-      <c r="I1" s="44" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Probabilidad</t>
         </is>
       </c>
-      <c r="J1" s="44" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Descripción</t>
         </is>
       </c>
-      <c r="K1" s="44" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Riesgo</t>
         </is>
       </c>
-      <c r="L1" s="44" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Hora del Evento</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo_valor</t>
         </is>
       </c>
     </row>
@@ -887,7 +512,7 @@
           <t>INC1000</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n">
+      <c r="B2" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -928,6 +553,7 @@
         <v>20</v>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -935,7 +561,7 @@
           <t>INC1001</t>
         </is>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="2" t="n">
         <v>45595</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -976,6 +602,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -983,7 +610,7 @@
           <t>INC1002</t>
         </is>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -1024,6 +651,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1031,7 +659,7 @@
           <t>INC1003</t>
         </is>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="2" t="n">
         <v>45837</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -1072,6 +700,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1079,7 +708,7 @@
           <t>INC1004</t>
         </is>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="2" t="n">
         <v>45872</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -1120,6 +749,7 @@
         <v>12</v>
       </c>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1127,7 +757,7 @@
           <t>INC1005</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="2" t="n">
         <v>45755</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -1168,6 +798,7 @@
         <v>20</v>
       </c>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1175,7 +806,7 @@
           <t>INC1006</t>
         </is>
       </c>
-      <c r="B8" s="46" t="n">
+      <c r="B8" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -1216,6 +847,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1223,7 +855,7 @@
           <t>INC1007</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n">
+      <c r="B9" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -1264,6 +896,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1271,7 +904,7 @@
           <t>INC1008</t>
         </is>
       </c>
-      <c r="B10" s="46" t="n">
+      <c r="B10" s="2" t="n">
         <v>45822</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -1312,6 +945,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1319,7 +953,7 @@
           <t>INC1009</t>
         </is>
       </c>
-      <c r="B11" s="46" t="n">
+      <c r="B11" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -1360,6 +994,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1367,7 +1002,7 @@
           <t>INC1010</t>
         </is>
       </c>
-      <c r="B12" s="46" t="n">
+      <c r="B12" s="2" t="n">
         <v>45613</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -1408,6 +1043,7 @@
         <v>6</v>
       </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1415,7 +1051,7 @@
           <t>INC1011</t>
         </is>
       </c>
-      <c r="B13" s="46" t="n">
+      <c r="B13" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1456,6 +1092,7 @@
         <v>4</v>
       </c>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1463,7 +1100,7 @@
           <t>INC1012</t>
         </is>
       </c>
-      <c r="B14" s="46" t="n">
+      <c r="B14" s="2" t="n">
         <v>45844</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1504,6 +1141,7 @@
         <v>8</v>
       </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1511,7 +1149,7 @@
           <t>INC1013</t>
         </is>
       </c>
-      <c r="B15" s="46" t="n">
+      <c r="B15" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1552,6 +1190,7 @@
         <v>20</v>
       </c>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1559,7 +1198,7 @@
           <t>INC1014</t>
         </is>
       </c>
-      <c r="B16" s="46" t="n">
+      <c r="B16" s="2" t="n">
         <v>45792</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1600,6 +1239,7 @@
         <v>5</v>
       </c>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1607,7 +1247,7 @@
           <t>INC1015</t>
         </is>
       </c>
-      <c r="B17" s="46" t="n">
+      <c r="B17" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1648,6 +1288,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1655,7 +1296,7 @@
           <t>INC1016</t>
         </is>
       </c>
-      <c r="B18" s="46" t="n">
+      <c r="B18" s="2" t="n">
         <v>45794</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1696,6 +1337,7 @@
         <v>25</v>
       </c>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1703,7 +1345,7 @@
           <t>INC1017</t>
         </is>
       </c>
-      <c r="B19" s="46" t="n">
+      <c r="B19" s="2" t="n">
         <v>45635</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1744,6 +1386,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1751,7 +1394,7 @@
           <t>INC1018</t>
         </is>
       </c>
-      <c r="B20" s="46" t="n">
+      <c r="B20" s="2" t="n">
         <v>45686</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1792,6 +1435,7 @@
         <v>4</v>
       </c>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1799,7 +1443,7 @@
           <t>INC1019</t>
         </is>
       </c>
-      <c r="B21" s="46" t="n">
+      <c r="B21" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1840,6 +1484,7 @@
         <v>3</v>
       </c>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1847,7 +1492,7 @@
           <t>INC1020</t>
         </is>
       </c>
-      <c r="B22" s="46" t="n">
+      <c r="B22" s="2" t="n">
         <v>45650</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1888,6 +1533,7 @@
         <v>4</v>
       </c>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1895,7 +1541,7 @@
           <t>INC1021</t>
         </is>
       </c>
-      <c r="B23" s="46" t="n">
+      <c r="B23" s="2" t="n">
         <v>45752</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1936,6 +1582,7 @@
         <v>20</v>
       </c>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1943,7 +1590,7 @@
           <t>INC1022</t>
         </is>
       </c>
-      <c r="B24" s="46" t="n">
+      <c r="B24" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1984,6 +1631,7 @@
         <v>9</v>
       </c>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1991,7 +1639,7 @@
           <t>INC1023</t>
         </is>
       </c>
-      <c r="B25" s="46" t="n">
+      <c r="B25" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -2032,6 +1680,7 @@
         <v>6</v>
       </c>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2039,7 +1688,7 @@
           <t>INC1024</t>
         </is>
       </c>
-      <c r="B26" s="46" t="n">
+      <c r="B26" s="2" t="n">
         <v>45630</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -2080,6 +1729,7 @@
         <v>5</v>
       </c>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2087,7 +1737,7 @@
           <t>INC1025</t>
         </is>
       </c>
-      <c r="B27" s="46" t="n">
+      <c r="B27" s="2" t="n">
         <v>45922</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -2128,6 +1778,7 @@
         <v>10</v>
       </c>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2135,7 +1786,7 @@
           <t>INC1026</t>
         </is>
       </c>
-      <c r="B28" s="46" t="n">
+      <c r="B28" s="2" t="n">
         <v>45691</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -2176,6 +1827,7 @@
         <v>20</v>
       </c>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2183,7 +1835,7 @@
           <t>INC1027</t>
         </is>
       </c>
-      <c r="B29" s="46" t="n">
+      <c r="B29" s="2" t="n">
         <v>45708</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -2224,6 +1876,7 @@
         <v>6</v>
       </c>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2231,7 +1884,7 @@
           <t>INC1028</t>
         </is>
       </c>
-      <c r="B30" s="46" t="n">
+      <c r="B30" s="2" t="n">
         <v>45599</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -2272,6 +1925,7 @@
         <v>20</v>
       </c>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2279,7 +1933,7 @@
           <t>INC1029</t>
         </is>
       </c>
-      <c r="B31" s="46" t="n">
+      <c r="B31" s="2" t="n">
         <v>45895</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -2320,6 +1974,7 @@
         <v>9</v>
       </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2327,7 +1982,7 @@
           <t>INC1030</t>
         </is>
       </c>
-      <c r="B32" s="46" t="n">
+      <c r="B32" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -2368,6 +2023,7 @@
         <v>5</v>
       </c>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2375,7 +2031,7 @@
           <t>INC1031</t>
         </is>
       </c>
-      <c r="B33" s="46" t="n">
+      <c r="B33" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -2416,6 +2072,7 @@
         <v>2</v>
       </c>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2423,7 +2080,7 @@
           <t>INC1032</t>
         </is>
       </c>
-      <c r="B34" s="46" t="n">
+      <c r="B34" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -2464,6 +2121,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2471,7 +2129,7 @@
           <t>INC1033</t>
         </is>
       </c>
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -2512,6 +2170,7 @@
         <v>8</v>
       </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2519,7 +2178,7 @@
           <t>INC1034</t>
         </is>
       </c>
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -2560,6 +2219,7 @@
         <v>16</v>
       </c>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2567,7 +2227,7 @@
           <t>INC1035</t>
         </is>
       </c>
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="2" t="n">
         <v>45769</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -2608,6 +2268,7 @@
         <v>9</v>
       </c>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2615,7 +2276,7 @@
           <t>INC1036</t>
         </is>
       </c>
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="2" t="n">
         <v>45893</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -2656,6 +2317,7 @@
         <v>16</v>
       </c>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2663,7 +2325,7 @@
           <t>INC1037</t>
         </is>
       </c>
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="2" t="n">
         <v>45580</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2704,6 +2366,7 @@
         <v>5</v>
       </c>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2711,7 +2374,7 @@
           <t>INC1038</t>
         </is>
       </c>
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2752,6 +2415,7 @@
         <v>5</v>
       </c>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2759,7 +2423,7 @@
           <t>INC1039</t>
         </is>
       </c>
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="2" t="n">
         <v>45700</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2800,6 +2464,7 @@
         <v>15</v>
       </c>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2807,7 +2472,7 @@
           <t>INC1040</t>
         </is>
       </c>
-      <c r="B42" s="46" t="n">
+      <c r="B42" s="2" t="n">
         <v>45624</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2848,6 +2513,7 @@
         <v>25</v>
       </c>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2855,7 +2521,7 @@
           <t>INC1041</t>
         </is>
       </c>
-      <c r="B43" s="46" t="n">
+      <c r="B43" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2896,6 +2562,7 @@
         <v>6</v>
       </c>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2903,7 +2570,7 @@
           <t>INC1042</t>
         </is>
       </c>
-      <c r="B44" s="46" t="n">
+      <c r="B44" s="2" t="n">
         <v>45637</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2944,6 +2611,7 @@
         <v>6</v>
       </c>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2951,7 +2619,7 @@
           <t>INC1043</t>
         </is>
       </c>
-      <c r="B45" s="46" t="n">
+      <c r="B45" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2992,6 +2660,7 @@
         <v>8</v>
       </c>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2999,7 +2668,7 @@
           <t>INC1044</t>
         </is>
       </c>
-      <c r="B46" s="46" t="n">
+      <c r="B46" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -3040,6 +2709,7 @@
         <v>3</v>
       </c>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3047,7 +2717,7 @@
           <t>INC1045</t>
         </is>
       </c>
-      <c r="B47" s="46" t="n">
+      <c r="B47" s="2" t="n">
         <v>45615</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -3088,6 +2758,7 @@
         <v>10</v>
       </c>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3095,7 +2766,7 @@
           <t>INC1046</t>
         </is>
       </c>
-      <c r="B48" s="46" t="n">
+      <c r="B48" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -3136,6 +2807,7 @@
         <v>4</v>
       </c>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3143,7 +2815,7 @@
           <t>INC1047</t>
         </is>
       </c>
-      <c r="B49" s="46" t="n">
+      <c r="B49" s="2" t="n">
         <v>45670</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -3184,6 +2856,7 @@
         <v>5</v>
       </c>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3191,7 +2864,7 @@
           <t>INC1048</t>
         </is>
       </c>
-      <c r="B50" s="46" t="n">
+      <c r="B50" s="2" t="n">
         <v>45855</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -3232,6 +2905,7 @@
         <v>8</v>
       </c>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3239,7 +2913,7 @@
           <t>INC1049</t>
         </is>
       </c>
-      <c r="B51" s="46" t="n">
+      <c r="B51" s="2" t="n">
         <v>45628</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -3280,6 +2954,7 @@
         <v>6</v>
       </c>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3287,7 +2962,7 @@
           <t>INC1050</t>
         </is>
       </c>
-      <c r="B52" s="46" t="n">
+      <c r="B52" s="2" t="n">
         <v>45930</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -3328,6 +3003,7 @@
         <v>15</v>
       </c>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3335,7 +3011,7 @@
           <t>INC1051</t>
         </is>
       </c>
-      <c r="B53" s="46" t="n">
+      <c r="B53" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -3376,6 +3052,7 @@
         <v>20</v>
       </c>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3383,7 +3060,7 @@
           <t>INC1052</t>
         </is>
       </c>
-      <c r="B54" s="46" t="n">
+      <c r="B54" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -3424,6 +3101,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3431,7 +3109,7 @@
           <t>INC1053</t>
         </is>
       </c>
-      <c r="B55" s="46" t="n">
+      <c r="B55" s="2" t="n">
         <v>45598</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -3472,6 +3150,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3479,7 +3158,7 @@
           <t>INC1054</t>
         </is>
       </c>
-      <c r="B56" s="46" t="n">
+      <c r="B56" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -3520,6 +3199,7 @@
         <v>12</v>
       </c>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3527,7 +3207,7 @@
           <t>INC1055</t>
         </is>
       </c>
-      <c r="B57" s="46" t="n">
+      <c r="B57" s="2" t="n">
         <v>45604</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -3568,6 +3248,7 @@
         <v>16</v>
       </c>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3575,7 +3256,7 @@
           <t>INC1056</t>
         </is>
       </c>
-      <c r="B58" s="46" t="n">
+      <c r="B58" s="2" t="n">
         <v>45852</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -3616,6 +3297,7 @@
         <v>8</v>
       </c>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3623,7 +3305,7 @@
           <t>INC1057</t>
         </is>
       </c>
-      <c r="B59" s="46" t="n">
+      <c r="B59" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -3664,6 +3346,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3671,7 +3354,7 @@
           <t>INC1058</t>
         </is>
       </c>
-      <c r="B60" s="46" t="n">
+      <c r="B60" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -3712,6 +3395,7 @@
         <v>5</v>
       </c>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3719,7 +3403,7 @@
           <t>INC1059</t>
         </is>
       </c>
-      <c r="B61" s="46" t="n">
+      <c r="B61" s="2" t="n">
         <v>45738</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -3760,6 +3444,7 @@
         <v>12</v>
       </c>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3767,7 +3452,7 @@
           <t>INC1060</t>
         </is>
       </c>
-      <c r="B62" s="46" t="n">
+      <c r="B62" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -3808,6 +3493,7 @@
         <v>10</v>
       </c>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3815,7 +3501,7 @@
           <t>INC1061</t>
         </is>
       </c>
-      <c r="B63" s="46" t="n">
+      <c r="B63" s="2" t="n">
         <v>45894</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -3856,6 +3542,7 @@
         <v>15</v>
       </c>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3863,7 +3550,7 @@
           <t>INC1062</t>
         </is>
       </c>
-      <c r="B64" s="46" t="n">
+      <c r="B64" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3904,6 +3591,7 @@
         <v>4</v>
       </c>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3911,7 +3599,7 @@
           <t>INC1063</t>
         </is>
       </c>
-      <c r="B65" s="46" t="n">
+      <c r="B65" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3952,6 +3640,7 @@
         <v>6</v>
       </c>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3959,7 +3648,7 @@
           <t>INC1064</t>
         </is>
       </c>
-      <c r="B66" s="46" t="n">
+      <c r="B66" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -4000,6 +3689,7 @@
         <v>5</v>
       </c>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4007,7 +3697,7 @@
           <t>INC1065</t>
         </is>
       </c>
-      <c r="B67" s="46" t="n">
+      <c r="B67" s="2" t="n">
         <v>45838</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -4048,6 +3738,7 @@
         <v>3</v>
       </c>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4055,7 +3746,7 @@
           <t>INC1066</t>
         </is>
       </c>
-      <c r="B68" s="46" t="n">
+      <c r="B68" s="2" t="n">
         <v>45684</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -4096,6 +3787,7 @@
         <v>15</v>
       </c>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4103,7 +3795,7 @@
           <t>INC1067</t>
         </is>
       </c>
-      <c r="B69" s="46" t="n">
+      <c r="B69" s="2" t="n">
         <v>45634</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -4144,6 +3836,7 @@
         <v>10</v>
       </c>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4151,7 +3844,7 @@
           <t>INC1068</t>
         </is>
       </c>
-      <c r="B70" s="46" t="n">
+      <c r="B70" s="2" t="n">
         <v>45753</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -4192,6 +3885,7 @@
         <v>10</v>
       </c>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4199,7 +3893,7 @@
           <t>INC1069</t>
         </is>
       </c>
-      <c r="B71" s="46" t="n">
+      <c r="B71" s="2" t="n">
         <v>45726</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -4240,6 +3934,7 @@
         <v>3</v>
       </c>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4247,7 +3942,7 @@
           <t>INC1070</t>
         </is>
       </c>
-      <c r="B72" s="46" t="n">
+      <c r="B72" s="2" t="n">
         <v>45900</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -4288,6 +3983,7 @@
         <v>5</v>
       </c>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4295,7 +3991,7 @@
           <t>INC1071</t>
         </is>
       </c>
-      <c r="B73" s="46" t="n">
+      <c r="B73" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -4336,6 +4032,7 @@
         <v>4</v>
       </c>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4343,7 +4040,7 @@
           <t>INC1072</t>
         </is>
       </c>
-      <c r="B74" s="46" t="n">
+      <c r="B74" s="2" t="n">
         <v>45742</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -4384,6 +4081,7 @@
         <v>5</v>
       </c>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4391,7 +4089,7 @@
           <t>INC1073</t>
         </is>
       </c>
-      <c r="B75" s="46" t="n">
+      <c r="B75" s="2" t="n">
         <v>45674</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -4432,6 +4130,7 @@
         <v>8</v>
       </c>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4439,7 +4138,7 @@
           <t>INC1074</t>
         </is>
       </c>
-      <c r="B76" s="46" t="n">
+      <c r="B76" s="2" t="n">
         <v>45593</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -4480,6 +4179,7 @@
         <v>3</v>
       </c>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4487,7 +4187,7 @@
           <t>INC1075</t>
         </is>
       </c>
-      <c r="B77" s="46" t="n">
+      <c r="B77" s="2" t="n">
         <v>45640</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -4528,6 +4228,7 @@
         <v>3</v>
       </c>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4535,7 +4236,7 @@
           <t>INC1076</t>
         </is>
       </c>
-      <c r="B78" s="46" t="n">
+      <c r="B78" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -4576,6 +4277,7 @@
         <v>9</v>
       </c>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4583,7 +4285,7 @@
           <t>INC1077</t>
         </is>
       </c>
-      <c r="B79" s="46" t="n">
+      <c r="B79" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -4624,6 +4326,7 @@
         <v>3</v>
       </c>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4631,7 +4334,7 @@
           <t>INC1078</t>
         </is>
       </c>
-      <c r="B80" s="46" t="n">
+      <c r="B80" s="2" t="n">
         <v>45692</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -4672,6 +4375,7 @@
         <v>4</v>
       </c>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4679,7 +4383,7 @@
           <t>INC1079</t>
         </is>
       </c>
-      <c r="B81" s="46" t="n">
+      <c r="B81" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -4720,6 +4424,7 @@
         <v>20</v>
       </c>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4727,7 +4432,7 @@
           <t>INC1080</t>
         </is>
       </c>
-      <c r="B82" s="46" t="n">
+      <c r="B82" s="2" t="n">
         <v>45648</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -4768,6 +4473,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4775,7 +4481,7 @@
           <t>INC1081</t>
         </is>
       </c>
-      <c r="B83" s="46" t="n">
+      <c r="B83" s="2" t="n">
         <v>45731</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -4816,6 +4522,7 @@
         <v>12</v>
       </c>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4823,7 +4530,7 @@
           <t>INC1082</t>
         </is>
       </c>
-      <c r="B84" s="46" t="n">
+      <c r="B84" s="2" t="n">
         <v>45736</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -4864,6 +4571,7 @@
         <v>4</v>
       </c>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4871,7 +4579,7 @@
           <t>INC1083</t>
         </is>
       </c>
-      <c r="B85" s="46" t="n">
+      <c r="B85" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -4912,6 +4620,7 @@
         <v>2</v>
       </c>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4919,7 +4628,7 @@
           <t>INC1084</t>
         </is>
       </c>
-      <c r="B86" s="46" t="n">
+      <c r="B86" s="2" t="n">
         <v>45606</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -4960,6 +4669,7 @@
         <v>8</v>
       </c>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4967,7 +4677,7 @@
           <t>INC1085</t>
         </is>
       </c>
-      <c r="B87" s="46" t="n">
+      <c r="B87" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -5008,6 +4718,7 @@
         <v>4</v>
       </c>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5015,7 +4726,7 @@
           <t>INC1086</t>
         </is>
       </c>
-      <c r="B88" s="46" t="n">
+      <c r="B88" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -5056,6 +4767,7 @@
         <v>4</v>
       </c>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5063,7 +4775,7 @@
           <t>INC1087</t>
         </is>
       </c>
-      <c r="B89" s="46" t="n">
+      <c r="B89" s="2" t="n">
         <v>45727</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -5104,6 +4816,7 @@
         <v>1</v>
       </c>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5111,7 +4824,7 @@
           <t>INC1088</t>
         </is>
       </c>
-      <c r="B90" s="46" t="n">
+      <c r="B90" s="2" t="n">
         <v>45692</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -5152,6 +4865,7 @@
         <v>10</v>
       </c>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5159,7 +4873,7 @@
           <t>INC1089</t>
         </is>
       </c>
-      <c r="B91" s="46" t="n">
+      <c r="B91" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -5200,6 +4914,7 @@
         <v>3</v>
       </c>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5207,7 +4922,7 @@
           <t>INC1090</t>
         </is>
       </c>
-      <c r="B92" s="46" t="n">
+      <c r="B92" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -5248,6 +4963,7 @@
         <v>3</v>
       </c>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5255,7 +4971,7 @@
           <t>INC1091</t>
         </is>
       </c>
-      <c r="B93" s="46" t="n">
+      <c r="B93" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -5296,6 +5012,7 @@
         <v>2</v>
       </c>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5303,7 +5020,7 @@
           <t>INC1092</t>
         </is>
       </c>
-      <c r="B94" s="46" t="n">
+      <c r="B94" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -5344,6 +5061,7 @@
         <v>20</v>
       </c>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5351,7 +5069,7 @@
           <t>INC1093</t>
         </is>
       </c>
-      <c r="B95" s="46" t="n">
+      <c r="B95" s="2" t="n">
         <v>45643</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -5392,6 +5110,7 @@
         <v>3</v>
       </c>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5399,7 +5118,7 @@
           <t>INC1094</t>
         </is>
       </c>
-      <c r="B96" s="46" t="n">
+      <c r="B96" s="2" t="n">
         <v>45879</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -5440,6 +5159,7 @@
         <v>25</v>
       </c>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5447,7 +5167,7 @@
           <t>INC1095</t>
         </is>
       </c>
-      <c r="B97" s="46" t="n">
+      <c r="B97" s="2" t="n">
         <v>45599</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -5488,6 +5208,7 @@
         <v>8</v>
       </c>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5495,7 +5216,7 @@
           <t>INC1096</t>
         </is>
       </c>
-      <c r="B98" s="46" t="n">
+      <c r="B98" s="2" t="n">
         <v>45617</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -5536,6 +5257,7 @@
         <v>4</v>
       </c>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5543,7 +5265,7 @@
           <t>INC1097</t>
         </is>
       </c>
-      <c r="B99" s="46" t="n">
+      <c r="B99" s="2" t="n">
         <v>45935</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -5584,6 +5306,7 @@
         <v>10</v>
       </c>
       <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5591,7 +5314,7 @@
           <t>INC1098</t>
         </is>
       </c>
-      <c r="B100" s="46" t="n">
+      <c r="B100" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -5632,6 +5355,7 @@
         <v>8</v>
       </c>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5639,7 +5363,7 @@
           <t>INC1099</t>
         </is>
       </c>
-      <c r="B101" s="46" t="n">
+      <c r="B101" s="2" t="n">
         <v>45815</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -5680,6 +5404,7 @@
         <v>10</v>
       </c>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5687,7 +5412,7 @@
           <t>INC1100</t>
         </is>
       </c>
-      <c r="B102" s="46" t="n">
+      <c r="B102" s="2" t="n">
         <v>45808</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -5728,6 +5453,7 @@
         <v>8</v>
       </c>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5735,7 +5461,7 @@
           <t>INC1101</t>
         </is>
       </c>
-      <c r="B103" s="46" t="n">
+      <c r="B103" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -5776,6 +5502,7 @@
         <v>10</v>
       </c>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5783,7 +5510,7 @@
           <t>INC1102</t>
         </is>
       </c>
-      <c r="B104" s="46" t="n">
+      <c r="B104" s="2" t="n">
         <v>45805</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -5824,6 +5551,7 @@
         <v>10</v>
       </c>
       <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5831,7 +5559,7 @@
           <t>INC1103</t>
         </is>
       </c>
-      <c r="B105" s="46" t="n">
+      <c r="B105" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -5872,6 +5600,7 @@
         <v>4</v>
       </c>
       <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5879,7 +5608,7 @@
           <t>INC1104</t>
         </is>
       </c>
-      <c r="B106" s="46" t="n">
+      <c r="B106" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -5920,6 +5649,7 @@
         <v>2</v>
       </c>
       <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5927,7 +5657,7 @@
           <t>INC1105</t>
         </is>
       </c>
-      <c r="B107" s="46" t="n">
+      <c r="B107" s="2" t="n">
         <v>45655</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -5968,6 +5698,7 @@
         <v>15</v>
       </c>
       <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5975,7 +5706,7 @@
           <t>INC1106</t>
         </is>
       </c>
-      <c r="B108" s="46" t="n">
+      <c r="B108" s="2" t="n">
         <v>45683</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -6016,6 +5747,7 @@
         <v>25</v>
       </c>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6023,7 +5755,7 @@
           <t>INC1107</t>
         </is>
       </c>
-      <c r="B109" s="46" t="n">
+      <c r="B109" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -6064,6 +5796,7 @@
         <v>9</v>
       </c>
       <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6071,7 +5804,7 @@
           <t>INC1108</t>
         </is>
       </c>
-      <c r="B110" s="46" t="n">
+      <c r="B110" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -6112,6 +5845,7 @@
         <v>6</v>
       </c>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6119,7 +5853,7 @@
           <t>INC1109</t>
         </is>
       </c>
-      <c r="B111" s="46" t="n">
+      <c r="B111" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -6160,6 +5894,7 @@
         <v>3</v>
       </c>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6167,7 +5902,7 @@
           <t>INC1110</t>
         </is>
       </c>
-      <c r="B112" s="46" t="n">
+      <c r="B112" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -6208,6 +5943,7 @@
         <v>2</v>
       </c>
       <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6215,7 +5951,7 @@
           <t>INC1111</t>
         </is>
       </c>
-      <c r="B113" s="46" t="n">
+      <c r="B113" s="2" t="n">
         <v>45743</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -6256,6 +5992,7 @@
         <v>3</v>
       </c>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6263,7 +6000,7 @@
           <t>INC1112</t>
         </is>
       </c>
-      <c r="B114" s="46" t="n">
+      <c r="B114" s="2" t="n">
         <v>45616</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -6304,6 +6041,7 @@
         <v>10</v>
       </c>
       <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6311,7 +6049,7 @@
           <t>INC1113</t>
         </is>
       </c>
-      <c r="B115" s="46" t="n">
+      <c r="B115" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -6352,6 +6090,7 @@
         <v>20</v>
       </c>
       <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6359,7 +6098,7 @@
           <t>INC1114</t>
         </is>
       </c>
-      <c r="B116" s="46" t="n">
+      <c r="B116" s="2" t="n">
         <v>45911</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -6400,6 +6139,7 @@
         <v>2</v>
       </c>
       <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6407,7 +6147,7 @@
           <t>INC1115</t>
         </is>
       </c>
-      <c r="B117" s="46" t="n">
+      <c r="B117" s="2" t="n">
         <v>45896</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -6448,6 +6188,7 @@
         <v>12</v>
       </c>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6455,7 +6196,7 @@
           <t>INC1116</t>
         </is>
       </c>
-      <c r="B118" s="46" t="n">
+      <c r="B118" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -6496,6 +6237,7 @@
         <v>16</v>
       </c>
       <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6503,7 +6245,7 @@
           <t>INC1117</t>
         </is>
       </c>
-      <c r="B119" s="46" t="n">
+      <c r="B119" s="2" t="n">
         <v>45728</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -6544,6 +6286,7 @@
         <v>3</v>
       </c>
       <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6551,7 +6294,7 @@
           <t>INC1118</t>
         </is>
       </c>
-      <c r="B120" s="46" t="n">
+      <c r="B120" s="2" t="n">
         <v>45651</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -6592,6 +6335,7 @@
         <v>9</v>
       </c>
       <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6599,7 +6343,7 @@
           <t>INC1119</t>
         </is>
       </c>
-      <c r="B121" s="46" t="n">
+      <c r="B121" s="2" t="n">
         <v>45845</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -6640,6 +6384,7 @@
         <v>12</v>
       </c>
       <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6647,7 +6392,7 @@
           <t>INC1120</t>
         </is>
       </c>
-      <c r="B122" s="46" t="n">
+      <c r="B122" s="2" t="n">
         <v>45772</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -6688,6 +6433,7 @@
         <v>4</v>
       </c>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6695,7 +6441,7 @@
           <t>INC1121</t>
         </is>
       </c>
-      <c r="B123" s="46" t="n">
+      <c r="B123" s="2" t="n">
         <v>45584</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -6736,6 +6482,7 @@
         <v>10</v>
       </c>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6743,7 +6490,7 @@
           <t>INC1122</t>
         </is>
       </c>
-      <c r="B124" s="46" t="n">
+      <c r="B124" s="2" t="n">
         <v>45730</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -6784,6 +6531,7 @@
         <v>6</v>
       </c>
       <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6791,7 +6539,7 @@
           <t>INC1123</t>
         </is>
       </c>
-      <c r="B125" s="46" t="n">
+      <c r="B125" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -6832,6 +6580,7 @@
         <v>15</v>
       </c>
       <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6839,7 +6588,7 @@
           <t>INC1124</t>
         </is>
       </c>
-      <c r="B126" s="46" t="n">
+      <c r="B126" s="2" t="n">
         <v>45717</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -6880,6 +6629,7 @@
         <v>1</v>
       </c>
       <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6887,7 +6637,7 @@
           <t>INC1125</t>
         </is>
       </c>
-      <c r="B127" s="46" t="n">
+      <c r="B127" s="2" t="n">
         <v>45843</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -6928,6 +6678,7 @@
         <v>20</v>
       </c>
       <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6935,7 +6686,7 @@
           <t>INC1126</t>
         </is>
       </c>
-      <c r="B128" s="46" t="n">
+      <c r="B128" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -6976,6 +6727,7 @@
         <v>4</v>
       </c>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6983,7 +6735,7 @@
           <t>INC1127</t>
         </is>
       </c>
-      <c r="B129" s="46" t="n">
+      <c r="B129" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -7024,6 +6776,7 @@
         <v>12</v>
       </c>
       <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7031,7 +6784,7 @@
           <t>INC1128</t>
         </is>
       </c>
-      <c r="B130" s="46" t="n">
+      <c r="B130" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -7072,6 +6825,7 @@
         <v>6</v>
       </c>
       <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7079,7 +6833,7 @@
           <t>INC1129</t>
         </is>
       </c>
-      <c r="B131" s="46" t="n">
+      <c r="B131" s="2" t="n">
         <v>45726</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -7120,6 +6874,7 @@
         <v>16</v>
       </c>
       <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7127,7 +6882,7 @@
           <t>INC1130</t>
         </is>
       </c>
-      <c r="B132" s="46" t="n">
+      <c r="B132" s="2" t="n">
         <v>45689</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -7168,6 +6923,7 @@
         <v>20</v>
       </c>
       <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7175,7 +6931,7 @@
           <t>INC1131</t>
         </is>
       </c>
-      <c r="B133" s="46" t="n">
+      <c r="B133" s="2" t="n">
         <v>45585</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -7216,6 +6972,7 @@
         <v>15</v>
       </c>
       <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7223,7 +6980,7 @@
           <t>INC1132</t>
         </is>
       </c>
-      <c r="B134" s="46" t="n">
+      <c r="B134" s="2" t="n">
         <v>45661</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -7264,6 +7021,7 @@
         <v>5</v>
       </c>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7271,7 +7029,7 @@
           <t>INC1133</t>
         </is>
       </c>
-      <c r="B135" s="46" t="n">
+      <c r="B135" s="2" t="n">
         <v>45737</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -7312,6 +7070,7 @@
         <v>10</v>
       </c>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7319,7 +7078,7 @@
           <t>INC1134</t>
         </is>
       </c>
-      <c r="B136" s="46" t="n">
+      <c r="B136" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -7360,6 +7119,7 @@
         <v>3</v>
       </c>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7367,7 +7127,7 @@
           <t>INC1135</t>
         </is>
       </c>
-      <c r="B137" s="46" t="n">
+      <c r="B137" s="2" t="n">
         <v>45598</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -7408,6 +7168,7 @@
         <v>6</v>
       </c>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7415,7 +7176,7 @@
           <t>INC1136</t>
         </is>
       </c>
-      <c r="B138" s="46" t="n">
+      <c r="B138" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -7456,6 +7217,7 @@
         <v>6</v>
       </c>
       <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7463,7 +7225,7 @@
           <t>INC1137</t>
         </is>
       </c>
-      <c r="B139" s="46" t="n">
+      <c r="B139" s="2" t="n">
         <v>45765</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -7504,6 +7266,7 @@
         <v>8</v>
       </c>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7511,7 +7274,7 @@
           <t>INC1138</t>
         </is>
       </c>
-      <c r="B140" s="46" t="n">
+      <c r="B140" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -7552,6 +7315,7 @@
         <v>15</v>
       </c>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7559,7 +7323,7 @@
           <t>INC1139</t>
         </is>
       </c>
-      <c r="B141" s="46" t="n">
+      <c r="B141" s="2" t="n">
         <v>45592</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -7600,6 +7364,7 @@
         <v>25</v>
       </c>
       <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7607,7 +7372,7 @@
           <t>INC1140</t>
         </is>
       </c>
-      <c r="B142" s="46" t="n">
+      <c r="B142" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -7648,6 +7413,7 @@
         <v>10</v>
       </c>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7655,7 +7421,7 @@
           <t>INC1141</t>
         </is>
       </c>
-      <c r="B143" s="46" t="n">
+      <c r="B143" s="2" t="n">
         <v>45703</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -7696,6 +7462,7 @@
         <v>12</v>
       </c>
       <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7703,7 +7470,7 @@
           <t>INC1142</t>
         </is>
       </c>
-      <c r="B144" s="46" t="n">
+      <c r="B144" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -7744,6 +7511,7 @@
         <v>8</v>
       </c>
       <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7751,7 +7519,7 @@
           <t>INC1143</t>
         </is>
       </c>
-      <c r="B145" s="46" t="n">
+      <c r="B145" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -7792,6 +7560,7 @@
         <v>10</v>
       </c>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7799,7 +7568,7 @@
           <t>INC1144</t>
         </is>
       </c>
-      <c r="B146" s="46" t="n">
+      <c r="B146" s="2" t="n">
         <v>45722</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -7840,6 +7609,7 @@
         <v>10</v>
       </c>
       <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7847,7 +7617,7 @@
           <t>INC1145</t>
         </is>
       </c>
-      <c r="B147" s="46" t="n">
+      <c r="B147" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -7888,6 +7658,7 @@
         <v>12</v>
       </c>
       <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7895,7 +7666,7 @@
           <t>INC1146</t>
         </is>
       </c>
-      <c r="B148" s="46" t="n">
+      <c r="B148" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -7936,6 +7707,7 @@
         <v>10</v>
       </c>
       <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7943,7 +7715,7 @@
           <t>INC1147</t>
         </is>
       </c>
-      <c r="B149" s="46" t="n">
+      <c r="B149" s="2" t="n">
         <v>45801</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -7984,6 +7756,7 @@
         <v>5</v>
       </c>
       <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7991,7 +7764,7 @@
           <t>INC1148</t>
         </is>
       </c>
-      <c r="B150" s="46" t="n">
+      <c r="B150" s="2" t="n">
         <v>45773</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -8032,6 +7805,7 @@
         <v>9</v>
       </c>
       <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8039,7 +7813,7 @@
           <t>INC1149</t>
         </is>
       </c>
-      <c r="B151" s="46" t="n">
+      <c r="B151" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -8080,6 +7854,7 @@
         <v>3</v>
       </c>
       <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8087,7 +7862,7 @@
           <t>INC1150</t>
         </is>
       </c>
-      <c r="B152" s="46" t="n">
+      <c r="B152" s="2" t="n">
         <v>45908</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -8128,6 +7903,7 @@
         <v>4</v>
       </c>
       <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8135,7 +7911,7 @@
           <t>INC1151</t>
         </is>
       </c>
-      <c r="B153" s="46" t="n">
+      <c r="B153" s="2" t="n">
         <v>45931</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -8176,6 +7952,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8183,7 +7960,7 @@
           <t>INC1152</t>
         </is>
       </c>
-      <c r="B154" s="46" t="n">
+      <c r="B154" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -8224,6 +8001,7 @@
         <v>6</v>
       </c>
       <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8231,7 +8009,7 @@
           <t>INC1153</t>
         </is>
       </c>
-      <c r="B155" s="46" t="n">
+      <c r="B155" s="2" t="n">
         <v>45617</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -8272,6 +8050,7 @@
         <v>12</v>
       </c>
       <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8279,7 +8058,7 @@
           <t>INC1154</t>
         </is>
       </c>
-      <c r="B156" s="46" t="n">
+      <c r="B156" s="2" t="n">
         <v>45757</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -8320,6 +8099,7 @@
         <v>25</v>
       </c>
       <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8327,7 +8107,7 @@
           <t>INC1155</t>
         </is>
       </c>
-      <c r="B157" s="46" t="n">
+      <c r="B157" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -8368,6 +8148,7 @@
         <v>15</v>
       </c>
       <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8375,7 +8156,7 @@
           <t>INC1156</t>
         </is>
       </c>
-      <c r="B158" s="46" t="n">
+      <c r="B158" s="2" t="n">
         <v>45858</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -8416,6 +8197,7 @@
         <v>3</v>
       </c>
       <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8423,7 +8205,7 @@
           <t>INC1157</t>
         </is>
       </c>
-      <c r="B159" s="46" t="n">
+      <c r="B159" s="2" t="n">
         <v>45660</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -8464,6 +8246,7 @@
         <v>8</v>
       </c>
       <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8471,7 +8254,7 @@
           <t>INC1158</t>
         </is>
       </c>
-      <c r="B160" s="46" t="n">
+      <c r="B160" s="2" t="n">
         <v>45878</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -8512,6 +8295,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8519,7 +8303,7 @@
           <t>INC1159</t>
         </is>
       </c>
-      <c r="B161" s="46" t="n">
+      <c r="B161" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -8560,6 +8344,7 @@
         <v>10</v>
       </c>
       <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8567,7 +8352,7 @@
           <t>INC1160</t>
         </is>
       </c>
-      <c r="B162" s="46" t="n">
+      <c r="B162" s="2" t="n">
         <v>45899</v>
       </c>
       <c r="C162" t="inlineStr">
@@ -8608,6 +8393,7 @@
         <v>8</v>
       </c>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8615,7 +8401,7 @@
           <t>INC1161</t>
         </is>
       </c>
-      <c r="B163" s="46" t="n">
+      <c r="B163" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -8656,6 +8442,7 @@
         <v>20</v>
       </c>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8663,7 +8450,7 @@
           <t>INC1162</t>
         </is>
       </c>
-      <c r="B164" s="46" t="n">
+      <c r="B164" s="2" t="n">
         <v>45810</v>
       </c>
       <c r="C164" t="inlineStr">
@@ -8704,6 +8491,7 @@
         <v>20</v>
       </c>
       <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8711,7 +8499,7 @@
           <t>INC1163</t>
         </is>
       </c>
-      <c r="B165" s="46" t="n">
+      <c r="B165" s="2" t="n">
         <v>45660</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -8752,6 +8540,7 @@
         <v>25</v>
       </c>
       <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8759,7 +8548,7 @@
           <t>INC1164</t>
         </is>
       </c>
-      <c r="B166" s="46" t="n">
+      <c r="B166" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -8800,6 +8589,7 @@
         <v>16</v>
       </c>
       <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8807,7 +8597,7 @@
           <t>INC1165</t>
         </is>
       </c>
-      <c r="B167" s="46" t="n">
+      <c r="B167" s="2" t="n">
         <v>45836</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -8848,6 +8638,7 @@
         <v>16</v>
       </c>
       <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8855,7 +8646,7 @@
           <t>INC1166</t>
         </is>
       </c>
-      <c r="B168" s="46" t="n">
+      <c r="B168" s="2" t="n">
         <v>45900</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -8896,6 +8687,7 @@
         <v>16</v>
       </c>
       <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8903,7 +8695,7 @@
           <t>INC1167</t>
         </is>
       </c>
-      <c r="B169" s="46" t="n">
+      <c r="B169" s="2" t="n">
         <v>45604</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -8944,6 +8736,7 @@
         <v>8</v>
       </c>
       <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8951,7 +8744,7 @@
           <t>INC1168</t>
         </is>
       </c>
-      <c r="B170" s="46" t="n">
+      <c r="B170" s="2" t="n">
         <v>45658</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -8992,6 +8785,7 @@
         <v>16</v>
       </c>
       <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8999,7 +8793,7 @@
           <t>INC1169</t>
         </is>
       </c>
-      <c r="B171" s="46" t="n">
+      <c r="B171" s="2" t="n">
         <v>45613</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -9040,6 +8834,7 @@
         <v>6</v>
       </c>
       <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9047,7 +8842,7 @@
           <t>INC1170</t>
         </is>
       </c>
-      <c r="B172" s="46" t="n">
+      <c r="B172" s="2" t="n">
         <v>45816</v>
       </c>
       <c r="C172" t="inlineStr">
@@ -9088,6 +8883,7 @@
         <v>1</v>
       </c>
       <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9095,7 +8891,7 @@
           <t>INC1171</t>
         </is>
       </c>
-      <c r="B173" s="46" t="n">
+      <c r="B173" s="2" t="n">
         <v>45596</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -9136,6 +8932,7 @@
         <v>12</v>
       </c>
       <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9143,7 +8940,7 @@
           <t>INC1172</t>
         </is>
       </c>
-      <c r="B174" s="46" t="n">
+      <c r="B174" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -9184,6 +8981,7 @@
         <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9191,7 +8989,7 @@
           <t>INC1173</t>
         </is>
       </c>
-      <c r="B175" s="46" t="n">
+      <c r="B175" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="C175" t="inlineStr">
@@ -9232,6 +9030,7 @@
         <v>8</v>
       </c>
       <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9239,7 +9038,7 @@
           <t>INC1174</t>
         </is>
       </c>
-      <c r="B176" s="46" t="n">
+      <c r="B176" s="2" t="n">
         <v>45719</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -9280,6 +9079,7 @@
         <v>2</v>
       </c>
       <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9287,7 +9087,7 @@
           <t>INC1175</t>
         </is>
       </c>
-      <c r="B177" s="46" t="n">
+      <c r="B177" s="2" t="n">
         <v>45661</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -9328,6 +9128,7 @@
         <v>10</v>
       </c>
       <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9335,7 +9136,7 @@
           <t>INC1176</t>
         </is>
       </c>
-      <c r="B178" s="46" t="n">
+      <c r="B178" s="2" t="n">
         <v>45823</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -9376,6 +9177,7 @@
         <v>6</v>
       </c>
       <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9383,7 +9185,7 @@
           <t>INC1177</t>
         </is>
       </c>
-      <c r="B179" s="46" t="n">
+      <c r="B179" s="2" t="n">
         <v>45828</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -9424,6 +9226,7 @@
         <v>8</v>
       </c>
       <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9431,7 +9234,7 @@
           <t>INC1178</t>
         </is>
       </c>
-      <c r="B180" s="46" t="n">
+      <c r="B180" s="2" t="n">
         <v>45711</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -9472,6 +9275,7 @@
         <v>4</v>
       </c>
       <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9479,7 +9283,7 @@
           <t>INC1179</t>
         </is>
       </c>
-      <c r="B181" s="46" t="n">
+      <c r="B181" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -9520,6 +9324,7 @@
         <v>10</v>
       </c>
       <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9527,7 +9332,7 @@
           <t>INC1180</t>
         </is>
       </c>
-      <c r="B182" s="46" t="n">
+      <c r="B182" s="2" t="n">
         <v>45585</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -9568,6 +9373,7 @@
         <v>16</v>
       </c>
       <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9575,7 +9381,7 @@
           <t>INC1181</t>
         </is>
       </c>
-      <c r="B183" s="46" t="n">
+      <c r="B183" s="2" t="n">
         <v>45746</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -9616,6 +9422,7 @@
         <v>8</v>
       </c>
       <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9623,7 +9430,7 @@
           <t>INC1182</t>
         </is>
       </c>
-      <c r="B184" s="46" t="n">
+      <c r="B184" s="2" t="n">
         <v>45807</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -9664,6 +9471,7 @@
         <v>9</v>
       </c>
       <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9671,7 +9479,7 @@
           <t>INC1183</t>
         </is>
       </c>
-      <c r="B185" s="46" t="n">
+      <c r="B185" s="2" t="n">
         <v>45626</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -9712,6 +9520,7 @@
         <v>9</v>
       </c>
       <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9719,7 +9528,7 @@
           <t>INC1184</t>
         </is>
       </c>
-      <c r="B186" s="46" t="n">
+      <c r="B186" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -9760,6 +9569,7 @@
         <v>8</v>
       </c>
       <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9767,7 +9577,7 @@
           <t>INC1185</t>
         </is>
       </c>
-      <c r="B187" s="46" t="n">
+      <c r="B187" s="2" t="n">
         <v>45719</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -9808,6 +9618,7 @@
         <v>25</v>
       </c>
       <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9815,7 +9626,7 @@
           <t>INC1186</t>
         </is>
       </c>
-      <c r="B188" s="46" t="n">
+      <c r="B188" s="2" t="n">
         <v>45637</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -9856,6 +9667,7 @@
         <v>16</v>
       </c>
       <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9863,7 +9675,7 @@
           <t>INC1187</t>
         </is>
       </c>
-      <c r="B189" s="46" t="n">
+      <c r="B189" s="2" t="n">
         <v>45710</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -9904,6 +9716,7 @@
         <v>15</v>
       </c>
       <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9911,7 +9724,7 @@
           <t>INC1188</t>
         </is>
       </c>
-      <c r="B190" s="46" t="n">
+      <c r="B190" s="2" t="n">
         <v>45772</v>
       </c>
       <c r="C190" t="inlineStr">
@@ -9952,6 +9765,7 @@
         <v>15</v>
       </c>
       <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9959,7 +9773,7 @@
           <t>INC1189</t>
         </is>
       </c>
-      <c r="B191" s="46" t="n">
+      <c r="B191" s="2" t="n">
         <v>45792</v>
       </c>
       <c r="C191" t="inlineStr">
@@ -10000,6 +9814,7 @@
         <v>2</v>
       </c>
       <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10007,7 +9822,7 @@
           <t>INC1190</t>
         </is>
       </c>
-      <c r="B192" s="46" t="n">
+      <c r="B192" s="2" t="n">
         <v>45629</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -10048,6 +9863,7 @@
         <v>15</v>
       </c>
       <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10055,7 +9871,7 @@
           <t>INC1191</t>
         </is>
       </c>
-      <c r="B193" s="46" t="n">
+      <c r="B193" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -10096,6 +9912,7 @@
         <v>3</v>
       </c>
       <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10103,7 +9920,7 @@
           <t>INC1192</t>
         </is>
       </c>
-      <c r="B194" s="46" t="n">
+      <c r="B194" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -10144,6 +9961,7 @@
         <v>6</v>
       </c>
       <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10151,7 +9969,7 @@
           <t>INC1193</t>
         </is>
       </c>
-      <c r="B195" s="46" t="n">
+      <c r="B195" s="2" t="n">
         <v>45711</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -10192,6 +10010,7 @@
         <v>4</v>
       </c>
       <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10199,7 +10018,7 @@
           <t>INC1194</t>
         </is>
       </c>
-      <c r="B196" s="46" t="n">
+      <c r="B196" s="2" t="n">
         <v>45764</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -10240,6 +10059,7 @@
         <v>8</v>
       </c>
       <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10247,7 +10067,7 @@
           <t>INC1195</t>
         </is>
       </c>
-      <c r="B197" s="46" t="n">
+      <c r="B197" s="2" t="n">
         <v>45831</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -10288,6 +10108,7 @@
         <v>4</v>
       </c>
       <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10295,7 +10116,7 @@
           <t>INC1196</t>
         </is>
       </c>
-      <c r="B198" s="46" t="n">
+      <c r="B198" s="2" t="n">
         <v>45626</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -10336,6 +10157,7 @@
         <v>20</v>
       </c>
       <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10343,7 +10165,7 @@
           <t>INC1197</t>
         </is>
       </c>
-      <c r="B199" s="46" t="n">
+      <c r="B199" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -10384,6 +10206,7 @@
         <v>8</v>
       </c>
       <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10391,7 +10214,7 @@
           <t>INC1198</t>
         </is>
       </c>
-      <c r="B200" s="46" t="n">
+      <c r="B200" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -10432,6 +10255,7 @@
         <v>5</v>
       </c>
       <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10439,7 +10263,7 @@
           <t>INC1199</t>
         </is>
       </c>
-      <c r="B201" s="46" t="n">
+      <c r="B201" s="2" t="n">
         <v>45649</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -10480,6 +10304,7 @@
         <v>15</v>
       </c>
       <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10487,7 +10312,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B202" s="46" t="n">
+      <c r="B202" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -10538,6 +10363,7 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10545,7 +10371,7 @@
           <t>Prueba</t>
         </is>
       </c>
-      <c r="B203" s="46" t="n">
+      <c r="B203" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -10596,6 +10422,62 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Casi Accidente</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Acoso</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Fatalidad (es)</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Fatalidad (es) x Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10608,2522 +10490,2577 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col width="9.140625" customWidth="1" min="1" max="1"/>
-    <col width="25.85546875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="33.140625" customWidth="1" style="4" min="3" max="3"/>
-    <col width="53.5703125" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="37.28515625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="26.5703125" customWidth="1" style="7" min="6" max="6"/>
-    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="7" max="7"/>
-    <col width="29.140625" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col hidden="1" width="3.85546875" customWidth="1" style="7" min="9" max="9"/>
-    <col width="12.5703125" customWidth="1" style="6" min="10" max="10"/>
-    <col hidden="1" width="5.140625" customWidth="1" style="8" min="11" max="11"/>
-    <col width="19.28515625" customWidth="1" style="7" min="12" max="12"/>
-    <col width="30.85546875" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
-    <col width="50.42578125" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="9" min="15" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="38.25" customFormat="1" customHeight="1" s="10">
-      <c r="A1" s="26" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID_Riesgo</t>
         </is>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Clasificación de peligro</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Peligro</t>
         </is>
       </c>
-      <c r="D1" s="27" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Fuente o actividad</t>
         </is>
       </c>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tipo de puesto</t>
         </is>
       </c>
-      <c r="F1" s="27" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Probabilidad</t>
         </is>
       </c>
-      <c r="G1" s="28" t="n"/>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Severidad</t>
         </is>
       </c>
-      <c r="I1" s="29" t="n"/>
-      <c r="J1" s="30" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Nivel de Riesgo</t>
         </is>
       </c>
-      <c r="K1" s="30" t="n"/>
-      <c r="L1" s="27" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Jerarquía de riesgo</t>
         </is>
       </c>
-      <c r="M1" s="27" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Medidas de control</t>
         </is>
       </c>
-      <c r="N1" s="31" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hallazgos/Oportunidades de mejora</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="60.75" customHeight="1">
-      <c r="A2" s="32" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Nivel</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>R105</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Atropellamiento</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Uso de pasos peatonales dentro de bodega.</t>
         </is>
       </c>
-      <c r="E2" s="43" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Puestos con actividades operativas</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Pasó alguna vez</t>
         </is>
       </c>
-      <c r="G2" s="12" t="n">
+      <c r="G2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="I2" t="n">
         <v>12</v>
       </c>
-      <c r="J2" s="14" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K2" s="15">
-        <f>G2*I2</f>
-        <v/>
-      </c>
-      <c r="L2" s="12" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M2" s="11" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Señalización y pasos peatonales</t>
         </is>
       </c>
-      <c r="N2" s="33" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Capacitación sobre el manejo seguro a las áreas opeativas, capacitación sobre medidas de seguridad equipo administrativo, creación de pasos peatonales operativos</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="38.25" customHeight="1">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>R106</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Caidas a nivel</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Caminos dañados, desnivelados o pisos mojados.</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K3" s="15">
-        <f>G3*I3</f>
-        <v/>
-      </c>
-      <c r="L3" s="12" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M3" s="11" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Señalización y colocación de cintas antideslizantes</t>
         </is>
       </c>
-      <c r="N3" s="33" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Inspecciones de pisos y superficies en conjunto a capacitaciones sobre el trabajo seguro.</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="38.25" customHeight="1">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>R107</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Caidas a diferente nivel</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Uso continuo de gradas y superficies desniveladas (Rampas)</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" t="n">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="14" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K4" s="15">
-        <f>G4*I4</f>
-        <v/>
-      </c>
-      <c r="L4" s="12" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M4" s="11" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Uso de EPP anti caida, escaleras fijas, lineas de vida</t>
         </is>
       </c>
-      <c r="N4" s="33" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Inspecciones de gradas, escaleras y rampas, en conjunto de capacitaciones sobre trabajo seguro</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="32" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>R108</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Choque contra objetos mecánicos</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Cargas, vehiculos, ayudas mécanicas u objeto que se encuentran en las instalaciones</t>
         </is>
       </c>
-      <c r="E5" s="43" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Pasó alguna vez</t>
         </is>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="12" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="16" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K5" s="15">
-        <f>G5*I5</f>
-        <v/>
-      </c>
-      <c r="L5" s="12" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M5" s="11" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Señalización e inspecciones de orden y limpieza</t>
         </is>
       </c>
-      <c r="N5" s="33" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Inspecciones de las instalaciones en temas de orden y limpieza.</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="38.25" customHeight="1">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>R109</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Aplastamiento</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
         </is>
       </c>
-      <c r="E6" s="43" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" s="16" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K6" s="15">
-        <f>G6*I6</f>
-        <v/>
-      </c>
-      <c r="L6" s="12" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M6" s="11" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Uso de EPP, Señalización visual en montacrgas</t>
         </is>
       </c>
-      <c r="N6" s="33" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Analisís de estructuras y equipo de almacenamiento en general</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="51.75" customHeight="1">
-      <c r="A7" s="32" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>R110</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Atrapamiento</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Lugar de trabajo (Infraestructura, estanterias, objeto pesados u colgantes)</t>
         </is>
       </c>
-      <c r="E7" s="43" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="12" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" t="n">
         <v>12</v>
       </c>
-      <c r="J7" s="16" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K7" s="15">
-        <f>G7*I7</f>
-        <v/>
-      </c>
-      <c r="L7" s="12" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M7" s="11" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Señalización e inspecciones de orden y limpieza</t>
         </is>
       </c>
-      <c r="N7" s="33" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Analisís de estructuras y equipo de almacenamiento en general</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="46.5" customHeight="1">
-      <c r="A8" s="32" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>R111</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Cortes y hemorragías</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Uso de equipos de corte (flejadoras y cuchillas)</t>
         </is>
       </c>
-      <c r="E8" s="43" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" t="n">
         <v>9</v>
       </c>
-      <c r="H8" s="12" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" t="n">
         <v>12</v>
       </c>
-      <c r="J8" s="17" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Alto</t>
         </is>
       </c>
-      <c r="K8" s="15">
-        <f>G8*I8</f>
-        <v/>
-      </c>
-      <c r="L8" s="12" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M8" s="11" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Uso de EPP</t>
         </is>
       </c>
-      <c r="N8" s="33" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="32" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>R112</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Contusiones leves y severas (caida de objetos)</t>
         </is>
       </c>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Cargas u objetos elevados (lámparas, cargas u objetos en general)</t>
         </is>
       </c>
-      <c r="E9" s="43" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Puestos con actividades operativas</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="12" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="16" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K9" s="15">
-        <f>G9*I9</f>
-        <v/>
-      </c>
-      <c r="L9" s="12" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M9" s="11" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Señalización, uso de EPP</t>
         </is>
       </c>
-      <c r="N9" s="33" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Caminatas de seguridad e inspección sobre condiciones inseguras de trabajo en cuanto a objetos colgantes.</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="45" customHeight="1">
-      <c r="A10" s="32" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>R113</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Mecánicos</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Lumbalgías y lesiones musculoesqueleticas</t>
         </is>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Malas posturas, posturas forzadas y repetitivas</t>
         </is>
       </c>
-      <c r="E10" s="43" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Puestos con actividades operativas</t>
         </is>
       </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="12" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="14" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K10" s="15">
-        <f>G10*I10</f>
-        <v/>
-      </c>
-      <c r="L10" s="12" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M10" s="11" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Uso de EPP</t>
         </is>
       </c>
-      <c r="N10" s="33" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="46.5" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>R114</t>
         </is>
       </c>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Migrañas, lesiones oculares (agravamiento de miopia y astigmatismo)</t>
         </is>
       </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Ilumnación deficiente</t>
         </is>
       </c>
-      <c r="E11" s="41" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Pasa una vez o más al mes</t>
         </is>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" t="n">
         <v>12</v>
       </c>
-      <c r="H11" s="12" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Lesión leve o sin impacto</t>
         </is>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="16" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K11" s="15">
-        <f>G11*I11</f>
-        <v/>
-      </c>
-      <c r="L11" s="12" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M11" s="11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Buena iluminación en las areas de trabajo</t>
         </is>
       </c>
-      <c r="N11" s="33" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Estudio de iluminación y mantenimiento</t>
         </is>
       </c>
-    </row>
-    <row r="12" ht="59.25" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>R115</t>
         </is>
       </c>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Tendinitis</t>
         </is>
       </c>
-      <c r="D12" s="12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Uso de equipos que causan vibración (Computadoras, herramientas, vehiculos, etc)</t>
         </is>
       </c>
-      <c r="E12" s="41" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" t="n">
         <v>9</v>
       </c>
-      <c r="H12" s="12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" t="n">
         <v>12</v>
       </c>
-      <c r="J12" s="17" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Alto</t>
         </is>
       </c>
-      <c r="K12" s="15">
-        <f>G12*I12</f>
-        <v/>
-      </c>
-      <c r="L12" s="12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M12" s="11" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Hacer pausas activas</t>
         </is>
       </c>
-      <c r="N12" s="33" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Capacitaciones sobre ergonomía y uso de ayudas.</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>R116</t>
         </is>
       </c>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Desmayos o golpes/choques de calor</t>
         </is>
       </c>
-      <c r="D13" s="12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Estaciones de trabajo con alto nivel de estrés térmico.</t>
         </is>
       </c>
-      <c r="E13" s="41" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Puestos con actividades administrativas</t>
         </is>
       </c>
-      <c r="F13" s="12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" t="n">
         <v>9</v>
       </c>
-      <c r="H13" s="12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="14" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K13" s="15">
-        <f>G13*I13</f>
-        <v/>
-      </c>
-      <c r="L13" s="12" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M13" s="11" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Hidratación,  techos aislantes</t>
         </is>
       </c>
-      <c r="N13" s="33" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Monitorear la temperatura</t>
         </is>
       </c>
-    </row>
-    <row r="14" ht="45" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>R117</t>
         </is>
       </c>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Golpe o choque de calor y quemaduras de 1er y 2do grado.</t>
         </is>
       </c>
-      <c r="D14" s="12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Exposición prolongada a los rayos UV</t>
         </is>
       </c>
-      <c r="E14" s="41" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Puestos con actividades operativas</t>
         </is>
       </c>
-      <c r="F14" s="12" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" t="n">
         <v>9</v>
       </c>
-      <c r="H14" s="12" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" t="n">
         <v>6</v>
       </c>
-      <c r="J14" s="14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K14" s="15">
-        <f>G14*I14</f>
-        <v/>
-      </c>
-      <c r="L14" s="12" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M14" s="11" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Bloqueador Solar y Uso de EPP</t>
         </is>
       </c>
-      <c r="N14" s="33" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Señalización, pausas activas y uso de bloqueador solar</t>
         </is>
       </c>
-    </row>
-    <row r="15" ht="55.5" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>R118</t>
         </is>
       </c>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C15" s="12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Deshidratación</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Exposición prolongada a los rayos UV</t>
         </is>
       </c>
-      <c r="E15" s="41" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Puestos con actividades operativas</t>
         </is>
       </c>
-      <c r="F15" s="12" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Pasó alguna vez</t>
         </is>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" t="n">
         <v>6</v>
       </c>
-      <c r="H15" s="12" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" t="n">
         <v>6</v>
       </c>
-      <c r="J15" s="16" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K15" s="15">
-        <f>G15*I15</f>
-        <v/>
-      </c>
-      <c r="L15" s="12" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M15" s="11" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Oasis o dispensadores de agua</t>
         </is>
       </c>
-      <c r="N15" s="33" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Capacitación sobre trabajo seguro, pausas activas y evaluación médica periódica.</t>
         </is>
       </c>
-    </row>
-    <row r="16" ht="55.5" customHeight="1">
-      <c r="A16" s="32" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>R119</t>
         </is>
       </c>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C16" s="12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Lesiones a mediano o largo plazo hacia sentido auditivo</t>
         </is>
       </c>
-      <c r="D16" s="12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruidos estridentes (Altos decibeles) por aterrizajes y despegues de aviones) </t>
         </is>
       </c>
-      <c r="E16" s="41" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F16" s="12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" t="n">
         <v>12</v>
       </c>
-      <c r="J16" s="16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K16" s="15">
-        <f>G16*I16</f>
-        <v/>
-      </c>
-      <c r="L16" s="12" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M16" s="11" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Uso de EPP</t>
         </is>
       </c>
-      <c r="N16" s="33" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Capacitaciones sobre el uso correcto de herramientas de trabajo y trabajo seguro.</t>
         </is>
       </c>
-    </row>
-    <row r="17" ht="45" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>R120</t>
         </is>
       </c>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Uso de montacargas</t>
         </is>
       </c>
-      <c r="E17" s="41" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F17" s="12" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Pasó alguna vez</t>
         </is>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" t="n">
         <v>6</v>
       </c>
-      <c r="H17" s="12" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Lesión leve o sin impacto</t>
         </is>
       </c>
-      <c r="I17" s="12" t="n">
+      <c r="I17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" s="16" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K17" s="15">
-        <f>G17*I17</f>
-        <v/>
-      </c>
-      <c r="L17" s="12" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M17" s="11" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Uso de equipos de combustion a GLP y electricos</t>
         </is>
       </c>
-      <c r="N17" s="33" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Renovación a medio plazo</t>
         </is>
       </c>
-    </row>
-    <row r="18" ht="46.5" customHeight="1">
-      <c r="A18" s="32" t="inlineStr">
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>R121</t>
         </is>
       </c>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">Fisicos </t>
         </is>
       </c>
-      <c r="C18" s="12" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Golpe o choque de calor por las altas concentraciones de CO2</t>
         </is>
       </c>
-      <c r="D18" s="12" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sobrepoblación de personas en áreas de trabajo reducidas o poco ventiladas </t>
         </is>
       </c>
-      <c r="E18" s="41" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Puestos con actividades administrativas</t>
         </is>
       </c>
-      <c r="F18" s="12" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" t="n">
         <v>9</v>
       </c>
-      <c r="H18" s="12" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Lesión leve o sin impacto</t>
         </is>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="16" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K18" s="15">
-        <f>G18*I18</f>
-        <v/>
-      </c>
-      <c r="L18" s="12" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M18" s="11" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Aires acondicionados</t>
         </is>
       </c>
-      <c r="N18" s="33" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Creación de áreas mejor ventiladas, pausas activas o reeorganización de personal.</t>
         </is>
       </c>
-    </row>
-    <row r="19" ht="39" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>R122</t>
         </is>
       </c>
-      <c r="B19" s="19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Ergonomicos</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Lumbalgía ocupacional</t>
         </is>
       </c>
-      <c r="D19" s="12" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Posturas repetitivas, mala manipulación de cargas, etc)</t>
         </is>
       </c>
-      <c r="E19" s="41" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F19" s="12" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" t="n">
         <v>9</v>
       </c>
-      <c r="H19" s="12" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" t="n">
         <v>6</v>
       </c>
-      <c r="J19" s="14" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K19" s="15">
-        <f>G19*I19</f>
-        <v/>
-      </c>
-      <c r="L19" s="12" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M19" s="11" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Sillas ejecutivas</t>
         </is>
       </c>
-      <c r="N19" s="33" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
         </is>
       </c>
-    </row>
-    <row r="20" ht="39" customHeight="1">
-      <c r="A20" s="32" t="inlineStr">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>R123</t>
         </is>
       </c>
-      <c r="B20" s="19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Ergonomicos</t>
         </is>
       </c>
-      <c r="C20" s="12" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Lesiones por condiciones ergonomicas (Sindrome tubo carpiano, Tendinitis, etc)</t>
         </is>
       </c>
-      <c r="D20" s="12" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Uso constante de equipo de computo</t>
         </is>
       </c>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F20" s="12" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Pasó alguna vez</t>
         </is>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" t="n">
         <v>6</v>
       </c>
-      <c r="H20" s="12" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" t="n">
         <v>12</v>
       </c>
-      <c r="J20" s="14" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K20" s="15">
-        <f>G20*I20</f>
-        <v/>
-      </c>
-      <c r="L20" s="12" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M20" s="11" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Capacitación</t>
         </is>
       </c>
-      <c r="N20" s="33" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Capacitación de condiciones ocupacionales y ergonómicas y uso de mause pad.</t>
         </is>
       </c>
-    </row>
-    <row r="21" ht="30.75" customHeight="1">
-      <c r="A21" s="32" t="inlineStr">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>R124</t>
         </is>
       </c>
-      <c r="B21" s="19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Ergonomicos</t>
         </is>
       </c>
-      <c r="C21" s="12" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Sindrome de texto (lesiones en columna)</t>
         </is>
       </c>
-      <c r="D21" s="12" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Uso constante de dispositivos móviles (HandHeld, teléfonos, tablets, entre otros)</t>
         </is>
       </c>
-      <c r="E21" s="41" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F21" s="12" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="G21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="12" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I21" s="12" t="n">
+      <c r="I21" t="n">
         <v>12</v>
       </c>
-      <c r="J21" s="16" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K21" s="15">
-        <f>G21*I21</f>
-        <v/>
-      </c>
-      <c r="L21" s="12" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M21" s="11" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Capacitacion</t>
         </is>
       </c>
-      <c r="N21" s="33" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="51.75" customHeight="1">
-      <c r="A22" s="32" t="inlineStr">
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>R125</t>
         </is>
       </c>
-      <c r="B22" s="19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Ergonomicos</t>
         </is>
       </c>
-      <c r="C22" s="12" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Polirradiculoneuropatías</t>
         </is>
       </c>
-      <c r="D22" s="12" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Malas posturas, posturas forzadas y repetitivas</t>
         </is>
       </c>
-      <c r="E22" s="41" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F22" s="12" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G22" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="12" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="16" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K22" s="15">
-        <f>G22*I22</f>
-        <v/>
-      </c>
-      <c r="L22" s="12" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M22" s="11" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Capacitacion</t>
         </is>
       </c>
-      <c r="N22" s="33" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>Capacitación de condiciones ocupacionales y ergonómicas.</t>
         </is>
       </c>
-    </row>
-    <row r="23" ht="39.75" customHeight="1">
-      <c r="A23" s="32" t="inlineStr">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>R126</t>
         </is>
       </c>
-      <c r="B23" s="20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Biológicos</t>
         </is>
       </c>
-      <c r="C23" s="12" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Enfermedades estacionales</t>
         </is>
       </c>
-      <c r="D23" s="12" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">Contacto con agentes patologicos </t>
         </is>
       </c>
-      <c r="E23" s="41" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F23" s="12" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G23" t="n">
         <v>9</v>
       </c>
-      <c r="H23" s="12" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" t="n">
         <v>6</v>
       </c>
-      <c r="J23" s="14" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K23" s="15">
-        <f>G23*I23</f>
-        <v/>
-      </c>
-      <c r="L23" s="12" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M23" s="11" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Concientización de cuidados y vacunación</t>
         </is>
       </c>
-      <c r="N23" s="33" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>Vigilancia epidemiológica</t>
         </is>
       </c>
-    </row>
-    <row r="24" ht="36.75" customHeight="1">
-      <c r="A24" s="32" t="inlineStr">
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>R127</t>
         </is>
       </c>
-      <c r="B24" s="20" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Biológicos</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Intoxicación</t>
         </is>
       </c>
-      <c r="D24" s="12" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve">Contacto con agentes patologicos </t>
         </is>
       </c>
-      <c r="E24" s="41" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F24" s="12" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G24" s="12" t="n">
+      <c r="G24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" s="12" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" t="n">
         <v>12</v>
       </c>
-      <c r="J24" s="16" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K24" s="15">
-        <f>G24*I24</f>
-        <v/>
-      </c>
-      <c r="L24" s="12" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M24" s="11" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>Identificación y aislamiento de mercancías peligrosas</t>
         </is>
       </c>
-      <c r="N24" s="33" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
         </is>
       </c>
-    </row>
-    <row r="25" ht="37.5" customHeight="1">
-      <c r="A25" s="32" t="inlineStr">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>R128</t>
         </is>
       </c>
-      <c r="B25" s="20" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Biológicos</t>
         </is>
       </c>
-      <c r="C25" s="12" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Enfermedades virales</t>
         </is>
       </c>
-      <c r="D25" s="12" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Contacto con agentes patologicos por manipulación de carga contaminada</t>
         </is>
       </c>
-      <c r="E25" s="41" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F25" s="12" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" t="n">
         <v>3</v>
       </c>
-      <c r="H25" s="12" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I25" s="12" t="n">
+      <c r="I25" t="n">
         <v>6</v>
       </c>
-      <c r="J25" s="16" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K25" s="15">
-        <f>G25*I25</f>
-        <v/>
-      </c>
-      <c r="L25" s="12" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M25" s="11" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Identificación y aislamiento de mercancías peligrosas</t>
         </is>
       </c>
-      <c r="N25" s="33" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>Capacitación sobre mercancías peligrosas a nivel salud.</t>
         </is>
       </c>
-    </row>
-    <row r="26" ht="39" customHeight="1">
-      <c r="A26" s="32" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>R129</t>
         </is>
       </c>
-      <c r="B26" s="20" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Biológicos</t>
         </is>
       </c>
-      <c r="C26" s="12" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Alergias</t>
         </is>
       </c>
-      <c r="D26" s="12" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Picaduras de mosquitos, abejas, zacudos, entre otros</t>
         </is>
       </c>
-      <c r="E26" s="41" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F26" s="12" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" s="12" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" t="n">
         <v>6</v>
       </c>
-      <c r="J26" s="16" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K26" s="15">
-        <f>G26*I26</f>
-        <v/>
-      </c>
-      <c r="L26" s="12" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M26" s="11" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Concientización de cuidados</t>
         </is>
       </c>
-      <c r="N26" s="33" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Vigilancia epidemiológica</t>
         </is>
       </c>
-    </row>
-    <row r="27" ht="33" customHeight="1">
-      <c r="A27" s="32" t="inlineStr">
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>R130</t>
         </is>
       </c>
-      <c r="B27" s="21" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">Psicósociales </t>
         </is>
       </c>
-      <c r="C27" s="12" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Acoso</t>
         </is>
       </c>
-      <c r="D27" s="12" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Por parte de compañeros, jefes y/o supervisores</t>
         </is>
       </c>
-      <c r="E27" s="41" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F27" s="12" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G27" s="12" t="n">
+      <c r="G27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="12" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Lesión leve o sin impacto</t>
         </is>
       </c>
-      <c r="I27" s="12" t="n">
+      <c r="I27" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="22" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Apropiado</t>
         </is>
       </c>
-      <c r="K27" s="15">
-        <f>G27*I27</f>
-        <v/>
-      </c>
-      <c r="L27" s="12" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M27" s="11" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Reglamento de Etica y RIT</t>
         </is>
       </c>
-      <c r="N27" s="33" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Canal de denuncias</t>
         </is>
       </c>
-    </row>
-    <row r="28" ht="34.5" customHeight="1">
-      <c r="A28" s="32" t="inlineStr">
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Apropiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>R131</t>
         </is>
       </c>
-      <c r="B28" s="21" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">Psicósociales </t>
         </is>
       </c>
-      <c r="C28" s="12" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Hostigamiento</t>
         </is>
       </c>
-      <c r="D28" s="12" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Por parte de compañeros, jefes y/o supervisores</t>
         </is>
       </c>
-      <c r="E28" s="41" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F28" s="12" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="G28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="12" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Lesión leve o sin impacto</t>
         </is>
       </c>
-      <c r="I28" s="12" t="n">
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="22" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Apropiado</t>
         </is>
       </c>
-      <c r="K28" s="15">
-        <f>G28*I28</f>
-        <v/>
-      </c>
-      <c r="L28" s="12" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M28" s="11" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Reglamento de Etica y RIT</t>
         </is>
       </c>
-      <c r="N28" s="33" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Canal de denuncias</t>
         </is>
       </c>
-    </row>
-    <row r="29" ht="41.25" customHeight="1">
-      <c r="A29" s="32" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Apropiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>R132</t>
         </is>
       </c>
-      <c r="B29" s="21" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">Psicósociales </t>
         </is>
       </c>
-      <c r="C29" s="12" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Estrés laboral</t>
         </is>
       </c>
-      <c r="D29" s="12" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Carga laboral elevada</t>
         </is>
       </c>
-      <c r="E29" s="41" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F29" s="12" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="G29" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="12" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I29" s="12" t="n">
+      <c r="I29" t="n">
         <v>6</v>
       </c>
-      <c r="J29" s="16" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K29" s="15">
-        <f>G29*I29</f>
-        <v/>
-      </c>
-      <c r="L29" s="12" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M29" s="11" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>Citas con psicológa</t>
         </is>
       </c>
-      <c r="N29" s="33" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>Por medio de Bienestar Laboral</t>
         </is>
       </c>
-    </row>
-    <row r="30" ht="34.5" customHeight="1">
-      <c r="A30" s="32" t="inlineStr">
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>R133</t>
         </is>
       </c>
-      <c r="B30" s="21" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">Psicósociales </t>
         </is>
       </c>
-      <c r="C30" s="12" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Depresión</t>
         </is>
       </c>
-      <c r="D30" s="12" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Carga laboral elevada</t>
         </is>
       </c>
-      <c r="E30" s="41" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F30" s="12" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" t="n">
         <v>3</v>
       </c>
-      <c r="H30" s="12" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I30" s="12" t="n">
+      <c r="I30" t="n">
         <v>6</v>
       </c>
-      <c r="J30" s="16" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K30" s="15">
-        <f>G30*I30</f>
-        <v/>
-      </c>
-      <c r="L30" s="12" t="inlineStr">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M30" s="11" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Citas con psicológa</t>
         </is>
       </c>
-      <c r="N30" s="33" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Por medio de Bienestar Laboral</t>
         </is>
       </c>
-    </row>
-    <row r="31" ht="56.25" customHeight="1">
-      <c r="A31" s="32" t="inlineStr">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>R134</t>
         </is>
       </c>
-      <c r="B31" s="21" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">Psicósociales </t>
         </is>
       </c>
-      <c r="C31" s="12" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Enfermedades fisicas varias</t>
         </is>
       </c>
-      <c r="D31" s="12" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Turnos laborales extensos y en horarios nocturnos</t>
         </is>
       </c>
-      <c r="E31" s="41" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F31" s="12" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G31" s="12" t="n">
+      <c r="G31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="12" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I31" s="12" t="n">
+      <c r="I31" t="n">
         <v>6</v>
       </c>
-      <c r="J31" s="16" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K31" s="15">
-        <f>G31*I31</f>
-        <v/>
-      </c>
-      <c r="L31" s="12" t="inlineStr">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M31" s="11" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Citas con Dr de Combexim</t>
         </is>
       </c>
-      <c r="N31" s="33" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Por medio de Bienestar Laboral</t>
         </is>
       </c>
-    </row>
-    <row r="32" ht="48" customHeight="1">
-      <c r="A32" s="32" t="inlineStr">
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>R135</t>
         </is>
       </c>
-      <c r="B32" s="23" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Eléctricos</t>
         </is>
       </c>
-      <c r="C32" s="24" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Descargas eléctricas</t>
         </is>
       </c>
-      <c r="D32" s="12" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Uso de equipos eléctricos en malas condiciones</t>
         </is>
       </c>
-      <c r="E32" s="41" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F32" s="12" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" s="12" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" t="n">
         <v>6</v>
       </c>
-      <c r="J32" s="16" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K32" s="15">
-        <f>G32*I32</f>
-        <v/>
-      </c>
-      <c r="L32" s="12" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M32" s="11" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Uso de EPP y capacitación</t>
         </is>
       </c>
-      <c r="N32" s="33" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>Evaluar EPP y el corecto uso</t>
         </is>
       </c>
-    </row>
-    <row r="33" ht="55.5" customHeight="1">
-      <c r="A33" s="32" t="inlineStr">
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>R136</t>
         </is>
       </c>
-      <c r="B33" s="23" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Eléctricos</t>
         </is>
       </c>
-      <c r="C33" s="24" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Electrucución</t>
         </is>
       </c>
-      <c r="D33" s="12" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Uso de equipos eléctricos en malas condiciones y de manera inadecuada</t>
         </is>
       </c>
-      <c r="E33" s="41" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F33" s="12" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G33" s="12" t="n">
+      <c r="G33" t="n">
         <v>3</v>
       </c>
-      <c r="H33" s="12" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Fatalidad (es)</t>
         </is>
       </c>
-      <c r="I33" s="12" t="n">
+      <c r="I33" t="n">
         <v>15</v>
       </c>
-      <c r="J33" s="14" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K33" s="15">
-        <f>G33*I33</f>
-        <v/>
-      </c>
-      <c r="L33" s="12" t="inlineStr">
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M33" s="11" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>Uso de EPP y capacitación</t>
         </is>
       </c>
-      <c r="N33" s="33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>Evaluar EPP y el corecto uso</t>
         </is>
       </c>
-    </row>
-    <row r="34" ht="54.75" customHeight="1">
-      <c r="A34" s="32" t="inlineStr">
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>R137</t>
         </is>
       </c>
-      <c r="B34" s="23" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Eléctricos</t>
         </is>
       </c>
-      <c r="C34" s="24" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Quemaduras de 2do o 3er grado</t>
         </is>
       </c>
-      <c r="D34" s="12" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Incendios (Cortocircuitos y contacto con materiales inflamables)</t>
         </is>
       </c>
-      <c r="E34" s="41" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Puestos netamente Operativos</t>
         </is>
       </c>
-      <c r="F34" s="12" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="12" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I34" s="12" t="n">
+      <c r="I34" t="n">
         <v>12</v>
       </c>
-      <c r="J34" s="16" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K34" s="15">
-        <f>G34*I34</f>
-        <v/>
-      </c>
-      <c r="L34" s="12" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M34" s="11" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>Uso de EPP y capacitación</t>
         </is>
       </c>
-      <c r="N34" s="33" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>Evaluar EPP y el corecto uso</t>
         </is>
       </c>
-    </row>
-    <row r="35" ht="57" customHeight="1">
-      <c r="A35" s="32" t="inlineStr">
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>R138</t>
         </is>
       </c>
-      <c r="B35" s="25" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">Naturales/Locativos </t>
         </is>
       </c>
-      <c r="C35" s="12" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Lesiones severas o fatalidades</t>
         </is>
       </c>
-      <c r="D35" s="12" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Sismo (Área altamente sismíca)</t>
         </is>
       </c>
-      <c r="E35" s="41" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F35" s="12" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G35" s="12" t="n">
+      <c r="G35" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="12" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Fatalidad (es)</t>
         </is>
       </c>
-      <c r="I35" s="12" t="n">
+      <c r="I35" t="n">
         <v>15</v>
       </c>
-      <c r="J35" s="14" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Medio</t>
         </is>
       </c>
-      <c r="K35" s="15">
-        <f>G35*I35</f>
-        <v/>
-      </c>
-      <c r="L35" s="12" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M35" s="11" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>Simulacros de evacuación y señalización.</t>
         </is>
       </c>
-      <c r="N35" s="33" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
         </is>
       </c>
-    </row>
-    <row r="36" ht="61.5" customHeight="1">
-      <c r="A36" s="32" t="inlineStr">
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>R139</t>
         </is>
       </c>
-      <c r="B36" s="25" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">Naturales/Locativos </t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Lesiones severas o fatalidades</t>
         </is>
       </c>
-      <c r="D36" s="12" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Incendios forestales provenientes de factores humanos y naturales(rayos).</t>
         </is>
       </c>
-      <c r="E36" s="41" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F36" s="12" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Podría pasar</t>
         </is>
       </c>
-      <c r="G36" s="12" t="n">
+      <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" s="12" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Lesión incapacitante</t>
         </is>
       </c>
-      <c r="I36" s="12" t="n">
+      <c r="I36" t="n">
         <v>12</v>
       </c>
-      <c r="J36" s="16" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K36" s="15">
-        <f>G36*I36</f>
-        <v/>
-      </c>
-      <c r="L36" s="12" t="inlineStr">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Controles de Ingeniería</t>
         </is>
       </c>
-      <c r="M36" s="11" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>Simulacros de evacuación y señalización.</t>
         </is>
       </c>
-      <c r="N36" s="33" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>Identificación de puntos seguros en áreas críticas (Bodegas), capacitación y señalización.</t>
         </is>
       </c>
-    </row>
-    <row r="37" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A37" s="34" t="inlineStr">
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>R140</t>
         </is>
       </c>
-      <c r="B37" s="35" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">Naturales/Locativos </t>
         </is>
       </c>
-      <c r="C37" s="36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Infecciones o irritación a vías respiratorias</t>
         </is>
       </c>
-      <c r="D37" s="36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Actividad volcánica (Ceniza)</t>
         </is>
       </c>
-      <c r="E37" s="42" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Todos los puestos</t>
         </is>
       </c>
-      <c r="F37" s="36" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Pasó alguna vez</t>
         </is>
       </c>
-      <c r="G37" s="36" t="n">
+      <c r="G37" t="n">
         <v>6</v>
       </c>
-      <c r="H37" s="36" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Lesión Severa</t>
         </is>
       </c>
-      <c r="I37" s="36" t="n">
+      <c r="I37" t="n">
         <v>6</v>
       </c>
-      <c r="J37" s="37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Bajo</t>
         </is>
       </c>
-      <c r="K37" s="38">
-        <f>G37*I37</f>
-        <v/>
-      </c>
-      <c r="L37" s="36" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Controles Administrativos</t>
         </is>
       </c>
-      <c r="M37" s="39" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>Uso de mascarillas</t>
         </is>
       </c>
-      <c r="N37" s="40" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>Capacitación</t>
         </is>
       </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="L2:L37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2:H37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" scale="35" fitToHeight="0" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13136,10 +13073,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -10476,7 +10476,11 @@
           <t>Fatalidad (es) x Pasa una vez o más al año</t>
         </is>
       </c>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>

--- a/SSO_datos_ejemplo.xlsx
+++ b/SSO_datos_ejemplo.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10482,6 +10482,61 @@
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Casi Accidente</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Acoso</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Fatalidad (es)</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Fatalidad (es) x Pasa una vez o más al año</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
